--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="549">
   <si>
     <t>Fecha</t>
   </si>
@@ -1646,6 +1646,18 @@
   </si>
   <si>
     <t>11/6/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:20:00 PM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -2006,7 +2018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L534"/>
+  <dimension ref="A1:L538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2082,7 +2094,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2120,7 +2132,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2158,7 +2170,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2196,7 +2208,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2234,7 +2246,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2272,7 +2284,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2310,7 +2322,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2348,7 +2360,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2386,7 +2398,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2424,7 +2436,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2462,7 +2474,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2500,7 +2512,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2538,7 +2550,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2576,7 +2588,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2614,7 +2626,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2652,7 +2664,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2690,7 +2702,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2728,7 +2740,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2766,7 +2778,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2804,7 +2816,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2842,7 +2854,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2880,7 +2892,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2918,7 +2930,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2956,7 +2968,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2994,7 +3006,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3032,7 +3044,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3070,7 +3082,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3108,7 +3120,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3146,7 +3158,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3184,7 +3196,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3222,7 +3234,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3260,7 +3272,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3298,7 +3310,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3336,7 +3348,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3374,7 +3386,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3412,7 +3424,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3450,7 +3462,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3488,7 +3500,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3526,7 +3538,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3564,7 +3576,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3602,7 +3614,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3640,7 +3652,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3678,7 +3690,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3716,7 +3728,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3754,7 +3766,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3792,7 +3804,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3830,7 +3842,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3868,7 +3880,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3906,7 +3918,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3944,7 +3956,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3982,7 +3994,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4020,7 +4032,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4058,7 +4070,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4096,7 +4108,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4134,7 +4146,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4172,7 +4184,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4210,7 +4222,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4248,7 +4260,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4286,7 +4298,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4324,7 +4336,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4362,7 +4374,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4400,7 +4412,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4438,7 +4450,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4476,7 +4488,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4514,7 +4526,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4552,7 +4564,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4590,7 +4602,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4628,7 +4640,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4666,7 +4678,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4704,7 +4716,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4742,7 +4754,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4780,7 +4792,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4818,7 +4830,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4856,7 +4868,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4894,7 +4906,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4932,7 +4944,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4970,7 +4982,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5008,7 +5020,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5046,7 +5058,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5084,7 +5096,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5122,7 +5134,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5160,7 +5172,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5198,7 +5210,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5236,7 +5248,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5274,7 +5286,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5312,7 +5324,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5350,7 +5362,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5388,7 +5400,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5426,7 +5438,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5464,7 +5476,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5502,7 +5514,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5540,7 +5552,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5578,7 +5590,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5616,7 +5628,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5654,7 +5666,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5692,7 +5704,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5730,7 +5742,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5768,7 +5780,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5806,7 +5818,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5844,7 +5856,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5882,7 +5894,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5920,7 +5932,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5958,7 +5970,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5996,7 +6008,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6034,7 +6046,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6072,7 +6084,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6110,7 +6122,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6148,7 +6160,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6186,7 +6198,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6224,7 +6236,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6262,7 +6274,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6300,7 +6312,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6338,7 +6350,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6376,7 +6388,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6414,7 +6426,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6452,7 +6464,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6490,7 +6502,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6528,7 +6540,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6566,7 +6578,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6604,7 +6616,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6642,7 +6654,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6680,7 +6692,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6718,7 +6730,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6756,7 +6768,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6794,7 +6806,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6832,7 +6844,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6870,7 +6882,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6908,7 +6920,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6946,7 +6958,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6984,7 +6996,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7022,7 +7034,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7060,7 +7072,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7098,7 +7110,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7136,7 +7148,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7174,7 +7186,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7212,7 +7224,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7250,7 +7262,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7288,7 +7300,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7326,7 +7338,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7364,7 +7376,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7402,7 +7414,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7440,7 +7452,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7478,7 +7490,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7516,7 +7528,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7554,7 +7566,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7592,7 +7604,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7630,7 +7642,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7668,7 +7680,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7706,7 +7718,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7744,7 +7756,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7782,7 +7794,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7820,7 +7832,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7858,7 +7870,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7896,7 +7908,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7934,7 +7946,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7972,7 +7984,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8010,7 +8022,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8048,7 +8060,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8086,7 +8098,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8124,7 +8136,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8162,7 +8174,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8200,7 +8212,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8238,7 +8250,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8276,7 +8288,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8314,7 +8326,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8352,7 +8364,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8390,7 +8402,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8428,7 +8440,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8466,7 +8478,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8504,7 +8516,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8542,7 +8554,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8580,7 +8592,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8618,7 +8630,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8656,7 +8668,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8694,7 +8706,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8732,7 +8744,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8770,7 +8782,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8808,7 +8820,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8846,7 +8858,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8884,7 +8896,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8922,7 +8934,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8960,7 +8972,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8998,7 +9010,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9036,7 +9048,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9074,7 +9086,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9112,7 +9124,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9150,7 +9162,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9188,7 +9200,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9226,7 +9238,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9264,7 +9276,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9302,7 +9314,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9340,7 +9352,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9378,7 +9390,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9416,7 +9428,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9454,7 +9466,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9492,7 +9504,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9530,7 +9542,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9568,7 +9580,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9606,7 +9618,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9644,7 +9656,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9682,7 +9694,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9720,7 +9732,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9758,7 +9770,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9796,7 +9808,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9834,7 +9846,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9872,7 +9884,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9910,7 +9922,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9948,7 +9960,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9986,7 +9998,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10024,7 +10036,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10062,7 +10074,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10100,7 +10112,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10138,7 +10150,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10176,7 +10188,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10214,7 +10226,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10252,7 +10264,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10290,7 +10302,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10328,7 +10340,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10366,7 +10378,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10404,7 +10416,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10442,7 +10454,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10480,7 +10492,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10518,7 +10530,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10556,7 +10568,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10594,7 +10606,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10632,7 +10644,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10670,7 +10682,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10708,7 +10720,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10746,7 +10758,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10784,7 +10796,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10822,7 +10834,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10860,7 +10872,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10898,7 +10910,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10936,7 +10948,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10974,7 +10986,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11012,7 +11024,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11050,7 +11062,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11088,7 +11100,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11126,7 +11138,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11164,7 +11176,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11202,7 +11214,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11240,7 +11252,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11278,7 +11290,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11316,7 +11328,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11354,7 +11366,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11392,7 +11404,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11430,7 +11442,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11468,7 +11480,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11506,7 +11518,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11544,7 +11556,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11582,7 +11594,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11620,7 +11632,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11658,7 +11670,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11696,7 +11708,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11734,7 +11746,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11772,7 +11784,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11810,7 +11822,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11848,7 +11860,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11886,7 +11898,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11924,7 +11936,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11962,7 +11974,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12000,7 +12012,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12038,7 +12050,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12076,7 +12088,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12114,7 +12126,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12152,7 +12164,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12190,7 +12202,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12228,7 +12240,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12266,7 +12278,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12304,7 +12316,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12342,7 +12354,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12380,7 +12392,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12418,7 +12430,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12456,7 +12468,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12494,7 +12506,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12532,7 +12544,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12570,7 +12582,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12608,7 +12620,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12646,7 +12658,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12684,7 +12696,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12722,7 +12734,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12760,7 +12772,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12798,7 +12810,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12836,7 +12848,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12874,7 +12886,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12912,7 +12924,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12950,7 +12962,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12988,7 +13000,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13026,7 +13038,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13064,7 +13076,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13102,7 +13114,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13140,7 +13152,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13178,7 +13190,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13216,7 +13228,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13254,7 +13266,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13292,7 +13304,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13330,7 +13342,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13368,7 +13380,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13406,7 +13418,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13444,7 +13456,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13482,7 +13494,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13520,7 +13532,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13558,7 +13570,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13596,7 +13608,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13634,7 +13646,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13672,7 +13684,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13710,7 +13722,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13748,7 +13760,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13786,7 +13798,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13824,7 +13836,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13862,7 +13874,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13900,7 +13912,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13938,7 +13950,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13976,7 +13988,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14014,7 +14026,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14052,7 +14064,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14090,7 +14102,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14128,7 +14140,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14166,7 +14178,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14204,7 +14216,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14242,7 +14254,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14280,7 +14292,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14318,7 +14330,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14356,7 +14368,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14394,7 +14406,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14432,7 +14444,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14470,7 +14482,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14508,7 +14520,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14546,7 +14558,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14584,7 +14596,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14622,7 +14634,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14660,7 +14672,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14698,7 +14710,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14736,7 +14748,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14774,7 +14786,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14812,7 +14824,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14850,7 +14862,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14888,7 +14900,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14926,7 +14938,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14964,7 +14976,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15002,7 +15014,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15040,7 +15052,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15078,7 +15090,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15116,7 +15128,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15154,7 +15166,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15192,7 +15204,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15230,7 +15242,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15268,7 +15280,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15306,7 +15318,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15344,7 +15356,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15382,7 +15394,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15420,7 +15432,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15458,7 +15470,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15496,7 +15508,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15534,7 +15546,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15572,7 +15584,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15610,7 +15622,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15648,7 +15660,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15686,7 +15698,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15724,7 +15736,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15762,7 +15774,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15800,7 +15812,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15838,7 +15850,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15876,7 +15888,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15914,7 +15926,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15952,7 +15964,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15990,7 +16002,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16028,7 +16040,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16066,7 +16078,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16104,7 +16116,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16142,7 +16154,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16180,7 +16192,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16218,7 +16230,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16256,7 +16268,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16294,7 +16306,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16332,7 +16344,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16370,7 +16382,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16408,7 +16420,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16446,7 +16458,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16484,7 +16496,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16522,7 +16534,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16560,7 +16572,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16598,7 +16610,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16636,7 +16648,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16674,7 +16686,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16712,7 +16724,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16750,7 +16762,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16788,7 +16800,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16826,7 +16838,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16864,7 +16876,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16902,7 +16914,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16940,7 +16952,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16978,7 +16990,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17016,7 +17028,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17054,7 +17066,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17092,7 +17104,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17130,7 +17142,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17168,7 +17180,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17206,7 +17218,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17244,7 +17256,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17282,7 +17294,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17320,7 +17332,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17358,7 +17370,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17396,7 +17408,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17434,7 +17446,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17472,7 +17484,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17510,7 +17522,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17548,7 +17560,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17586,7 +17598,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17624,7 +17636,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17662,7 +17674,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17700,7 +17712,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17738,7 +17750,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17776,7 +17788,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17814,7 +17826,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17852,7 +17864,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17890,7 +17902,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17928,7 +17940,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17966,7 +17978,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18004,7 +18016,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18042,7 +18054,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18080,7 +18092,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18118,7 +18130,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18156,7 +18168,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18194,7 +18206,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18232,7 +18244,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18270,7 +18282,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18308,7 +18320,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18346,7 +18358,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18384,7 +18396,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18422,7 +18434,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18460,7 +18472,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18498,7 +18510,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18536,7 +18548,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18574,7 +18586,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18612,7 +18624,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18650,7 +18662,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18688,7 +18700,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18726,7 +18738,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18764,7 +18776,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18802,7 +18814,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18840,7 +18852,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18878,7 +18890,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18916,7 +18928,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18954,7 +18966,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18992,7 +19004,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19030,7 +19042,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19068,7 +19080,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19106,7 +19118,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19144,7 +19156,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19182,7 +19194,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19220,7 +19232,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19258,7 +19270,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19296,7 +19308,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19334,7 +19346,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19372,7 +19384,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19410,7 +19422,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19448,7 +19460,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19486,7 +19498,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19524,7 +19536,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19562,7 +19574,7 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19600,7 +19612,7 @@
         <v>13.25</v>
       </c>
       <c r="L463" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19638,7 +19650,7 @@
         <v>13.25</v>
       </c>
       <c r="L464" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19676,7 +19688,7 @@
         <v>13.25</v>
       </c>
       <c r="L465" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19714,7 +19726,7 @@
         <v>13.25</v>
       </c>
       <c r="L466" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19752,7 +19764,7 @@
         <v>13.25</v>
       </c>
       <c r="L467" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19790,7 +19802,7 @@
         <v>13.25</v>
       </c>
       <c r="L468" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19828,7 +19840,7 @@
         <v>13.25</v>
       </c>
       <c r="L469" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19866,7 +19878,7 @@
         <v>13.25</v>
       </c>
       <c r="L470" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19904,7 +19916,7 @@
         <v>13.25</v>
       </c>
       <c r="L471" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19942,7 +19954,7 @@
         <v>13.25</v>
       </c>
       <c r="L472" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19980,7 +19992,7 @@
         <v>13.25</v>
       </c>
       <c r="L473" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20018,7 +20030,7 @@
         <v>13.25</v>
       </c>
       <c r="L474" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20056,7 +20068,7 @@
         <v>13.25</v>
       </c>
       <c r="L475" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20094,7 +20106,7 @@
         <v>13.25</v>
       </c>
       <c r="L476" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20132,7 +20144,7 @@
         <v>13.25</v>
       </c>
       <c r="L477" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20170,7 +20182,7 @@
         <v>13.25</v>
       </c>
       <c r="L478" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20208,7 +20220,7 @@
         <v>13.25</v>
       </c>
       <c r="L479" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20246,7 +20258,7 @@
         <v>13.25</v>
       </c>
       <c r="L480" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20284,7 +20296,7 @@
         <v>13.25</v>
       </c>
       <c r="L481" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20322,7 +20334,7 @@
         <v>13.25</v>
       </c>
       <c r="L482" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20360,7 +20372,7 @@
         <v>13.25</v>
       </c>
       <c r="L483" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20398,7 +20410,7 @@
         <v>13.25</v>
       </c>
       <c r="L484" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20436,7 +20448,7 @@
         <v>13.25</v>
       </c>
       <c r="L485" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20474,7 +20486,7 @@
         <v>13.25</v>
       </c>
       <c r="L486" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20512,7 +20524,7 @@
         <v>13.25</v>
       </c>
       <c r="L487" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20550,7 +20562,7 @@
         <v>13.25</v>
       </c>
       <c r="L488" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20588,7 +20600,7 @@
         <v>13.25</v>
       </c>
       <c r="L489" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20626,7 +20638,7 @@
         <v>13.25</v>
       </c>
       <c r="L490" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20664,7 +20676,7 @@
         <v>13.25</v>
       </c>
       <c r="L491" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20702,7 +20714,7 @@
         <v>13.25</v>
       </c>
       <c r="L492" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20740,7 +20752,7 @@
         <v>13.25</v>
       </c>
       <c r="L493" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20778,7 +20790,7 @@
         <v>13.25</v>
       </c>
       <c r="L494" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20816,7 +20828,7 @@
         <v>13.25</v>
       </c>
       <c r="L495" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20854,7 +20866,7 @@
         <v>13.25</v>
       </c>
       <c r="L496" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20892,7 +20904,7 @@
         <v>13.25</v>
       </c>
       <c r="L497" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20930,7 +20942,7 @@
         <v>13.25</v>
       </c>
       <c r="L498" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20968,7 +20980,7 @@
         <v>13.25</v>
       </c>
       <c r="L499" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21006,7 +21018,7 @@
         <v>13.25</v>
       </c>
       <c r="L500" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21044,7 +21056,7 @@
         <v>13.25</v>
       </c>
       <c r="L501" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21082,7 +21094,7 @@
         <v>13.25</v>
       </c>
       <c r="L502" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21120,7 +21132,7 @@
         <v>13.25</v>
       </c>
       <c r="L503" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21158,7 +21170,7 @@
         <v>13.25</v>
       </c>
       <c r="L504" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21196,7 +21208,7 @@
         <v>13.25</v>
       </c>
       <c r="L505" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21234,7 +21246,7 @@
         <v>13.25</v>
       </c>
       <c r="L506" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21272,7 +21284,7 @@
         <v>13.25</v>
       </c>
       <c r="L507" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21310,7 +21322,7 @@
         <v>13.25</v>
       </c>
       <c r="L508" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21348,7 +21360,7 @@
         <v>13.25</v>
       </c>
       <c r="L509" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21386,7 +21398,7 @@
         <v>13.25</v>
       </c>
       <c r="L510" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21424,7 +21436,7 @@
         <v>13.25</v>
       </c>
       <c r="L511" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21462,7 +21474,7 @@
         <v>13.25</v>
       </c>
       <c r="L512" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21500,7 +21512,7 @@
         <v>13.25</v>
       </c>
       <c r="L513" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21538,7 +21550,7 @@
         <v>13.25</v>
       </c>
       <c r="L514" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21576,7 +21588,7 @@
         <v>13.25</v>
       </c>
       <c r="L515" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21614,7 +21626,7 @@
         <v>13.25</v>
       </c>
       <c r="L516" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21652,7 +21664,7 @@
         <v>13.25</v>
       </c>
       <c r="L517" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21690,7 +21702,7 @@
         <v>13.25</v>
       </c>
       <c r="L518" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21728,7 +21740,7 @@
         <v>13.25</v>
       </c>
       <c r="L519" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21766,7 +21778,7 @@
         <v>13.25</v>
       </c>
       <c r="L520" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21804,7 +21816,7 @@
         <v>13.25</v>
       </c>
       <c r="L521" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21842,7 +21854,7 @@
         <v>13.25</v>
       </c>
       <c r="L522" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21880,7 +21892,7 @@
         <v>13.25</v>
       </c>
       <c r="L523" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21918,7 +21930,7 @@
         <v>13.25</v>
       </c>
       <c r="L524" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21956,7 +21968,7 @@
         <v>13.25</v>
       </c>
       <c r="L525" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -21994,7 +22006,7 @@
         <v>13.25</v>
       </c>
       <c r="L526" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22032,7 +22044,7 @@
         <v>13.25</v>
       </c>
       <c r="L527" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22070,7 +22082,7 @@
         <v>13.25</v>
       </c>
       <c r="L528" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22108,7 +22120,7 @@
         <v>13.25</v>
       </c>
       <c r="L529" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22146,7 +22158,7 @@
         <v>13.25</v>
       </c>
       <c r="L530" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22184,7 +22196,7 @@
         <v>13.25</v>
       </c>
       <c r="L531" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22222,7 +22234,7 @@
         <v>13.25</v>
       </c>
       <c r="L532" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22260,7 +22272,7 @@
         <v>13.25</v>
       </c>
       <c r="L533" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22298,7 +22310,159 @@
         <v>13.25</v>
       </c>
       <c r="L534" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
         <v>544</v>
+      </c>
+      <c r="C535">
+        <v>13.68</v>
+      </c>
+      <c r="D535">
+        <v>0.41</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>20.24</v>
+      </c>
+      <c r="G535">
+        <v>98</v>
+      </c>
+      <c r="H535">
+        <v>-44.49</v>
+      </c>
+      <c r="I535">
+        <v>-0.02</v>
+      </c>
+      <c r="J535">
+        <v>43.72</v>
+      </c>
+      <c r="K535">
+        <v>13.25</v>
+      </c>
+      <c r="L535" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>545</v>
+      </c>
+      <c r="C536">
+        <v>13.68</v>
+      </c>
+      <c r="D536">
+        <v>0.41</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>20.22</v>
+      </c>
+      <c r="G536">
+        <v>98</v>
+      </c>
+      <c r="H536">
+        <v>-44.51</v>
+      </c>
+      <c r="I536">
+        <v>-0.02</v>
+      </c>
+      <c r="J536">
+        <v>38.97</v>
+      </c>
+      <c r="K536">
+        <v>13.25</v>
+      </c>
+      <c r="L536" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>546</v>
+      </c>
+      <c r="C537">
+        <v>13.68</v>
+      </c>
+      <c r="D537">
+        <v>0.41</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>20.11</v>
+      </c>
+      <c r="G537">
+        <v>98</v>
+      </c>
+      <c r="H537">
+        <v>-44.62</v>
+      </c>
+      <c r="I537">
+        <v>0.09</v>
+      </c>
+      <c r="J537">
+        <v>39.92</v>
+      </c>
+      <c r="K537">
+        <v>13.25</v>
+      </c>
+      <c r="L537" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>547</v>
+      </c>
+      <c r="C538">
+        <v>13.44</v>
+      </c>
+      <c r="D538">
+        <v>0.41</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>20.07</v>
+      </c>
+      <c r="G538">
+        <v>98</v>
+      </c>
+      <c r="H538">
+        <v>-44.67</v>
+      </c>
+      <c r="I538">
+        <v>0.01</v>
+      </c>
+      <c r="J538">
+        <v>16.83</v>
+      </c>
+      <c r="K538">
+        <v>13.25</v>
+      </c>
+      <c r="L538" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="443">
   <si>
     <t>Fecha</t>
   </si>
@@ -1316,6 +1316,30 @@
   </si>
   <si>
     <t>11/8/2020 10:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:40:00 PM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1676,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L424"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1752,7 +1776,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1790,7 +1814,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1828,7 +1852,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1866,7 +1890,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1904,7 +1928,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1942,7 +1966,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1980,7 +2004,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2018,7 +2042,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2056,7 +2080,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2094,7 +2118,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2132,7 +2156,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2170,7 +2194,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2208,7 +2232,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2246,7 +2270,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2284,7 +2308,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2322,7 +2346,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2360,7 +2384,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2398,7 +2422,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2436,7 +2460,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2474,7 +2498,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2512,7 +2536,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2550,7 +2574,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2588,7 +2612,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2626,7 +2650,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2664,7 +2688,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2702,7 +2726,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2740,7 +2764,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2778,7 +2802,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2816,7 +2840,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2854,7 +2878,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2892,7 +2916,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2930,7 +2954,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2968,7 +2992,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3006,7 +3030,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3044,7 +3068,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3082,7 +3106,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3120,7 +3144,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3158,7 +3182,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3196,7 +3220,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3234,7 +3258,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3272,7 +3296,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3310,7 +3334,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3348,7 +3372,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3386,7 +3410,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3424,7 +3448,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3462,7 +3486,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3500,7 +3524,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3538,7 +3562,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3576,7 +3600,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3614,7 +3638,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3652,7 +3676,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3690,7 +3714,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3728,7 +3752,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3766,7 +3790,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3804,7 +3828,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3842,7 +3866,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3880,7 +3904,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3918,7 +3942,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3956,7 +3980,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3994,7 +4018,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4032,7 +4056,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4070,7 +4094,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4108,7 +4132,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4146,7 +4170,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4184,7 +4208,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4222,7 +4246,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4260,7 +4284,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4298,7 +4322,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4336,7 +4360,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4374,7 +4398,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4412,7 +4436,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4450,7 +4474,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4488,7 +4512,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4526,7 +4550,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4564,7 +4588,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4602,7 +4626,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4640,7 +4664,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4678,7 +4702,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4716,7 +4740,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4754,7 +4778,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4792,7 +4816,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4830,7 +4854,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4868,7 +4892,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4906,7 +4930,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4944,7 +4968,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4982,7 +5006,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5020,7 +5044,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5058,7 +5082,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5096,7 +5120,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5134,7 +5158,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5172,7 +5196,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5210,7 +5234,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5248,7 +5272,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5286,7 +5310,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5324,7 +5348,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5362,7 +5386,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5400,7 +5424,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5438,7 +5462,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5476,7 +5500,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5514,7 +5538,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5552,7 +5576,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5590,7 +5614,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5628,7 +5652,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5666,7 +5690,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5704,7 +5728,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5742,7 +5766,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5780,7 +5804,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5818,7 +5842,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5856,7 +5880,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5894,7 +5918,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5932,7 +5956,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5970,7 +5994,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6008,7 +6032,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6046,7 +6070,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6084,7 +6108,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6122,7 +6146,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6160,7 +6184,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6198,7 +6222,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6236,7 +6260,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6274,7 +6298,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6312,7 +6336,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6350,7 +6374,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6388,7 +6412,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6426,7 +6450,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6464,7 +6488,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6502,7 +6526,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6540,7 +6564,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6578,7 +6602,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6616,7 +6640,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6654,7 +6678,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6692,7 +6716,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6730,7 +6754,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6768,7 +6792,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6806,7 +6830,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6844,7 +6868,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6882,7 +6906,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6920,7 +6944,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6958,7 +6982,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6996,7 +7020,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7034,7 +7058,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7072,7 +7096,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7110,7 +7134,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7148,7 +7172,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7186,7 +7210,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7224,7 +7248,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7262,7 +7286,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7300,7 +7324,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7338,7 +7362,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7376,7 +7400,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7414,7 +7438,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7452,7 +7476,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7490,7 +7514,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7528,7 +7552,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7566,7 +7590,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7604,7 +7628,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7642,7 +7666,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7680,7 +7704,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7718,7 +7742,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7756,7 +7780,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7794,7 +7818,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7832,7 +7856,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7870,7 +7894,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7908,7 +7932,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7946,7 +7970,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7984,7 +8008,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8022,7 +8046,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8060,7 +8084,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8098,7 +8122,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8136,7 +8160,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8174,7 +8198,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8212,7 +8236,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8250,7 +8274,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8288,7 +8312,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8326,7 +8350,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8364,7 +8388,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8402,7 +8426,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8440,7 +8464,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8478,7 +8502,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8516,7 +8540,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8554,7 +8578,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8592,7 +8616,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8630,7 +8654,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8668,7 +8692,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8706,7 +8730,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8744,7 +8768,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8782,7 +8806,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8820,7 +8844,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8858,7 +8882,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8896,7 +8920,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8934,7 +8958,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8972,7 +8996,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9010,7 +9034,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9048,7 +9072,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9086,7 +9110,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9124,7 +9148,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9162,7 +9186,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9200,7 +9224,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9238,7 +9262,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9276,7 +9300,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9314,7 +9338,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9352,7 +9376,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9390,7 +9414,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9428,7 +9452,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9466,7 +9490,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9504,7 +9528,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9542,7 +9566,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9580,7 +9604,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9618,7 +9642,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9656,7 +9680,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9694,7 +9718,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9732,7 +9756,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9770,7 +9794,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9808,7 +9832,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9846,7 +9870,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9884,7 +9908,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9922,7 +9946,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9960,7 +9984,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9998,7 +10022,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10036,7 +10060,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10074,7 +10098,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10112,7 +10136,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10150,7 +10174,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10188,7 +10212,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10226,7 +10250,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10264,7 +10288,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10302,7 +10326,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10340,7 +10364,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10378,7 +10402,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10416,7 +10440,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10454,7 +10478,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10492,7 +10516,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10530,7 +10554,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10568,7 +10592,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10606,7 +10630,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10644,7 +10668,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10682,7 +10706,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10720,7 +10744,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10758,7 +10782,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10796,7 +10820,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10834,7 +10858,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10872,7 +10896,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10910,7 +10934,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10948,7 +10972,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -10986,7 +11010,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11024,7 +11048,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11062,7 +11086,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11100,7 +11124,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11138,7 +11162,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11176,7 +11200,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11214,7 +11238,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11252,7 +11276,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11290,7 +11314,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11328,7 +11352,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11366,7 +11390,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11404,7 +11428,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11442,7 +11466,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11480,7 +11504,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11518,7 +11542,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11556,7 +11580,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11594,7 +11618,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11632,7 +11656,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11670,7 +11694,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11708,7 +11732,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11746,7 +11770,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11784,7 +11808,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11822,7 +11846,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11860,7 +11884,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11898,7 +11922,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11936,7 +11960,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -11974,7 +11998,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12012,7 +12036,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12050,7 +12074,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12088,7 +12112,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12126,7 +12150,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12164,7 +12188,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12202,7 +12226,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12240,7 +12264,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12278,7 +12302,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12316,7 +12340,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12354,7 +12378,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12392,7 +12416,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12430,7 +12454,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12468,7 +12492,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12506,7 +12530,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12544,7 +12568,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12582,7 +12606,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12620,7 +12644,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12658,7 +12682,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12696,7 +12720,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12734,7 +12758,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12772,7 +12796,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12810,7 +12834,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12848,7 +12872,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12886,7 +12910,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12924,7 +12948,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12962,7 +12986,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13000,7 +13024,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13038,7 +13062,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13076,7 +13100,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13114,7 +13138,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13152,7 +13176,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13190,7 +13214,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13228,7 +13252,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13266,7 +13290,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13304,7 +13328,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13342,7 +13366,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13380,7 +13404,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13418,7 +13442,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13456,7 +13480,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13494,7 +13518,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13532,7 +13556,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13570,7 +13594,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13608,7 +13632,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13646,7 +13670,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13684,7 +13708,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13722,7 +13746,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13760,7 +13784,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13798,7 +13822,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13836,7 +13860,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13874,7 +13898,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13912,7 +13936,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13950,7 +13974,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -13988,7 +14012,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14026,7 +14050,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14064,7 +14088,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14102,7 +14126,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14140,7 +14164,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14178,7 +14202,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14216,7 +14240,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14254,7 +14278,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14292,7 +14316,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14330,7 +14354,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14368,7 +14392,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14406,7 +14430,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14444,7 +14468,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14482,7 +14506,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14520,7 +14544,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14558,7 +14582,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14596,7 +14620,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14634,7 +14658,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14672,7 +14696,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14710,7 +14734,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14748,7 +14772,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14786,7 +14810,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14824,7 +14848,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14862,7 +14886,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14900,7 +14924,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14938,7 +14962,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -14976,7 +15000,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15014,7 +15038,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15052,7 +15076,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15090,7 +15114,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15128,7 +15152,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15166,7 +15190,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15204,7 +15228,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15242,7 +15266,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15280,7 +15304,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15318,7 +15342,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15356,7 +15380,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15394,7 +15418,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15432,7 +15456,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15470,7 +15494,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15508,7 +15532,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15546,7 +15570,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15584,7 +15608,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15622,7 +15646,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15660,7 +15684,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15698,7 +15722,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15736,7 +15760,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15774,7 +15798,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15812,7 +15836,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15850,7 +15874,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15888,7 +15912,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15926,7 +15950,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -15964,7 +15988,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16002,7 +16026,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16040,7 +16064,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16078,7 +16102,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16116,7 +16140,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16154,7 +16178,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16192,7 +16216,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16230,7 +16254,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16268,7 +16292,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16306,7 +16330,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16344,7 +16368,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16382,7 +16406,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16420,7 +16444,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16458,7 +16482,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16496,7 +16520,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16534,7 +16558,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16572,7 +16596,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16610,7 +16634,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16648,7 +16672,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16686,7 +16710,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16724,7 +16748,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16762,7 +16786,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16800,7 +16824,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16838,7 +16862,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16876,7 +16900,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16914,7 +16938,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16952,7 +16976,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -16990,7 +17014,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17028,7 +17052,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17066,7 +17090,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17104,7 +17128,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17142,7 +17166,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17180,7 +17204,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17218,7 +17242,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17256,7 +17280,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17294,7 +17318,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17332,7 +17356,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17370,7 +17394,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17408,7 +17432,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17446,7 +17470,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17484,7 +17508,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17522,7 +17546,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17560,7 +17584,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17598,7 +17622,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17636,7 +17660,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17674,7 +17698,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17712,7 +17736,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17750,7 +17774,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17788,7 +17812,311 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
         <v>434</v>
+      </c>
+      <c r="C425">
+        <v>13.01</v>
+      </c>
+      <c r="D425">
+        <v>0.36</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>18.68</v>
+      </c>
+      <c r="G425">
+        <v>98</v>
+      </c>
+      <c r="H425">
+        <v>-46.38</v>
+      </c>
+      <c r="I425">
+        <v>0.04</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>13.25</v>
+      </c>
+      <c r="L425" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>435</v>
+      </c>
+      <c r="C426">
+        <v>13.01</v>
+      </c>
+      <c r="D426">
+        <v>0.36</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>18.71</v>
+      </c>
+      <c r="G426">
+        <v>98</v>
+      </c>
+      <c r="H426">
+        <v>-46.36</v>
+      </c>
+      <c r="I426">
+        <v>-0.01</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>13.25</v>
+      </c>
+      <c r="L426" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>436</v>
+      </c>
+      <c r="C427">
+        <v>12.95</v>
+      </c>
+      <c r="D427">
+        <v>0.36</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>18.7</v>
+      </c>
+      <c r="G427">
+        <v>98</v>
+      </c>
+      <c r="H427">
+        <v>-46.35</v>
+      </c>
+      <c r="I427">
+        <v>-0.01</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>13.25</v>
+      </c>
+      <c r="L427" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>437</v>
+      </c>
+      <c r="C428">
+        <v>13</v>
+      </c>
+      <c r="D428">
+        <v>0.36</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>18.66</v>
+      </c>
+      <c r="G428">
+        <v>98</v>
+      </c>
+      <c r="H428">
+        <v>-46.4</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>13.25</v>
+      </c>
+      <c r="L428" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>438</v>
+      </c>
+      <c r="C429">
+        <v>13.01</v>
+      </c>
+      <c r="D429">
+        <v>0.36</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>18.61</v>
+      </c>
+      <c r="G429">
+        <v>98</v>
+      </c>
+      <c r="H429">
+        <v>-46.44</v>
+      </c>
+      <c r="I429">
+        <v>0.04</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>13.25</v>
+      </c>
+      <c r="L429" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>439</v>
+      </c>
+      <c r="C430">
+        <v>12.98</v>
+      </c>
+      <c r="D430">
+        <v>0.36</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>18.58</v>
+      </c>
+      <c r="G430">
+        <v>98</v>
+      </c>
+      <c r="H430">
+        <v>-46.45</v>
+      </c>
+      <c r="I430">
+        <v>0.01</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>13.25</v>
+      </c>
+      <c r="L430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>440</v>
+      </c>
+      <c r="C431">
+        <v>13</v>
+      </c>
+      <c r="D431">
+        <v>0.36</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>18.54</v>
+      </c>
+      <c r="G431">
+        <v>98</v>
+      </c>
+      <c r="H431">
+        <v>-46.51</v>
+      </c>
+      <c r="I431">
+        <v>0.03</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>13.25</v>
+      </c>
+      <c r="L431" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>441</v>
+      </c>
+      <c r="C432">
+        <v>13</v>
+      </c>
+      <c r="D432">
+        <v>0.36</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>18.62</v>
+      </c>
+      <c r="G432">
+        <v>98</v>
+      </c>
+      <c r="H432">
+        <v>-46.47</v>
+      </c>
+      <c r="I432">
+        <v>0.03</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>13.25</v>
+      </c>
+      <c r="L432" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="453">
   <si>
     <t>Fecha</t>
   </si>
@@ -1340,6 +1340,36 @@
   </si>
   <si>
     <t>11/8/2020 11:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:20:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1700,7 +1730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1776,7 +1806,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1814,7 +1844,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1852,7 +1882,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1890,7 +1920,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1928,7 +1958,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1966,7 +1996,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2004,7 +2034,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2042,7 +2072,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2080,7 +2110,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2118,7 +2148,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2156,7 +2186,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2194,7 +2224,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2232,7 +2262,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2270,7 +2300,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2308,7 +2338,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2346,7 +2376,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2384,7 +2414,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2422,7 +2452,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2460,7 +2490,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2498,7 +2528,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2536,7 +2566,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2574,7 +2604,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2612,7 +2642,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2650,7 +2680,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2688,7 +2718,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2726,7 +2756,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2764,7 +2794,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2802,7 +2832,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2840,7 +2870,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2878,7 +2908,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2916,7 +2946,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2954,7 +2984,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2992,7 +3022,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3030,7 +3060,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3068,7 +3098,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3106,7 +3136,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3144,7 +3174,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3182,7 +3212,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3220,7 +3250,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3258,7 +3288,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3296,7 +3326,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3334,7 +3364,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3372,7 +3402,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3410,7 +3440,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3448,7 +3478,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3486,7 +3516,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3524,7 +3554,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3562,7 +3592,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3600,7 +3630,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3638,7 +3668,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3676,7 +3706,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3714,7 +3744,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3752,7 +3782,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3790,7 +3820,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3828,7 +3858,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3866,7 +3896,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3904,7 +3934,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3942,7 +3972,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3980,7 +4010,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4018,7 +4048,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4056,7 +4086,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4094,7 +4124,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4132,7 +4162,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4170,7 +4200,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4208,7 +4238,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4246,7 +4276,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4284,7 +4314,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4322,7 +4352,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4360,7 +4390,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4398,7 +4428,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4436,7 +4466,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4474,7 +4504,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4512,7 +4542,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4550,7 +4580,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4588,7 +4618,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4626,7 +4656,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4664,7 +4694,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4702,7 +4732,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4740,7 +4770,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4778,7 +4808,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4816,7 +4846,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4854,7 +4884,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4892,7 +4922,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4930,7 +4960,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4968,7 +4998,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5006,7 +5036,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5044,7 +5074,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5082,7 +5112,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5120,7 +5150,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5158,7 +5188,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5196,7 +5226,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5234,7 +5264,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5272,7 +5302,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5310,7 +5340,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5348,7 +5378,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5386,7 +5416,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5424,7 +5454,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5462,7 +5492,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5500,7 +5530,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5538,7 +5568,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5576,7 +5606,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5614,7 +5644,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5652,7 +5682,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5690,7 +5720,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5728,7 +5758,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5766,7 +5796,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5804,7 +5834,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5842,7 +5872,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5880,7 +5910,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5918,7 +5948,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5956,7 +5986,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5994,7 +6024,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6032,7 +6062,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6070,7 +6100,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6108,7 +6138,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6146,7 +6176,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6184,7 +6214,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6222,7 +6252,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6260,7 +6290,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6298,7 +6328,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6336,7 +6366,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6374,7 +6404,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6412,7 +6442,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6450,7 +6480,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6488,7 +6518,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6526,7 +6556,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6564,7 +6594,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6602,7 +6632,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6640,7 +6670,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6678,7 +6708,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6716,7 +6746,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6754,7 +6784,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6792,7 +6822,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6830,7 +6860,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6868,7 +6898,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6906,7 +6936,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6944,7 +6974,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6982,7 +7012,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7020,7 +7050,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7058,7 +7088,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7096,7 +7126,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7134,7 +7164,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7172,7 +7202,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7210,7 +7240,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7248,7 +7278,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7286,7 +7316,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7324,7 +7354,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7362,7 +7392,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7400,7 +7430,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7438,7 +7468,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7476,7 +7506,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7514,7 +7544,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7552,7 +7582,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7590,7 +7620,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7628,7 +7658,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7666,7 +7696,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7704,7 +7734,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7742,7 +7772,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7780,7 +7810,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7818,7 +7848,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7856,7 +7886,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7894,7 +7924,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7932,7 +7962,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7970,7 +8000,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8008,7 +8038,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8046,7 +8076,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8084,7 +8114,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8122,7 +8152,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8160,7 +8190,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8198,7 +8228,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8236,7 +8266,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8274,7 +8304,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8312,7 +8342,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8350,7 +8380,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8388,7 +8418,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8426,7 +8456,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8464,7 +8494,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8502,7 +8532,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8540,7 +8570,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8578,7 +8608,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8616,7 +8646,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8654,7 +8684,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8692,7 +8722,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8730,7 +8760,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8768,7 +8798,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8806,7 +8836,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8844,7 +8874,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8882,7 +8912,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8920,7 +8950,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8958,7 +8988,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8996,7 +9026,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9034,7 +9064,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9072,7 +9102,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9110,7 +9140,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9148,7 +9178,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9186,7 +9216,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9224,7 +9254,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9262,7 +9292,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9300,7 +9330,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9338,7 +9368,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9376,7 +9406,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9414,7 +9444,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9452,7 +9482,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9490,7 +9520,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9528,7 +9558,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9566,7 +9596,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9604,7 +9634,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9642,7 +9672,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9680,7 +9710,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9718,7 +9748,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9756,7 +9786,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9794,7 +9824,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9832,7 +9862,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9870,7 +9900,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9908,7 +9938,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9946,7 +9976,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9984,7 +10014,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10022,7 +10052,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10060,7 +10090,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10098,7 +10128,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10136,7 +10166,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10174,7 +10204,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10212,7 +10242,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10250,7 +10280,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10288,7 +10318,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10326,7 +10356,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10364,7 +10394,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10402,7 +10432,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10440,7 +10470,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10478,7 +10508,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10516,7 +10546,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10554,7 +10584,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10592,7 +10622,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10630,7 +10660,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10668,7 +10698,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10706,7 +10736,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10744,7 +10774,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10782,7 +10812,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10820,7 +10850,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10858,7 +10888,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10896,7 +10926,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10934,7 +10964,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10972,7 +11002,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11010,7 +11040,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11048,7 +11078,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11086,7 +11116,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11124,7 +11154,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11162,7 +11192,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11200,7 +11230,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11238,7 +11268,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11276,7 +11306,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11314,7 +11344,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11352,7 +11382,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11390,7 +11420,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11428,7 +11458,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11466,7 +11496,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11504,7 +11534,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11542,7 +11572,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11580,7 +11610,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11618,7 +11648,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11656,7 +11686,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11694,7 +11724,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11732,7 +11762,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11770,7 +11800,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11808,7 +11838,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11846,7 +11876,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11884,7 +11914,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11922,7 +11952,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11960,7 +11990,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -11998,7 +12028,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12036,7 +12066,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12074,7 +12104,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12112,7 +12142,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12150,7 +12180,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12188,7 +12218,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12226,7 +12256,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12264,7 +12294,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12302,7 +12332,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12340,7 +12370,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12378,7 +12408,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12416,7 +12446,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12454,7 +12484,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12492,7 +12522,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12530,7 +12560,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12568,7 +12598,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12606,7 +12636,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12644,7 +12674,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12682,7 +12712,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12720,7 +12750,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12758,7 +12788,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12796,7 +12826,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12834,7 +12864,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12872,7 +12902,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12910,7 +12940,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12948,7 +12978,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12986,7 +13016,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13024,7 +13054,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13062,7 +13092,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13100,7 +13130,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13138,7 +13168,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13176,7 +13206,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13214,7 +13244,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13252,7 +13282,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13290,7 +13320,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13328,7 +13358,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13366,7 +13396,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13404,7 +13434,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13442,7 +13472,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13480,7 +13510,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13518,7 +13548,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13556,7 +13586,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13594,7 +13624,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13632,7 +13662,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13670,7 +13700,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13708,7 +13738,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13746,7 +13776,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13784,7 +13814,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13822,7 +13852,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13860,7 +13890,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13898,7 +13928,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13936,7 +13966,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13974,7 +14004,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14012,7 +14042,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14050,7 +14080,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14088,7 +14118,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14126,7 +14156,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14164,7 +14194,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14202,7 +14232,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14240,7 +14270,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14278,7 +14308,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14316,7 +14346,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14354,7 +14384,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14392,7 +14422,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14430,7 +14460,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14468,7 +14498,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14506,7 +14536,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14544,7 +14574,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14582,7 +14612,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14620,7 +14650,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14658,7 +14688,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14696,7 +14726,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14734,7 +14764,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14772,7 +14802,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14810,7 +14840,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14848,7 +14878,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14886,7 +14916,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14924,7 +14954,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14962,7 +14992,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15000,7 +15030,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15038,7 +15068,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15076,7 +15106,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15114,7 +15144,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15152,7 +15182,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15190,7 +15220,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15228,7 +15258,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15266,7 +15296,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15304,7 +15334,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15342,7 +15372,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15380,7 +15410,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15418,7 +15448,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15456,7 +15486,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15494,7 +15524,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15532,7 +15562,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15570,7 +15600,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15608,7 +15638,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15646,7 +15676,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15684,7 +15714,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15722,7 +15752,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15760,7 +15790,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15798,7 +15828,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15836,7 +15866,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15874,7 +15904,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15912,7 +15942,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15950,7 +15980,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -15988,7 +16018,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16026,7 +16056,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16064,7 +16094,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16102,7 +16132,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16140,7 +16170,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16178,7 +16208,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16216,7 +16246,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16254,7 +16284,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16292,7 +16322,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16330,7 +16360,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16368,7 +16398,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16406,7 +16436,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16444,7 +16474,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16482,7 +16512,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16520,7 +16550,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16558,7 +16588,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16596,7 +16626,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16634,7 +16664,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16672,7 +16702,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16710,7 +16740,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16748,7 +16778,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16786,7 +16816,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16824,7 +16854,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16862,7 +16892,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16900,7 +16930,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16938,7 +16968,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16976,7 +17006,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17014,7 +17044,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17052,7 +17082,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17090,7 +17120,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17128,7 +17158,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17166,7 +17196,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17204,7 +17234,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17242,7 +17272,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17280,7 +17310,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17318,7 +17348,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17356,7 +17386,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17394,7 +17424,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17432,7 +17462,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17470,7 +17500,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17508,7 +17538,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17546,7 +17576,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17584,7 +17614,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17622,7 +17652,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17660,7 +17690,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17698,7 +17728,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17736,7 +17766,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17774,7 +17804,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17812,7 +17842,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17850,7 +17880,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17888,7 +17918,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17926,7 +17956,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17964,7 +17994,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18002,7 +18032,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18040,7 +18070,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18078,7 +18108,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18116,7 +18146,387 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
         <v>442</v>
+      </c>
+      <c r="C433">
+        <v>13</v>
+      </c>
+      <c r="D433">
+        <v>0.36</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>18.6</v>
+      </c>
+      <c r="G433">
+        <v>98</v>
+      </c>
+      <c r="H433">
+        <v>-46.47</v>
+      </c>
+      <c r="I433">
+        <v>-0.01</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>13.25</v>
+      </c>
+      <c r="L433" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>443</v>
+      </c>
+      <c r="C434">
+        <v>13.04</v>
+      </c>
+      <c r="D434">
+        <v>0.36</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>18.65</v>
+      </c>
+      <c r="G434">
+        <v>98</v>
+      </c>
+      <c r="H434">
+        <v>-46.42</v>
+      </c>
+      <c r="I434">
+        <v>0.03</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>13.25</v>
+      </c>
+      <c r="L434" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>444</v>
+      </c>
+      <c r="C435">
+        <v>13.03</v>
+      </c>
+      <c r="D435">
+        <v>0.36</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>18.82</v>
+      </c>
+      <c r="G435">
+        <v>98</v>
+      </c>
+      <c r="H435">
+        <v>-46.27</v>
+      </c>
+      <c r="I435">
+        <v>-0.02</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>13.25</v>
+      </c>
+      <c r="L435" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>445</v>
+      </c>
+      <c r="C436">
+        <v>12.99</v>
+      </c>
+      <c r="D436">
+        <v>0.36</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>18.76</v>
+      </c>
+      <c r="G436">
+        <v>98</v>
+      </c>
+      <c r="H436">
+        <v>-46.34</v>
+      </c>
+      <c r="I436">
+        <v>-0.05</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>13.25</v>
+      </c>
+      <c r="L436" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>446</v>
+      </c>
+      <c r="C437">
+        <v>12.99</v>
+      </c>
+      <c r="D437">
+        <v>0.36</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>18.77</v>
+      </c>
+      <c r="G437">
+        <v>98</v>
+      </c>
+      <c r="H437">
+        <v>-46.33</v>
+      </c>
+      <c r="I437">
+        <v>-0.03</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>13.25</v>
+      </c>
+      <c r="L437" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>447</v>
+      </c>
+      <c r="C438">
+        <v>12.99</v>
+      </c>
+      <c r="D438">
+        <v>0.36</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>18.82</v>
+      </c>
+      <c r="G438">
+        <v>98</v>
+      </c>
+      <c r="H438">
+        <v>-46.29</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>13.25</v>
+      </c>
+      <c r="L438" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>448</v>
+      </c>
+      <c r="C439">
+        <v>12.98</v>
+      </c>
+      <c r="D439">
+        <v>0.36</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>18.87</v>
+      </c>
+      <c r="G439">
+        <v>98</v>
+      </c>
+      <c r="H439">
+        <v>-46.26</v>
+      </c>
+      <c r="I439">
+        <v>0.03</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>13.25</v>
+      </c>
+      <c r="L439" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>449</v>
+      </c>
+      <c r="C440">
+        <v>12.98</v>
+      </c>
+      <c r="D440">
+        <v>0.36</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>18.93</v>
+      </c>
+      <c r="G440">
+        <v>98</v>
+      </c>
+      <c r="H440">
+        <v>-46.2</v>
+      </c>
+      <c r="I440">
+        <v>0.06</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>13.25</v>
+      </c>
+      <c r="L440" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>450</v>
+      </c>
+      <c r="C441">
+        <v>12.98</v>
+      </c>
+      <c r="D441">
+        <v>0.36</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>18.83</v>
+      </c>
+      <c r="G441">
+        <v>98</v>
+      </c>
+      <c r="H441">
+        <v>-46.26</v>
+      </c>
+      <c r="I441">
+        <v>0.11</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>13.25</v>
+      </c>
+      <c r="L441" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>451</v>
+      </c>
+      <c r="C442">
+        <v>12.94</v>
+      </c>
+      <c r="D442">
+        <v>0.36</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>18.76</v>
+      </c>
+      <c r="G442">
+        <v>98</v>
+      </c>
+      <c r="H442">
+        <v>-46.3</v>
+      </c>
+      <c r="I442">
+        <v>0.12</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>13.25</v>
+      </c>
+      <c r="L442" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="462">
   <si>
     <t>Fecha</t>
   </si>
@@ -1370,6 +1370,33 @@
   </si>
   <si>
     <t>11/9/2020 1:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:50:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1730,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L442"/>
+  <dimension ref="A1:L451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1806,7 +1833,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1844,7 +1871,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1882,7 +1909,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1920,7 +1947,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1958,7 +1985,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1996,7 +2023,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2034,7 +2061,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2072,7 +2099,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2110,7 +2137,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2148,7 +2175,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2186,7 +2213,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2224,7 +2251,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2262,7 +2289,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2300,7 +2327,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2338,7 +2365,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2376,7 +2403,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2414,7 +2441,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2452,7 +2479,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2490,7 +2517,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2528,7 +2555,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2566,7 +2593,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2604,7 +2631,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2642,7 +2669,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2680,7 +2707,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2718,7 +2745,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2756,7 +2783,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2794,7 +2821,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2832,7 +2859,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2870,7 +2897,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2908,7 +2935,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2946,7 +2973,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2984,7 +3011,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3022,7 +3049,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3060,7 +3087,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3098,7 +3125,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3136,7 +3163,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3174,7 +3201,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3212,7 +3239,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3250,7 +3277,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3288,7 +3315,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3326,7 +3353,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3364,7 +3391,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3402,7 +3429,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3440,7 +3467,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3478,7 +3505,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3516,7 +3543,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3554,7 +3581,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3592,7 +3619,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3630,7 +3657,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3668,7 +3695,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3706,7 +3733,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3744,7 +3771,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3782,7 +3809,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3820,7 +3847,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3858,7 +3885,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3896,7 +3923,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3934,7 +3961,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3972,7 +3999,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4010,7 +4037,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4048,7 +4075,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4086,7 +4113,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4124,7 +4151,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4162,7 +4189,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4200,7 +4227,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4238,7 +4265,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4276,7 +4303,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4314,7 +4341,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4352,7 +4379,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4390,7 +4417,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4428,7 +4455,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4466,7 +4493,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4504,7 +4531,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4542,7 +4569,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4580,7 +4607,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4618,7 +4645,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4656,7 +4683,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4694,7 +4721,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4732,7 +4759,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4770,7 +4797,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4808,7 +4835,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4846,7 +4873,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4884,7 +4911,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4922,7 +4949,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4960,7 +4987,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4998,7 +5025,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5036,7 +5063,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5074,7 +5101,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5112,7 +5139,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5150,7 +5177,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5188,7 +5215,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5226,7 +5253,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5264,7 +5291,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5302,7 +5329,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5340,7 +5367,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5378,7 +5405,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5416,7 +5443,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5454,7 +5481,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5492,7 +5519,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5530,7 +5557,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5568,7 +5595,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5606,7 +5633,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5644,7 +5671,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5682,7 +5709,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5720,7 +5747,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5758,7 +5785,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5796,7 +5823,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5834,7 +5861,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5872,7 +5899,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5910,7 +5937,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5948,7 +5975,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5986,7 +6013,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6024,7 +6051,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6062,7 +6089,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6100,7 +6127,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6138,7 +6165,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6176,7 +6203,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6214,7 +6241,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6252,7 +6279,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6290,7 +6317,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6328,7 +6355,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6366,7 +6393,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6404,7 +6431,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6442,7 +6469,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6480,7 +6507,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6518,7 +6545,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6556,7 +6583,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6594,7 +6621,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6632,7 +6659,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6670,7 +6697,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6708,7 +6735,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6746,7 +6773,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6784,7 +6811,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6822,7 +6849,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6860,7 +6887,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6898,7 +6925,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6936,7 +6963,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6974,7 +7001,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7012,7 +7039,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7050,7 +7077,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7088,7 +7115,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7126,7 +7153,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7164,7 +7191,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7202,7 +7229,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7240,7 +7267,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7278,7 +7305,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7316,7 +7343,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7354,7 +7381,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7392,7 +7419,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7430,7 +7457,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7468,7 +7495,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7506,7 +7533,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7544,7 +7571,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7582,7 +7609,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7620,7 +7647,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7658,7 +7685,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7696,7 +7723,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7734,7 +7761,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7772,7 +7799,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7810,7 +7837,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7848,7 +7875,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7886,7 +7913,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7924,7 +7951,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7962,7 +7989,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8000,7 +8027,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8038,7 +8065,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8076,7 +8103,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8114,7 +8141,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8152,7 +8179,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8190,7 +8217,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8228,7 +8255,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8266,7 +8293,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8304,7 +8331,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8342,7 +8369,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8380,7 +8407,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8418,7 +8445,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8456,7 +8483,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8494,7 +8521,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8532,7 +8559,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8570,7 +8597,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8608,7 +8635,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8646,7 +8673,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8684,7 +8711,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8722,7 +8749,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8760,7 +8787,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8798,7 +8825,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8836,7 +8863,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8874,7 +8901,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8912,7 +8939,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8950,7 +8977,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8988,7 +9015,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9026,7 +9053,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9064,7 +9091,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9102,7 +9129,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9140,7 +9167,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9178,7 +9205,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9216,7 +9243,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9254,7 +9281,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9292,7 +9319,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9330,7 +9357,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9368,7 +9395,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9406,7 +9433,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9444,7 +9471,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9482,7 +9509,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9520,7 +9547,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9558,7 +9585,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9596,7 +9623,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9634,7 +9661,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9672,7 +9699,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9710,7 +9737,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9748,7 +9775,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9786,7 +9813,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9824,7 +9851,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9862,7 +9889,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9900,7 +9927,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9938,7 +9965,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9976,7 +10003,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10014,7 +10041,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10052,7 +10079,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10090,7 +10117,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10128,7 +10155,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10166,7 +10193,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10204,7 +10231,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10242,7 +10269,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10280,7 +10307,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10318,7 +10345,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10356,7 +10383,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10394,7 +10421,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10432,7 +10459,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10470,7 +10497,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10508,7 +10535,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10546,7 +10573,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10584,7 +10611,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10622,7 +10649,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10660,7 +10687,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10698,7 +10725,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10736,7 +10763,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10774,7 +10801,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10812,7 +10839,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10850,7 +10877,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10888,7 +10915,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10926,7 +10953,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10964,7 +10991,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11002,7 +11029,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11040,7 +11067,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11078,7 +11105,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11116,7 +11143,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11154,7 +11181,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11192,7 +11219,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11230,7 +11257,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11268,7 +11295,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11306,7 +11333,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11344,7 +11371,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11382,7 +11409,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11420,7 +11447,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11458,7 +11485,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11496,7 +11523,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11534,7 +11561,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11572,7 +11599,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11610,7 +11637,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11648,7 +11675,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11686,7 +11713,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11724,7 +11751,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11762,7 +11789,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11800,7 +11827,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11838,7 +11865,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11876,7 +11903,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11914,7 +11941,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11952,7 +11979,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11990,7 +12017,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12028,7 +12055,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12066,7 +12093,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12104,7 +12131,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12142,7 +12169,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12180,7 +12207,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12218,7 +12245,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12256,7 +12283,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12294,7 +12321,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12332,7 +12359,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12370,7 +12397,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12408,7 +12435,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12446,7 +12473,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12484,7 +12511,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12522,7 +12549,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12560,7 +12587,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12598,7 +12625,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12636,7 +12663,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12674,7 +12701,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12712,7 +12739,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12750,7 +12777,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12788,7 +12815,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12826,7 +12853,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12864,7 +12891,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12902,7 +12929,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12940,7 +12967,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12978,7 +13005,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13016,7 +13043,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13054,7 +13081,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13092,7 +13119,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13130,7 +13157,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13168,7 +13195,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13206,7 +13233,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13244,7 +13271,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13282,7 +13309,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13320,7 +13347,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13358,7 +13385,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13396,7 +13423,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13434,7 +13461,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13472,7 +13499,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13510,7 +13537,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13548,7 +13575,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13586,7 +13613,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13624,7 +13651,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13662,7 +13689,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13700,7 +13727,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13738,7 +13765,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13776,7 +13803,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13814,7 +13841,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13852,7 +13879,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13890,7 +13917,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13928,7 +13955,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13966,7 +13993,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14004,7 +14031,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14042,7 +14069,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14080,7 +14107,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14118,7 +14145,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14156,7 +14183,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14194,7 +14221,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14232,7 +14259,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14270,7 +14297,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14308,7 +14335,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14346,7 +14373,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14384,7 +14411,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14422,7 +14449,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14460,7 +14487,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14498,7 +14525,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14536,7 +14563,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14574,7 +14601,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14612,7 +14639,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14650,7 +14677,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14688,7 +14715,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14726,7 +14753,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14764,7 +14791,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14802,7 +14829,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14840,7 +14867,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14878,7 +14905,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14916,7 +14943,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14954,7 +14981,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14992,7 +15019,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15030,7 +15057,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15068,7 +15095,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15106,7 +15133,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15144,7 +15171,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15182,7 +15209,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15220,7 +15247,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15258,7 +15285,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15296,7 +15323,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15334,7 +15361,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15372,7 +15399,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15410,7 +15437,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15448,7 +15475,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15486,7 +15513,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15524,7 +15551,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15562,7 +15589,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15600,7 +15627,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15638,7 +15665,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15676,7 +15703,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15714,7 +15741,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15752,7 +15779,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15790,7 +15817,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15828,7 +15855,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15866,7 +15893,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15904,7 +15931,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15942,7 +15969,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15980,7 +16007,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16018,7 +16045,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16056,7 +16083,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16094,7 +16121,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16132,7 +16159,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16170,7 +16197,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16208,7 +16235,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16246,7 +16273,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16284,7 +16311,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16322,7 +16349,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16360,7 +16387,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16398,7 +16425,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16436,7 +16463,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16474,7 +16501,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16512,7 +16539,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16550,7 +16577,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16588,7 +16615,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16626,7 +16653,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16664,7 +16691,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16702,7 +16729,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16740,7 +16767,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16778,7 +16805,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16816,7 +16843,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16854,7 +16881,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16892,7 +16919,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16930,7 +16957,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16968,7 +16995,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17006,7 +17033,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17044,7 +17071,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17082,7 +17109,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17120,7 +17147,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17158,7 +17185,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17196,7 +17223,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17234,7 +17261,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17272,7 +17299,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17310,7 +17337,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17348,7 +17375,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17386,7 +17413,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17424,7 +17451,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17462,7 +17489,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17500,7 +17527,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17538,7 +17565,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17576,7 +17603,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17614,7 +17641,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17652,7 +17679,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17690,7 +17717,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17728,7 +17755,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17766,7 +17793,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17804,7 +17831,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17842,7 +17869,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17880,7 +17907,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17918,7 +17945,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17956,7 +17983,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17994,7 +18021,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18032,7 +18059,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18070,7 +18097,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18108,7 +18135,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18146,7 +18173,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18184,7 +18211,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18222,7 +18249,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18260,7 +18287,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18298,7 +18325,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18336,7 +18363,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18374,7 +18401,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18412,7 +18439,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18450,7 +18477,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18488,7 +18515,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18526,7 +18553,349 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
         <v>452</v>
+      </c>
+      <c r="C443">
+        <v>12.97</v>
+      </c>
+      <c r="D443">
+        <v>0.36</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>18.74</v>
+      </c>
+      <c r="G443">
+        <v>98</v>
+      </c>
+      <c r="H443">
+        <v>-46.36</v>
+      </c>
+      <c r="I443">
+        <v>0.03</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>13.25</v>
+      </c>
+      <c r="L443" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>453</v>
+      </c>
+      <c r="C444">
+        <v>12.97</v>
+      </c>
+      <c r="D444">
+        <v>0.36</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>18.59</v>
+      </c>
+      <c r="G444">
+        <v>98</v>
+      </c>
+      <c r="H444">
+        <v>-46.48</v>
+      </c>
+      <c r="I444">
+        <v>0.01</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>13.25</v>
+      </c>
+      <c r="L444" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>454</v>
+      </c>
+      <c r="C445">
+        <v>12.94</v>
+      </c>
+      <c r="D445">
+        <v>0.36</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>18.48</v>
+      </c>
+      <c r="G445">
+        <v>98</v>
+      </c>
+      <c r="H445">
+        <v>-46.54</v>
+      </c>
+      <c r="I445">
+        <v>-0.01</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>13.25</v>
+      </c>
+      <c r="L445" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>455</v>
+      </c>
+      <c r="C446">
+        <v>12.96</v>
+      </c>
+      <c r="D446">
+        <v>0.36</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>18.43</v>
+      </c>
+      <c r="G446">
+        <v>98</v>
+      </c>
+      <c r="H446">
+        <v>-46.6</v>
+      </c>
+      <c r="I446">
+        <v>-0.01</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>13.25</v>
+      </c>
+      <c r="L446" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>456</v>
+      </c>
+      <c r="C447">
+        <v>12.96</v>
+      </c>
+      <c r="D447">
+        <v>0.36</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>18.37</v>
+      </c>
+      <c r="G447">
+        <v>98</v>
+      </c>
+      <c r="H447">
+        <v>-46.67</v>
+      </c>
+      <c r="I447">
+        <v>-0.03</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>13.25</v>
+      </c>
+      <c r="L447" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>457</v>
+      </c>
+      <c r="C448">
+        <v>12.95</v>
+      </c>
+      <c r="D448">
+        <v>0.36</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>18.35</v>
+      </c>
+      <c r="G448">
+        <v>98</v>
+      </c>
+      <c r="H448">
+        <v>-46.69</v>
+      </c>
+      <c r="I448">
+        <v>-0.02</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>13.25</v>
+      </c>
+      <c r="L448" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>458</v>
+      </c>
+      <c r="C449">
+        <v>12.95</v>
+      </c>
+      <c r="D449">
+        <v>0.36</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>18.43</v>
+      </c>
+      <c r="G449">
+        <v>98</v>
+      </c>
+      <c r="H449">
+        <v>-46.63</v>
+      </c>
+      <c r="I449">
+        <v>0.01</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>13.25</v>
+      </c>
+      <c r="L449" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+      <c r="C450">
+        <v>12.95</v>
+      </c>
+      <c r="D450">
+        <v>0.36</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>18.4</v>
+      </c>
+      <c r="G450">
+        <v>98</v>
+      </c>
+      <c r="H450">
+        <v>-46.64</v>
+      </c>
+      <c r="I450">
+        <v>0.01</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>13.25</v>
+      </c>
+      <c r="L450" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>460</v>
+      </c>
+      <c r="C451">
+        <v>12.94</v>
+      </c>
+      <c r="D451">
+        <v>0.36</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>18.42</v>
+      </c>
+      <c r="G451">
+        <v>98</v>
+      </c>
+      <c r="H451">
+        <v>-46.62</v>
+      </c>
+      <c r="I451">
+        <v>-0.01</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>13.25</v>
+      </c>
+      <c r="L451" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="473">
   <si>
     <t>Fecha</t>
   </si>
@@ -1397,6 +1397,39 @@
   </si>
   <si>
     <t>11/9/2020 2:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:40:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1757,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1833,7 +1866,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1871,7 +1904,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1909,7 +1942,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1947,7 +1980,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1985,7 +2018,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2023,7 +2056,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2061,7 +2094,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2099,7 +2132,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2137,7 +2170,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2175,7 +2208,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2213,7 +2246,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2251,7 +2284,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2289,7 +2322,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2327,7 +2360,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2365,7 +2398,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2403,7 +2436,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2441,7 +2474,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2479,7 +2512,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2517,7 +2550,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2555,7 +2588,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2593,7 +2626,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2631,7 +2664,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2669,7 +2702,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2707,7 +2740,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2745,7 +2778,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2783,7 +2816,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2821,7 +2854,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2859,7 +2892,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2897,7 +2930,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2935,7 +2968,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2973,7 +3006,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3011,7 +3044,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3049,7 +3082,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3087,7 +3120,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3125,7 +3158,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3163,7 +3196,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3201,7 +3234,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3239,7 +3272,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3277,7 +3310,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3315,7 +3348,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3353,7 +3386,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3391,7 +3424,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3429,7 +3462,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3467,7 +3500,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3505,7 +3538,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3543,7 +3576,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3581,7 +3614,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3619,7 +3652,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3657,7 +3690,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3695,7 +3728,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3733,7 +3766,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3771,7 +3804,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3809,7 +3842,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3847,7 +3880,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3885,7 +3918,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3923,7 +3956,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3961,7 +3994,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3999,7 +4032,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4037,7 +4070,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4075,7 +4108,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4113,7 +4146,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4151,7 +4184,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4189,7 +4222,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4227,7 +4260,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4265,7 +4298,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4303,7 +4336,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4341,7 +4374,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4379,7 +4412,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4417,7 +4450,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4455,7 +4488,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4493,7 +4526,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4531,7 +4564,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4569,7 +4602,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4607,7 +4640,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4645,7 +4678,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4683,7 +4716,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4721,7 +4754,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4759,7 +4792,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4797,7 +4830,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4835,7 +4868,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4873,7 +4906,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4911,7 +4944,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4949,7 +4982,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4987,7 +5020,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5025,7 +5058,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5063,7 +5096,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5101,7 +5134,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5139,7 +5172,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5177,7 +5210,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5215,7 +5248,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5253,7 +5286,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5291,7 +5324,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5329,7 +5362,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5367,7 +5400,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5405,7 +5438,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5443,7 +5476,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5481,7 +5514,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5519,7 +5552,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5557,7 +5590,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5595,7 +5628,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5633,7 +5666,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5671,7 +5704,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5709,7 +5742,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5747,7 +5780,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5785,7 +5818,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5823,7 +5856,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5861,7 +5894,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5899,7 +5932,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5937,7 +5970,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5975,7 +6008,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6013,7 +6046,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6051,7 +6084,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6089,7 +6122,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6127,7 +6160,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6165,7 +6198,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6203,7 +6236,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6241,7 +6274,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6279,7 +6312,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6317,7 +6350,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6355,7 +6388,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6393,7 +6426,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6431,7 +6464,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6469,7 +6502,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6507,7 +6540,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6545,7 +6578,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6583,7 +6616,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6621,7 +6654,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6659,7 +6692,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6697,7 +6730,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6735,7 +6768,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6773,7 +6806,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6811,7 +6844,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6849,7 +6882,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6887,7 +6920,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6925,7 +6958,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6963,7 +6996,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7001,7 +7034,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7039,7 +7072,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7077,7 +7110,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7115,7 +7148,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7153,7 +7186,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7191,7 +7224,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7229,7 +7262,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7267,7 +7300,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7305,7 +7338,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7343,7 +7376,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7381,7 +7414,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7419,7 +7452,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7457,7 +7490,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7495,7 +7528,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7533,7 +7566,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7571,7 +7604,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7609,7 +7642,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7647,7 +7680,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7685,7 +7718,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7723,7 +7756,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7761,7 +7794,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7799,7 +7832,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7837,7 +7870,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7875,7 +7908,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7913,7 +7946,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7951,7 +7984,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7989,7 +8022,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8027,7 +8060,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8065,7 +8098,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8103,7 +8136,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8141,7 +8174,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8179,7 +8212,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8217,7 +8250,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8255,7 +8288,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8293,7 +8326,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8331,7 +8364,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8369,7 +8402,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8407,7 +8440,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8445,7 +8478,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8483,7 +8516,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8521,7 +8554,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8559,7 +8592,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8597,7 +8630,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8635,7 +8668,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8673,7 +8706,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8711,7 +8744,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8749,7 +8782,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8787,7 +8820,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8825,7 +8858,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8863,7 +8896,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8901,7 +8934,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8939,7 +8972,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8977,7 +9010,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9015,7 +9048,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9053,7 +9086,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9091,7 +9124,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9129,7 +9162,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9167,7 +9200,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9205,7 +9238,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9243,7 +9276,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9281,7 +9314,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9319,7 +9352,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9357,7 +9390,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9395,7 +9428,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9433,7 +9466,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9471,7 +9504,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9509,7 +9542,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9547,7 +9580,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9585,7 +9618,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9623,7 +9656,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9661,7 +9694,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9699,7 +9732,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9737,7 +9770,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9775,7 +9808,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9813,7 +9846,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9851,7 +9884,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9889,7 +9922,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9927,7 +9960,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9965,7 +9998,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10003,7 +10036,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10041,7 +10074,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10079,7 +10112,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10117,7 +10150,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10155,7 +10188,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10193,7 +10226,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10231,7 +10264,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10269,7 +10302,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10307,7 +10340,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10345,7 +10378,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10383,7 +10416,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10421,7 +10454,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10459,7 +10492,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10497,7 +10530,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10535,7 +10568,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10573,7 +10606,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10611,7 +10644,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10649,7 +10682,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10687,7 +10720,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10725,7 +10758,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10763,7 +10796,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10801,7 +10834,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10839,7 +10872,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10877,7 +10910,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10915,7 +10948,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10953,7 +10986,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10991,7 +11024,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11029,7 +11062,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11067,7 +11100,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11105,7 +11138,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11143,7 +11176,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11181,7 +11214,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11219,7 +11252,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11257,7 +11290,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11295,7 +11328,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11333,7 +11366,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11371,7 +11404,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11409,7 +11442,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11447,7 +11480,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11485,7 +11518,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11523,7 +11556,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11561,7 +11594,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11599,7 +11632,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11637,7 +11670,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11675,7 +11708,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11713,7 +11746,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11751,7 +11784,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11789,7 +11822,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11827,7 +11860,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11865,7 +11898,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11903,7 +11936,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11941,7 +11974,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11979,7 +12012,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12017,7 +12050,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12055,7 +12088,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12093,7 +12126,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12131,7 +12164,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12169,7 +12202,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12207,7 +12240,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12245,7 +12278,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12283,7 +12316,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12321,7 +12354,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12359,7 +12392,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12397,7 +12430,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12435,7 +12468,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12473,7 +12506,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12511,7 +12544,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12549,7 +12582,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12587,7 +12620,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12625,7 +12658,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12663,7 +12696,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12701,7 +12734,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12739,7 +12772,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12777,7 +12810,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12815,7 +12848,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12853,7 +12886,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12891,7 +12924,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12929,7 +12962,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12967,7 +13000,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13005,7 +13038,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13043,7 +13076,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13081,7 +13114,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13119,7 +13152,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13157,7 +13190,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13195,7 +13228,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13233,7 +13266,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13271,7 +13304,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13309,7 +13342,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13347,7 +13380,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13385,7 +13418,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13423,7 +13456,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13461,7 +13494,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13499,7 +13532,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13537,7 +13570,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13575,7 +13608,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13613,7 +13646,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13651,7 +13684,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13689,7 +13722,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13727,7 +13760,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13765,7 +13798,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13803,7 +13836,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13841,7 +13874,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13879,7 +13912,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13917,7 +13950,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13955,7 +13988,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13993,7 +14026,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14031,7 +14064,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14069,7 +14102,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14107,7 +14140,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14145,7 +14178,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14183,7 +14216,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14221,7 +14254,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14259,7 +14292,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14297,7 +14330,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14335,7 +14368,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14373,7 +14406,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14411,7 +14444,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14449,7 +14482,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14487,7 +14520,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14525,7 +14558,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14563,7 +14596,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14601,7 +14634,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14639,7 +14672,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14677,7 +14710,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14715,7 +14748,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14753,7 +14786,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14791,7 +14824,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14829,7 +14862,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14867,7 +14900,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14905,7 +14938,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14943,7 +14976,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14981,7 +15014,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15019,7 +15052,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15057,7 +15090,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15095,7 +15128,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15133,7 +15166,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15171,7 +15204,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15209,7 +15242,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15247,7 +15280,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15285,7 +15318,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15323,7 +15356,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15361,7 +15394,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15399,7 +15432,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15437,7 +15470,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15475,7 +15508,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15513,7 +15546,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15551,7 +15584,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15589,7 +15622,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15627,7 +15660,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15665,7 +15698,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15703,7 +15736,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15741,7 +15774,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15779,7 +15812,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15817,7 +15850,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15855,7 +15888,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15893,7 +15926,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15931,7 +15964,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15969,7 +16002,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16007,7 +16040,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16045,7 +16078,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16083,7 +16116,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16121,7 +16154,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16159,7 +16192,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16197,7 +16230,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16235,7 +16268,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16273,7 +16306,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16311,7 +16344,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16349,7 +16382,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16387,7 +16420,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16425,7 +16458,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16463,7 +16496,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16501,7 +16534,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16539,7 +16572,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16577,7 +16610,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16615,7 +16648,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16653,7 +16686,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16691,7 +16724,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16729,7 +16762,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16767,7 +16800,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16805,7 +16838,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16843,7 +16876,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16881,7 +16914,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16919,7 +16952,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16957,7 +16990,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16995,7 +17028,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17033,7 +17066,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17071,7 +17104,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17109,7 +17142,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17147,7 +17180,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17185,7 +17218,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17223,7 +17256,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17261,7 +17294,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17299,7 +17332,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17337,7 +17370,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17375,7 +17408,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17413,7 +17446,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17451,7 +17484,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17489,7 +17522,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17527,7 +17560,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17565,7 +17598,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17603,7 +17636,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17641,7 +17674,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17679,7 +17712,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17717,7 +17750,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17755,7 +17788,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17793,7 +17826,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17831,7 +17864,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17869,7 +17902,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17907,7 +17940,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17945,7 +17978,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17983,7 +18016,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18021,7 +18054,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18059,7 +18092,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18097,7 +18130,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18135,7 +18168,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18173,7 +18206,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18211,7 +18244,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18249,7 +18282,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18287,7 +18320,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18325,7 +18358,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18363,7 +18396,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18401,7 +18434,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18439,7 +18472,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18477,7 +18510,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18515,7 +18548,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18553,7 +18586,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18591,7 +18624,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18629,7 +18662,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18667,7 +18700,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18705,7 +18738,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18743,7 +18776,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18781,7 +18814,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18819,7 +18852,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18857,7 +18890,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18895,7 +18928,425 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
         <v>461</v>
+      </c>
+      <c r="C452">
+        <v>12.94</v>
+      </c>
+      <c r="D452">
+        <v>0.36</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>18.34</v>
+      </c>
+      <c r="G452">
+        <v>98</v>
+      </c>
+      <c r="H452">
+        <v>-46.69</v>
+      </c>
+      <c r="I452">
+        <v>-0.02</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>13.25</v>
+      </c>
+      <c r="L452" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>462</v>
+      </c>
+      <c r="C453">
+        <v>12.94</v>
+      </c>
+      <c r="D453">
+        <v>0.36</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>18.22</v>
+      </c>
+      <c r="G453">
+        <v>98</v>
+      </c>
+      <c r="H453">
+        <v>-46.79</v>
+      </c>
+      <c r="I453">
+        <v>-0.04</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>13.25</v>
+      </c>
+      <c r="L453" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>463</v>
+      </c>
+      <c r="C454">
+        <v>12.91</v>
+      </c>
+      <c r="D454">
+        <v>0.35</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>17.92</v>
+      </c>
+      <c r="G454">
+        <v>98</v>
+      </c>
+      <c r="H454">
+        <v>-47.02</v>
+      </c>
+      <c r="I454">
+        <v>-0.03</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>13.25</v>
+      </c>
+      <c r="L454" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>464</v>
+      </c>
+      <c r="C455">
+        <v>12.93</v>
+      </c>
+      <c r="D455">
+        <v>0.35</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>17.7</v>
+      </c>
+      <c r="G455">
+        <v>98</v>
+      </c>
+      <c r="H455">
+        <v>-47.23</v>
+      </c>
+      <c r="I455">
+        <v>-0.02</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>13.25</v>
+      </c>
+      <c r="L455" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>465</v>
+      </c>
+      <c r="C456">
+        <v>12.93</v>
+      </c>
+      <c r="D456">
+        <v>0.34</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>17.31</v>
+      </c>
+      <c r="G456">
+        <v>98</v>
+      </c>
+      <c r="H456">
+        <v>-47.57</v>
+      </c>
+      <c r="I456">
+        <v>0.05</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>13.25</v>
+      </c>
+      <c r="L456" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>466</v>
+      </c>
+      <c r="C457">
+        <v>12.9</v>
+      </c>
+      <c r="D457">
+        <v>0.34</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>17.37</v>
+      </c>
+      <c r="G457">
+        <v>98</v>
+      </c>
+      <c r="H457">
+        <v>-47.53</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>13.25</v>
+      </c>
+      <c r="L457" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>467</v>
+      </c>
+      <c r="C458">
+        <v>12.92</v>
+      </c>
+      <c r="D458">
+        <v>0.34</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>17.45</v>
+      </c>
+      <c r="G458">
+        <v>98</v>
+      </c>
+      <c r="H458">
+        <v>-47.5</v>
+      </c>
+      <c r="I458">
+        <v>-0.01</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>13.25</v>
+      </c>
+      <c r="L458" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>468</v>
+      </c>
+      <c r="C459">
+        <v>12.92</v>
+      </c>
+      <c r="D459">
+        <v>0.34</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>17.52</v>
+      </c>
+      <c r="G459">
+        <v>98</v>
+      </c>
+      <c r="H459">
+        <v>-47.44</v>
+      </c>
+      <c r="I459">
+        <v>0.02</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>13.25</v>
+      </c>
+      <c r="L459" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460">
+        <v>12.89</v>
+      </c>
+      <c r="D460">
+        <v>0.35</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>17.69</v>
+      </c>
+      <c r="G460">
+        <v>98</v>
+      </c>
+      <c r="H460">
+        <v>-47.3</v>
+      </c>
+      <c r="I460">
+        <v>0.05</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>13.25</v>
+      </c>
+      <c r="L460" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>470</v>
+      </c>
+      <c r="C461">
+        <v>12.91</v>
+      </c>
+      <c r="D461">
+        <v>0.35</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>17.77</v>
+      </c>
+      <c r="G461">
+        <v>98</v>
+      </c>
+      <c r="H461">
+        <v>-47.23</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>13.25</v>
+      </c>
+      <c r="L461" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>471</v>
+      </c>
+      <c r="C462">
+        <v>12.91</v>
+      </c>
+      <c r="D462">
+        <v>0.35</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>17.68</v>
+      </c>
+      <c r="G462">
+        <v>98</v>
+      </c>
+      <c r="H462">
+        <v>-47.29</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>13.25</v>
+      </c>
+      <c r="L462" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="482">
   <si>
     <t>Fecha</t>
   </si>
@@ -1430,6 +1430,33 @@
   </si>
   <si>
     <t>11/9/2020 4:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:10:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1790,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L462"/>
+  <dimension ref="A1:L471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1866,7 +1893,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1904,7 +1931,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1942,7 +1969,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1980,7 +2007,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2018,7 +2045,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2056,7 +2083,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2094,7 +2121,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2132,7 +2159,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2170,7 +2197,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2208,7 +2235,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2246,7 +2273,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2284,7 +2311,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2322,7 +2349,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2360,7 +2387,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2398,7 +2425,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2436,7 +2463,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2474,7 +2501,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2512,7 +2539,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2550,7 +2577,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2588,7 +2615,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2626,7 +2653,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2664,7 +2691,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2702,7 +2729,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2740,7 +2767,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2778,7 +2805,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2816,7 +2843,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2854,7 +2881,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2892,7 +2919,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2930,7 +2957,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2968,7 +2995,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3006,7 +3033,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3044,7 +3071,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3082,7 +3109,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3120,7 +3147,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3158,7 +3185,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3196,7 +3223,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3234,7 +3261,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3272,7 +3299,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3310,7 +3337,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3348,7 +3375,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3386,7 +3413,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3424,7 +3451,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3462,7 +3489,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3500,7 +3527,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3538,7 +3565,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3576,7 +3603,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3614,7 +3641,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3652,7 +3679,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3690,7 +3717,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3728,7 +3755,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3766,7 +3793,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3804,7 +3831,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3842,7 +3869,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3880,7 +3907,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3918,7 +3945,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3956,7 +3983,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3994,7 +4021,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4032,7 +4059,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4070,7 +4097,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4108,7 +4135,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4146,7 +4173,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4184,7 +4211,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4222,7 +4249,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4260,7 +4287,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4298,7 +4325,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4336,7 +4363,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4374,7 +4401,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4412,7 +4439,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4450,7 +4477,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4488,7 +4515,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4526,7 +4553,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4564,7 +4591,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4602,7 +4629,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4640,7 +4667,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4678,7 +4705,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4716,7 +4743,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4754,7 +4781,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4792,7 +4819,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4830,7 +4857,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4868,7 +4895,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4906,7 +4933,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4944,7 +4971,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4982,7 +5009,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5020,7 +5047,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5058,7 +5085,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5096,7 +5123,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5134,7 +5161,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5172,7 +5199,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5210,7 +5237,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5248,7 +5275,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5286,7 +5313,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5324,7 +5351,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5362,7 +5389,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5400,7 +5427,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5438,7 +5465,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5476,7 +5503,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5514,7 +5541,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5552,7 +5579,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5590,7 +5617,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5628,7 +5655,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5666,7 +5693,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5704,7 +5731,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5742,7 +5769,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5780,7 +5807,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5818,7 +5845,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5856,7 +5883,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5894,7 +5921,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5932,7 +5959,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5970,7 +5997,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6008,7 +6035,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6046,7 +6073,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6084,7 +6111,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6122,7 +6149,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6160,7 +6187,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6198,7 +6225,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6236,7 +6263,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6274,7 +6301,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6312,7 +6339,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6350,7 +6377,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6388,7 +6415,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6426,7 +6453,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6464,7 +6491,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6502,7 +6529,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6540,7 +6567,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6578,7 +6605,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6616,7 +6643,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6654,7 +6681,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6692,7 +6719,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6730,7 +6757,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6768,7 +6795,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6806,7 +6833,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6844,7 +6871,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6882,7 +6909,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6920,7 +6947,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6958,7 +6985,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6996,7 +7023,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7034,7 +7061,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7072,7 +7099,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7110,7 +7137,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7148,7 +7175,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7186,7 +7213,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7224,7 +7251,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7262,7 +7289,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7300,7 +7327,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7338,7 +7365,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7376,7 +7403,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7414,7 +7441,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7452,7 +7479,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7490,7 +7517,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7528,7 +7555,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7566,7 +7593,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7604,7 +7631,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7642,7 +7669,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7680,7 +7707,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7718,7 +7745,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7756,7 +7783,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7794,7 +7821,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7832,7 +7859,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7870,7 +7897,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7908,7 +7935,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7946,7 +7973,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7984,7 +8011,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8022,7 +8049,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8060,7 +8087,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8098,7 +8125,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8136,7 +8163,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8174,7 +8201,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8212,7 +8239,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8250,7 +8277,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8288,7 +8315,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8326,7 +8353,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8364,7 +8391,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8402,7 +8429,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8440,7 +8467,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8478,7 +8505,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8516,7 +8543,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8554,7 +8581,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8592,7 +8619,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8630,7 +8657,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8668,7 +8695,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8706,7 +8733,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8744,7 +8771,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8782,7 +8809,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8820,7 +8847,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8858,7 +8885,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8896,7 +8923,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8934,7 +8961,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8972,7 +8999,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9010,7 +9037,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9048,7 +9075,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9086,7 +9113,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9124,7 +9151,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9162,7 +9189,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9200,7 +9227,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9238,7 +9265,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9276,7 +9303,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9314,7 +9341,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9352,7 +9379,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9390,7 +9417,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9428,7 +9455,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9466,7 +9493,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9504,7 +9531,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9542,7 +9569,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9580,7 +9607,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9618,7 +9645,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9656,7 +9683,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9694,7 +9721,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9732,7 +9759,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9770,7 +9797,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9808,7 +9835,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9846,7 +9873,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9884,7 +9911,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9922,7 +9949,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9960,7 +9987,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9998,7 +10025,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10036,7 +10063,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10074,7 +10101,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10112,7 +10139,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10150,7 +10177,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10188,7 +10215,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10226,7 +10253,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10264,7 +10291,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10302,7 +10329,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10340,7 +10367,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10378,7 +10405,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10416,7 +10443,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10454,7 +10481,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10492,7 +10519,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10530,7 +10557,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10568,7 +10595,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10606,7 +10633,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10644,7 +10671,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10682,7 +10709,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10720,7 +10747,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10758,7 +10785,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10796,7 +10823,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10834,7 +10861,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10872,7 +10899,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10910,7 +10937,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10948,7 +10975,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10986,7 +11013,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11024,7 +11051,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11062,7 +11089,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11100,7 +11127,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11138,7 +11165,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11176,7 +11203,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11214,7 +11241,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11252,7 +11279,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11290,7 +11317,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11328,7 +11355,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11366,7 +11393,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11404,7 +11431,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11442,7 +11469,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11480,7 +11507,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11518,7 +11545,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11556,7 +11583,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11594,7 +11621,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11632,7 +11659,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11670,7 +11697,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11708,7 +11735,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11746,7 +11773,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11784,7 +11811,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11822,7 +11849,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11860,7 +11887,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11898,7 +11925,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11936,7 +11963,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11974,7 +12001,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12012,7 +12039,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12050,7 +12077,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12088,7 +12115,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12126,7 +12153,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12164,7 +12191,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12202,7 +12229,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12240,7 +12267,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12278,7 +12305,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12316,7 +12343,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12354,7 +12381,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12392,7 +12419,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12430,7 +12457,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12468,7 +12495,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12506,7 +12533,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12544,7 +12571,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12582,7 +12609,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12620,7 +12647,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12658,7 +12685,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12696,7 +12723,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12734,7 +12761,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12772,7 +12799,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12810,7 +12837,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12848,7 +12875,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12886,7 +12913,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12924,7 +12951,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12962,7 +12989,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13000,7 +13027,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13038,7 +13065,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13076,7 +13103,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13114,7 +13141,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13152,7 +13179,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13190,7 +13217,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13228,7 +13255,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13266,7 +13293,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13304,7 +13331,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13342,7 +13369,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13380,7 +13407,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13418,7 +13445,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13456,7 +13483,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13494,7 +13521,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13532,7 +13559,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13570,7 +13597,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13608,7 +13635,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13646,7 +13673,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13684,7 +13711,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13722,7 +13749,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13760,7 +13787,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13798,7 +13825,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13836,7 +13863,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13874,7 +13901,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13912,7 +13939,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13950,7 +13977,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13988,7 +14015,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14026,7 +14053,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14064,7 +14091,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14102,7 +14129,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14140,7 +14167,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14178,7 +14205,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14216,7 +14243,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14254,7 +14281,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14292,7 +14319,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14330,7 +14357,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14368,7 +14395,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14406,7 +14433,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14444,7 +14471,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14482,7 +14509,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14520,7 +14547,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14558,7 +14585,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14596,7 +14623,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14634,7 +14661,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14672,7 +14699,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14710,7 +14737,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14748,7 +14775,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14786,7 +14813,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14824,7 +14851,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14862,7 +14889,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14900,7 +14927,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14938,7 +14965,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14976,7 +15003,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15014,7 +15041,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15052,7 +15079,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15090,7 +15117,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15128,7 +15155,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15166,7 +15193,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15204,7 +15231,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15242,7 +15269,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15280,7 +15307,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15318,7 +15345,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15356,7 +15383,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15394,7 +15421,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15432,7 +15459,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15470,7 +15497,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15508,7 +15535,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15546,7 +15573,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15584,7 +15611,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15622,7 +15649,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15660,7 +15687,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15698,7 +15725,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15736,7 +15763,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15774,7 +15801,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15812,7 +15839,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15850,7 +15877,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15888,7 +15915,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15926,7 +15953,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15964,7 +15991,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16002,7 +16029,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16040,7 +16067,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16078,7 +16105,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16116,7 +16143,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16154,7 +16181,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16192,7 +16219,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16230,7 +16257,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16268,7 +16295,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16306,7 +16333,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16344,7 +16371,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16382,7 +16409,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16420,7 +16447,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16458,7 +16485,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16496,7 +16523,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16534,7 +16561,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16572,7 +16599,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16610,7 +16637,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16648,7 +16675,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16686,7 +16713,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16724,7 +16751,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16762,7 +16789,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16800,7 +16827,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16838,7 +16865,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16876,7 +16903,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16914,7 +16941,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16952,7 +16979,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16990,7 +17017,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17028,7 +17055,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17066,7 +17093,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17104,7 +17131,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17142,7 +17169,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17180,7 +17207,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17218,7 +17245,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17256,7 +17283,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17294,7 +17321,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17332,7 +17359,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17370,7 +17397,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17408,7 +17435,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17446,7 +17473,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17484,7 +17511,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17522,7 +17549,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17560,7 +17587,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17598,7 +17625,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17636,7 +17663,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17674,7 +17701,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17712,7 +17739,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17750,7 +17777,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17788,7 +17815,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17826,7 +17853,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17864,7 +17891,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17902,7 +17929,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17940,7 +17967,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17978,7 +18005,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18016,7 +18043,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18054,7 +18081,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18092,7 +18119,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18130,7 +18157,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18168,7 +18195,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18206,7 +18233,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18244,7 +18271,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18282,7 +18309,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18320,7 +18347,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18358,7 +18385,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18396,7 +18423,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18434,7 +18461,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18472,7 +18499,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18510,7 +18537,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18548,7 +18575,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18586,7 +18613,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18624,7 +18651,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18662,7 +18689,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18700,7 +18727,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18738,7 +18765,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18776,7 +18803,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18814,7 +18841,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18852,7 +18879,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18890,7 +18917,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18928,7 +18955,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18966,7 +18993,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19004,7 +19031,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19042,7 +19069,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19080,7 +19107,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19118,7 +19145,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19156,7 +19183,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19194,7 +19221,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19232,7 +19259,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19270,7 +19297,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19308,7 +19335,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19346,7 +19373,349 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
         <v>472</v>
+      </c>
+      <c r="C463">
+        <v>12.91</v>
+      </c>
+      <c r="D463">
+        <v>0.34</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>17.41</v>
+      </c>
+      <c r="G463">
+        <v>98</v>
+      </c>
+      <c r="H463">
+        <v>-47.5</v>
+      </c>
+      <c r="I463">
+        <v>-0.03</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>13.25</v>
+      </c>
+      <c r="L463" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>473</v>
+      </c>
+      <c r="C464">
+        <v>12.9</v>
+      </c>
+      <c r="D464">
+        <v>0.34</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>17.2</v>
+      </c>
+      <c r="G464">
+        <v>98</v>
+      </c>
+      <c r="H464">
+        <v>-47.68</v>
+      </c>
+      <c r="I464">
+        <v>-0.01</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>13.25</v>
+      </c>
+      <c r="L464" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>474</v>
+      </c>
+      <c r="C465">
+        <v>12.9</v>
+      </c>
+      <c r="D465">
+        <v>0.34</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>16.92</v>
+      </c>
+      <c r="G465">
+        <v>98</v>
+      </c>
+      <c r="H465">
+        <v>-47.9</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>13.25</v>
+      </c>
+      <c r="L465" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>475</v>
+      </c>
+      <c r="C466">
+        <v>12.88</v>
+      </c>
+      <c r="D466">
+        <v>0.34</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>16.78</v>
+      </c>
+      <c r="G466">
+        <v>98</v>
+      </c>
+      <c r="H466">
+        <v>-48.03</v>
+      </c>
+      <c r="I466">
+        <v>-0.02</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>13.25</v>
+      </c>
+      <c r="L466" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>476</v>
+      </c>
+      <c r="C467">
+        <v>12.89</v>
+      </c>
+      <c r="D467">
+        <v>0.33</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>16.82</v>
+      </c>
+      <c r="G467">
+        <v>98</v>
+      </c>
+      <c r="H467">
+        <v>-48.03</v>
+      </c>
+      <c r="I467">
+        <v>0.01</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>13.25</v>
+      </c>
+      <c r="L467" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>477</v>
+      </c>
+      <c r="C468">
+        <v>12.9</v>
+      </c>
+      <c r="D468">
+        <v>0.33</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>16.73</v>
+      </c>
+      <c r="G468">
+        <v>98</v>
+      </c>
+      <c r="H468">
+        <v>-48.1</v>
+      </c>
+      <c r="I468">
+        <v>0.02</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>13.25</v>
+      </c>
+      <c r="L468" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469">
+        <v>12.87</v>
+      </c>
+      <c r="D469">
+        <v>0.33</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>16.51</v>
+      </c>
+      <c r="G469">
+        <v>98</v>
+      </c>
+      <c r="H469">
+        <v>-48.26</v>
+      </c>
+      <c r="I469">
+        <v>-0.02</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>13.25</v>
+      </c>
+      <c r="L469" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470">
+        <v>12.89</v>
+      </c>
+      <c r="D470">
+        <v>0.33</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>16.43</v>
+      </c>
+      <c r="G470">
+        <v>98</v>
+      </c>
+      <c r="H470">
+        <v>-48.36</v>
+      </c>
+      <c r="I470">
+        <v>0.02</v>
+      </c>
+      <c r="J470">
+        <v>0.97</v>
+      </c>
+      <c r="K470">
+        <v>13.25</v>
+      </c>
+      <c r="L470" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>480</v>
+      </c>
+      <c r="C471">
+        <v>12.89</v>
+      </c>
+      <c r="D471">
+        <v>0.33</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>16.43</v>
+      </c>
+      <c r="G471">
+        <v>98</v>
+      </c>
+      <c r="H471">
+        <v>-48.37</v>
+      </c>
+      <c r="I471">
+        <v>-0.06</v>
+      </c>
+      <c r="J471">
+        <v>4.95</v>
+      </c>
+      <c r="K471">
+        <v>13.25</v>
+      </c>
+      <c r="L471" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="492">
   <si>
     <t>Fecha</t>
   </si>
@@ -1457,6 +1457,36 @@
   </si>
   <si>
     <t>11/9/2020 6:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:50:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1817,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L471"/>
+  <dimension ref="A1:L481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1893,7 +1923,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1931,7 +1961,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1969,7 +1999,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2007,7 +2037,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2045,7 +2075,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2083,7 +2113,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2121,7 +2151,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2159,7 +2189,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2197,7 +2227,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2235,7 +2265,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2273,7 +2303,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2311,7 +2341,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2349,7 +2379,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2387,7 +2417,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2425,7 +2455,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2463,7 +2493,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2501,7 +2531,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2539,7 +2569,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2577,7 +2607,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2615,7 +2645,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2653,7 +2683,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2691,7 +2721,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2729,7 +2759,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2767,7 +2797,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2805,7 +2835,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2843,7 +2873,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2881,7 +2911,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2919,7 +2949,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2957,7 +2987,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2995,7 +3025,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3033,7 +3063,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3071,7 +3101,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3109,7 +3139,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3147,7 +3177,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3185,7 +3215,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3223,7 +3253,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3261,7 +3291,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3299,7 +3329,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3337,7 +3367,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3375,7 +3405,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3413,7 +3443,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3451,7 +3481,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3489,7 +3519,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3527,7 +3557,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3565,7 +3595,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3603,7 +3633,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3641,7 +3671,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3679,7 +3709,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3717,7 +3747,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3755,7 +3785,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3793,7 +3823,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3831,7 +3861,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3869,7 +3899,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3907,7 +3937,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3945,7 +3975,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3983,7 +4013,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4021,7 +4051,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4059,7 +4089,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4097,7 +4127,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4135,7 +4165,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4173,7 +4203,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4211,7 +4241,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4249,7 +4279,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4287,7 +4317,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4325,7 +4355,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4363,7 +4393,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4401,7 +4431,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4439,7 +4469,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4477,7 +4507,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4515,7 +4545,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4553,7 +4583,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4591,7 +4621,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4629,7 +4659,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4667,7 +4697,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4705,7 +4735,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4743,7 +4773,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4781,7 +4811,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4819,7 +4849,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4857,7 +4887,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4895,7 +4925,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4933,7 +4963,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4971,7 +5001,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5009,7 +5039,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5047,7 +5077,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5085,7 +5115,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5123,7 +5153,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5161,7 +5191,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5199,7 +5229,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5237,7 +5267,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5275,7 +5305,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5313,7 +5343,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5351,7 +5381,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5389,7 +5419,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5427,7 +5457,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5465,7 +5495,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5503,7 +5533,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5541,7 +5571,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5579,7 +5609,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5617,7 +5647,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5655,7 +5685,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5693,7 +5723,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5731,7 +5761,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5769,7 +5799,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5807,7 +5837,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5845,7 +5875,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5883,7 +5913,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5921,7 +5951,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5959,7 +5989,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5997,7 +6027,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6035,7 +6065,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6073,7 +6103,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6111,7 +6141,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6149,7 +6179,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6187,7 +6217,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6225,7 +6255,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6263,7 +6293,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6301,7 +6331,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6339,7 +6369,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6377,7 +6407,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6415,7 +6445,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6453,7 +6483,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6491,7 +6521,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6529,7 +6559,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6567,7 +6597,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6605,7 +6635,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6643,7 +6673,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6681,7 +6711,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6719,7 +6749,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6757,7 +6787,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6795,7 +6825,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6833,7 +6863,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6871,7 +6901,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6909,7 +6939,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6947,7 +6977,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6985,7 +7015,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7023,7 +7053,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7061,7 +7091,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7099,7 +7129,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7137,7 +7167,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7175,7 +7205,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7213,7 +7243,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7251,7 +7281,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7289,7 +7319,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7327,7 +7357,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7365,7 +7395,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7403,7 +7433,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7441,7 +7471,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7479,7 +7509,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7517,7 +7547,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7555,7 +7585,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7593,7 +7623,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7631,7 +7661,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7669,7 +7699,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7707,7 +7737,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7745,7 +7775,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7783,7 +7813,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7821,7 +7851,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7859,7 +7889,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7897,7 +7927,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7935,7 +7965,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7973,7 +8003,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8011,7 +8041,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8049,7 +8079,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8087,7 +8117,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8125,7 +8155,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8163,7 +8193,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8201,7 +8231,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8239,7 +8269,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8277,7 +8307,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8315,7 +8345,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8353,7 +8383,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8391,7 +8421,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8429,7 +8459,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8467,7 +8497,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8505,7 +8535,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8543,7 +8573,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8581,7 +8611,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8619,7 +8649,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8657,7 +8687,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8695,7 +8725,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8733,7 +8763,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8771,7 +8801,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8809,7 +8839,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8847,7 +8877,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8885,7 +8915,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8923,7 +8953,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8961,7 +8991,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8999,7 +9029,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9037,7 +9067,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9075,7 +9105,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9113,7 +9143,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9151,7 +9181,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9189,7 +9219,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9227,7 +9257,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9265,7 +9295,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9303,7 +9333,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9341,7 +9371,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9379,7 +9409,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9417,7 +9447,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9455,7 +9485,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9493,7 +9523,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9531,7 +9561,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9569,7 +9599,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9607,7 +9637,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9645,7 +9675,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9683,7 +9713,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9721,7 +9751,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9759,7 +9789,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9797,7 +9827,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9835,7 +9865,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9873,7 +9903,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9911,7 +9941,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9949,7 +9979,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9987,7 +10017,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10025,7 +10055,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10063,7 +10093,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10101,7 +10131,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10139,7 +10169,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10177,7 +10207,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10215,7 +10245,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10253,7 +10283,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10291,7 +10321,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10329,7 +10359,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10367,7 +10397,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10405,7 +10435,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10443,7 +10473,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10481,7 +10511,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10519,7 +10549,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10557,7 +10587,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10595,7 +10625,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10633,7 +10663,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10671,7 +10701,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10709,7 +10739,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10747,7 +10777,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10785,7 +10815,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10823,7 +10853,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10861,7 +10891,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10899,7 +10929,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10937,7 +10967,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10975,7 +11005,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11013,7 +11043,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11051,7 +11081,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11089,7 +11119,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11127,7 +11157,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11165,7 +11195,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11203,7 +11233,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11241,7 +11271,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11279,7 +11309,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11317,7 +11347,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11355,7 +11385,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11393,7 +11423,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11431,7 +11461,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11469,7 +11499,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11507,7 +11537,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11545,7 +11575,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11583,7 +11613,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11621,7 +11651,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11659,7 +11689,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11697,7 +11727,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11735,7 +11765,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11773,7 +11803,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11811,7 +11841,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11849,7 +11879,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11887,7 +11917,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11925,7 +11955,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11963,7 +11993,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12001,7 +12031,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12039,7 +12069,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12077,7 +12107,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12115,7 +12145,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12153,7 +12183,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12191,7 +12221,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12229,7 +12259,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12267,7 +12297,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12305,7 +12335,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12343,7 +12373,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12381,7 +12411,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12419,7 +12449,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12457,7 +12487,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12495,7 +12525,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12533,7 +12563,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12571,7 +12601,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12609,7 +12639,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12647,7 +12677,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12685,7 +12715,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12723,7 +12753,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12761,7 +12791,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12799,7 +12829,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12837,7 +12867,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12875,7 +12905,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12913,7 +12943,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12951,7 +12981,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12989,7 +13019,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13027,7 +13057,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13065,7 +13095,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13103,7 +13133,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13141,7 +13171,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13179,7 +13209,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13217,7 +13247,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13255,7 +13285,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13293,7 +13323,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13331,7 +13361,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13369,7 +13399,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13407,7 +13437,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13445,7 +13475,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13483,7 +13513,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13521,7 +13551,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13559,7 +13589,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13597,7 +13627,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13635,7 +13665,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13673,7 +13703,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13711,7 +13741,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13749,7 +13779,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13787,7 +13817,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13825,7 +13855,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13863,7 +13893,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13901,7 +13931,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13939,7 +13969,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13977,7 +14007,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14015,7 +14045,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14053,7 +14083,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14091,7 +14121,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14129,7 +14159,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14167,7 +14197,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14205,7 +14235,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14243,7 +14273,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14281,7 +14311,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14319,7 +14349,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14357,7 +14387,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14395,7 +14425,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14433,7 +14463,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14471,7 +14501,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14509,7 +14539,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14547,7 +14577,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14585,7 +14615,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14623,7 +14653,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14661,7 +14691,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14699,7 +14729,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14737,7 +14767,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14775,7 +14805,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14813,7 +14843,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14851,7 +14881,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14889,7 +14919,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14927,7 +14957,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14965,7 +14995,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15003,7 +15033,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15041,7 +15071,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15079,7 +15109,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15117,7 +15147,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15155,7 +15185,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15193,7 +15223,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15231,7 +15261,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15269,7 +15299,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15307,7 +15337,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15345,7 +15375,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15383,7 +15413,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15421,7 +15451,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15459,7 +15489,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15497,7 +15527,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15535,7 +15565,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15573,7 +15603,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15611,7 +15641,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15649,7 +15679,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15687,7 +15717,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15725,7 +15755,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15763,7 +15793,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15801,7 +15831,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15839,7 +15869,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15877,7 +15907,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15915,7 +15945,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15953,7 +15983,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15991,7 +16021,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16029,7 +16059,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16067,7 +16097,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16105,7 +16135,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16143,7 +16173,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16181,7 +16211,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16219,7 +16249,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16257,7 +16287,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16295,7 +16325,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16333,7 +16363,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16371,7 +16401,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16409,7 +16439,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16447,7 +16477,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16485,7 +16515,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16523,7 +16553,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16561,7 +16591,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16599,7 +16629,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16637,7 +16667,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16675,7 +16705,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16713,7 +16743,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16751,7 +16781,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16789,7 +16819,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16827,7 +16857,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16865,7 +16895,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16903,7 +16933,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16941,7 +16971,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16979,7 +17009,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17017,7 +17047,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17055,7 +17085,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17093,7 +17123,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17131,7 +17161,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17169,7 +17199,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17207,7 +17237,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17245,7 +17275,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17283,7 +17313,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17321,7 +17351,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17359,7 +17389,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17397,7 +17427,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17435,7 +17465,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17473,7 +17503,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17511,7 +17541,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17549,7 +17579,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17587,7 +17617,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17625,7 +17655,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17663,7 +17693,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17701,7 +17731,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17739,7 +17769,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17777,7 +17807,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17815,7 +17845,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17853,7 +17883,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17891,7 +17921,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17929,7 +17959,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17967,7 +17997,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18005,7 +18035,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18043,7 +18073,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18081,7 +18111,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18119,7 +18149,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18157,7 +18187,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18195,7 +18225,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18233,7 +18263,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18271,7 +18301,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18309,7 +18339,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18347,7 +18377,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18385,7 +18415,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18423,7 +18453,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18461,7 +18491,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18499,7 +18529,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18537,7 +18567,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18575,7 +18605,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18613,7 +18643,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18651,7 +18681,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18689,7 +18719,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18727,7 +18757,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18765,7 +18795,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18803,7 +18833,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18841,7 +18871,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18879,7 +18909,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18917,7 +18947,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18955,7 +18985,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18993,7 +19023,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19031,7 +19061,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19069,7 +19099,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19107,7 +19137,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19145,7 +19175,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19183,7 +19213,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19221,7 +19251,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19259,7 +19289,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19297,7 +19327,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19335,7 +19365,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19373,7 +19403,7 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19411,7 +19441,7 @@
         <v>13.25</v>
       </c>
       <c r="L463" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19449,7 +19479,7 @@
         <v>13.25</v>
       </c>
       <c r="L464" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19487,7 +19517,7 @@
         <v>13.25</v>
       </c>
       <c r="L465" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19525,7 +19555,7 @@
         <v>13.25</v>
       </c>
       <c r="L466" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19563,7 +19593,7 @@
         <v>13.25</v>
       </c>
       <c r="L467" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19601,7 +19631,7 @@
         <v>13.25</v>
       </c>
       <c r="L468" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19639,7 +19669,7 @@
         <v>13.25</v>
       </c>
       <c r="L469" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19677,7 +19707,7 @@
         <v>13.25</v>
       </c>
       <c r="L470" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19715,7 +19745,387 @@
         <v>13.25</v>
       </c>
       <c r="L471" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
         <v>481</v>
+      </c>
+      <c r="C472">
+        <v>12.92</v>
+      </c>
+      <c r="D472">
+        <v>0.33</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>16.45</v>
+      </c>
+      <c r="G472">
+        <v>98</v>
+      </c>
+      <c r="H472">
+        <v>-48.37</v>
+      </c>
+      <c r="I472">
+        <v>-0.01</v>
+      </c>
+      <c r="J472">
+        <v>12.03</v>
+      </c>
+      <c r="K472">
+        <v>13.25</v>
+      </c>
+      <c r="L472" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>482</v>
+      </c>
+      <c r="C473">
+        <v>12.97</v>
+      </c>
+      <c r="D473">
+        <v>0.33</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>16.62</v>
+      </c>
+      <c r="G473">
+        <v>98</v>
+      </c>
+      <c r="H473">
+        <v>-48.23</v>
+      </c>
+      <c r="I473">
+        <v>0.02</v>
+      </c>
+      <c r="J473">
+        <v>20.03</v>
+      </c>
+      <c r="K473">
+        <v>13.25</v>
+      </c>
+      <c r="L473" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>483</v>
+      </c>
+      <c r="C474">
+        <v>13.12</v>
+      </c>
+      <c r="D474">
+        <v>0.33</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>16.66</v>
+      </c>
+      <c r="G474">
+        <v>98</v>
+      </c>
+      <c r="H474">
+        <v>-48.17</v>
+      </c>
+      <c r="I474">
+        <v>0.04</v>
+      </c>
+      <c r="J474">
+        <v>42.26</v>
+      </c>
+      <c r="K474">
+        <v>13.25</v>
+      </c>
+      <c r="L474" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>484</v>
+      </c>
+      <c r="C475">
+        <v>13.6</v>
+      </c>
+      <c r="D475">
+        <v>0.34</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>17.11</v>
+      </c>
+      <c r="G475">
+        <v>98</v>
+      </c>
+      <c r="H475">
+        <v>-47.77</v>
+      </c>
+      <c r="I475">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J475">
+        <v>127.54</v>
+      </c>
+      <c r="K475">
+        <v>13.25</v>
+      </c>
+      <c r="L475" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>485</v>
+      </c>
+      <c r="C476">
+        <v>13.63</v>
+      </c>
+      <c r="D476">
+        <v>0.35</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>17.57</v>
+      </c>
+      <c r="G476">
+        <v>98</v>
+      </c>
+      <c r="H476">
+        <v>-47.26</v>
+      </c>
+      <c r="I476">
+        <v>0.16</v>
+      </c>
+      <c r="J476">
+        <v>166.19</v>
+      </c>
+      <c r="K476">
+        <v>13.25</v>
+      </c>
+      <c r="L476" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>486</v>
+      </c>
+      <c r="C477">
+        <v>13.63</v>
+      </c>
+      <c r="D477">
+        <v>0.36</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>17.88</v>
+      </c>
+      <c r="G477">
+        <v>98</v>
+      </c>
+      <c r="H477">
+        <v>-46.81</v>
+      </c>
+      <c r="I477">
+        <v>0.13</v>
+      </c>
+      <c r="J477">
+        <v>146.21</v>
+      </c>
+      <c r="K477">
+        <v>13.25</v>
+      </c>
+      <c r="L477" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>487</v>
+      </c>
+      <c r="C478">
+        <v>13.63</v>
+      </c>
+      <c r="D478">
+        <v>0.37</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>17.94</v>
+      </c>
+      <c r="G478">
+        <v>98</v>
+      </c>
+      <c r="H478">
+        <v>-46.67</v>
+      </c>
+      <c r="I478">
+        <v>-0.02</v>
+      </c>
+      <c r="J478">
+        <v>86.87</v>
+      </c>
+      <c r="K478">
+        <v>13.25</v>
+      </c>
+      <c r="L478" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>488</v>
+      </c>
+      <c r="C479">
+        <v>13.65</v>
+      </c>
+      <c r="D479">
+        <v>0.38</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>18.47</v>
+      </c>
+      <c r="G479">
+        <v>98</v>
+      </c>
+      <c r="H479">
+        <v>-46.21</v>
+      </c>
+      <c r="I479">
+        <v>-0.08</v>
+      </c>
+      <c r="J479">
+        <v>249.17</v>
+      </c>
+      <c r="K479">
+        <v>13.25</v>
+      </c>
+      <c r="L479" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480">
+        <v>13.65</v>
+      </c>
+      <c r="D480">
+        <v>0.39</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>18.89</v>
+      </c>
+      <c r="G480">
+        <v>98</v>
+      </c>
+      <c r="H480">
+        <v>-45.74</v>
+      </c>
+      <c r="I480">
+        <v>0.03</v>
+      </c>
+      <c r="J480">
+        <v>333.08</v>
+      </c>
+      <c r="K480">
+        <v>13.25</v>
+      </c>
+      <c r="L480" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>490</v>
+      </c>
+      <c r="C481">
+        <v>13.66</v>
+      </c>
+      <c r="D481">
+        <v>0.41</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>20.11</v>
+      </c>
+      <c r="G481">
+        <v>98</v>
+      </c>
+      <c r="H481">
+        <v>-44.65</v>
+      </c>
+      <c r="I481">
+        <v>0.15</v>
+      </c>
+      <c r="J481">
+        <v>362.65</v>
+      </c>
+      <c r="K481">
+        <v>13.25</v>
+      </c>
+      <c r="L481" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="498">
   <si>
     <t>Fecha</t>
   </si>
@@ -1487,6 +1487,24 @@
   </si>
   <si>
     <t>11/9/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:50:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1847,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L481"/>
+  <dimension ref="A1:L487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1923,7 +1941,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1961,7 +1979,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1999,7 +2017,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2037,7 +2055,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2075,7 +2093,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2113,7 +2131,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2151,7 +2169,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2189,7 +2207,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2227,7 +2245,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2265,7 +2283,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2303,7 +2321,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2341,7 +2359,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2379,7 +2397,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2417,7 +2435,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2455,7 +2473,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2493,7 +2511,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2531,7 +2549,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2569,7 +2587,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2607,7 +2625,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2645,7 +2663,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2683,7 +2701,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2721,7 +2739,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2759,7 +2777,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2797,7 +2815,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2835,7 +2853,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2873,7 +2891,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2911,7 +2929,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2949,7 +2967,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2987,7 +3005,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3025,7 +3043,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3063,7 +3081,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3101,7 +3119,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3139,7 +3157,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3177,7 +3195,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3215,7 +3233,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3253,7 +3271,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3291,7 +3309,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3329,7 +3347,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3367,7 +3385,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3405,7 +3423,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3443,7 +3461,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3481,7 +3499,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3519,7 +3537,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3557,7 +3575,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3595,7 +3613,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3633,7 +3651,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3671,7 +3689,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3709,7 +3727,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3747,7 +3765,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3785,7 +3803,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3823,7 +3841,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3861,7 +3879,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3899,7 +3917,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3937,7 +3955,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3975,7 +3993,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4013,7 +4031,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4051,7 +4069,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4089,7 +4107,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4127,7 +4145,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4165,7 +4183,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4203,7 +4221,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4241,7 +4259,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4279,7 +4297,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4317,7 +4335,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4355,7 +4373,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4393,7 +4411,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4431,7 +4449,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4469,7 +4487,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4507,7 +4525,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4545,7 +4563,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4583,7 +4601,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4621,7 +4639,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4659,7 +4677,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4697,7 +4715,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4735,7 +4753,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4773,7 +4791,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4811,7 +4829,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4849,7 +4867,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4887,7 +4905,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4925,7 +4943,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4963,7 +4981,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5001,7 +5019,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5039,7 +5057,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5077,7 +5095,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5115,7 +5133,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5153,7 +5171,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5191,7 +5209,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5229,7 +5247,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5267,7 +5285,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5305,7 +5323,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5343,7 +5361,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5381,7 +5399,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5419,7 +5437,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5457,7 +5475,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5495,7 +5513,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5533,7 +5551,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5571,7 +5589,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5609,7 +5627,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5647,7 +5665,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5685,7 +5703,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5723,7 +5741,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5761,7 +5779,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5799,7 +5817,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5837,7 +5855,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5875,7 +5893,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5913,7 +5931,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5951,7 +5969,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5989,7 +6007,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6027,7 +6045,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6065,7 +6083,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6103,7 +6121,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6141,7 +6159,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6179,7 +6197,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6217,7 +6235,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6255,7 +6273,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6293,7 +6311,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6331,7 +6349,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6369,7 +6387,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6407,7 +6425,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6445,7 +6463,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6483,7 +6501,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6521,7 +6539,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6559,7 +6577,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6597,7 +6615,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6635,7 +6653,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6673,7 +6691,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6711,7 +6729,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6749,7 +6767,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6787,7 +6805,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6825,7 +6843,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6863,7 +6881,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6901,7 +6919,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6939,7 +6957,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6977,7 +6995,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7015,7 +7033,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7053,7 +7071,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7091,7 +7109,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7129,7 +7147,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7167,7 +7185,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7205,7 +7223,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7243,7 +7261,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7281,7 +7299,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7319,7 +7337,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7357,7 +7375,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7395,7 +7413,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7433,7 +7451,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7471,7 +7489,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7509,7 +7527,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7547,7 +7565,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7585,7 +7603,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7623,7 +7641,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7661,7 +7679,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7699,7 +7717,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7737,7 +7755,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7775,7 +7793,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7813,7 +7831,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7851,7 +7869,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7889,7 +7907,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7927,7 +7945,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7965,7 +7983,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8003,7 +8021,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8041,7 +8059,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8079,7 +8097,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8117,7 +8135,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8155,7 +8173,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8193,7 +8211,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8231,7 +8249,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8269,7 +8287,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8307,7 +8325,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8345,7 +8363,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8383,7 +8401,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8421,7 +8439,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8459,7 +8477,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8497,7 +8515,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8535,7 +8553,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8573,7 +8591,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8611,7 +8629,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8649,7 +8667,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8687,7 +8705,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8725,7 +8743,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8763,7 +8781,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8801,7 +8819,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8839,7 +8857,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8877,7 +8895,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8915,7 +8933,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8953,7 +8971,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8991,7 +9009,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9029,7 +9047,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9067,7 +9085,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9105,7 +9123,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9143,7 +9161,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9181,7 +9199,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9219,7 +9237,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9257,7 +9275,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9295,7 +9313,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9333,7 +9351,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9371,7 +9389,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9409,7 +9427,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9447,7 +9465,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9485,7 +9503,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9523,7 +9541,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9561,7 +9579,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9599,7 +9617,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9637,7 +9655,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9675,7 +9693,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9713,7 +9731,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9751,7 +9769,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9789,7 +9807,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9827,7 +9845,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9865,7 +9883,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9903,7 +9921,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9941,7 +9959,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9979,7 +9997,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10017,7 +10035,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10055,7 +10073,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10093,7 +10111,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10131,7 +10149,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10169,7 +10187,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10207,7 +10225,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10245,7 +10263,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10283,7 +10301,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10321,7 +10339,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10359,7 +10377,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10397,7 +10415,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10435,7 +10453,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10473,7 +10491,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10511,7 +10529,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10549,7 +10567,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10587,7 +10605,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10625,7 +10643,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10663,7 +10681,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10701,7 +10719,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10739,7 +10757,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10777,7 +10795,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10815,7 +10833,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10853,7 +10871,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10891,7 +10909,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10929,7 +10947,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10967,7 +10985,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11005,7 +11023,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11043,7 +11061,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11081,7 +11099,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11119,7 +11137,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11157,7 +11175,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11195,7 +11213,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11233,7 +11251,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11271,7 +11289,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11309,7 +11327,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11347,7 +11365,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11385,7 +11403,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11423,7 +11441,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11461,7 +11479,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11499,7 +11517,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11537,7 +11555,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11575,7 +11593,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11613,7 +11631,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11651,7 +11669,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11689,7 +11707,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11727,7 +11745,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11765,7 +11783,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11803,7 +11821,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11841,7 +11859,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11879,7 +11897,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11917,7 +11935,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11955,7 +11973,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11993,7 +12011,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12031,7 +12049,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12069,7 +12087,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12107,7 +12125,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12145,7 +12163,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12183,7 +12201,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12221,7 +12239,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12259,7 +12277,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12297,7 +12315,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12335,7 +12353,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12373,7 +12391,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12411,7 +12429,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12449,7 +12467,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12487,7 +12505,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12525,7 +12543,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12563,7 +12581,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12601,7 +12619,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12639,7 +12657,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12677,7 +12695,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12715,7 +12733,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12753,7 +12771,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12791,7 +12809,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12829,7 +12847,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12867,7 +12885,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12905,7 +12923,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12943,7 +12961,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12981,7 +12999,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13019,7 +13037,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13057,7 +13075,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13095,7 +13113,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13133,7 +13151,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13171,7 +13189,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13209,7 +13227,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13247,7 +13265,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13285,7 +13303,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13323,7 +13341,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13361,7 +13379,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13399,7 +13417,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13437,7 +13455,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13475,7 +13493,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13513,7 +13531,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13551,7 +13569,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13589,7 +13607,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13627,7 +13645,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13665,7 +13683,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13703,7 +13721,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13741,7 +13759,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13779,7 +13797,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13817,7 +13835,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13855,7 +13873,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13893,7 +13911,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13931,7 +13949,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13969,7 +13987,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14007,7 +14025,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14045,7 +14063,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14083,7 +14101,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14121,7 +14139,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14159,7 +14177,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14197,7 +14215,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14235,7 +14253,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14273,7 +14291,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14311,7 +14329,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14349,7 +14367,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14387,7 +14405,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14425,7 +14443,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14463,7 +14481,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14501,7 +14519,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14539,7 +14557,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14577,7 +14595,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14615,7 +14633,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14653,7 +14671,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14691,7 +14709,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14729,7 +14747,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14767,7 +14785,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14805,7 +14823,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14843,7 +14861,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14881,7 +14899,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14919,7 +14937,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14957,7 +14975,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14995,7 +15013,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15033,7 +15051,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15071,7 +15089,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15109,7 +15127,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15147,7 +15165,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15185,7 +15203,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15223,7 +15241,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15261,7 +15279,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15299,7 +15317,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15337,7 +15355,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15375,7 +15393,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15413,7 +15431,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15451,7 +15469,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15489,7 +15507,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15527,7 +15545,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15565,7 +15583,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15603,7 +15621,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15641,7 +15659,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15679,7 +15697,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15717,7 +15735,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15755,7 +15773,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15793,7 +15811,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15831,7 +15849,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15869,7 +15887,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15907,7 +15925,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15945,7 +15963,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15983,7 +16001,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16021,7 +16039,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16059,7 +16077,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16097,7 +16115,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16135,7 +16153,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16173,7 +16191,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16211,7 +16229,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16249,7 +16267,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16287,7 +16305,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16325,7 +16343,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16363,7 +16381,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16401,7 +16419,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16439,7 +16457,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16477,7 +16495,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16515,7 +16533,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16553,7 +16571,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16591,7 +16609,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16629,7 +16647,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16667,7 +16685,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16705,7 +16723,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16743,7 +16761,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16781,7 +16799,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16819,7 +16837,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16857,7 +16875,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16895,7 +16913,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16933,7 +16951,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16971,7 +16989,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17009,7 +17027,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17047,7 +17065,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17085,7 +17103,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17123,7 +17141,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17161,7 +17179,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17199,7 +17217,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17237,7 +17255,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17275,7 +17293,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17313,7 +17331,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17351,7 +17369,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17389,7 +17407,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17427,7 +17445,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17465,7 +17483,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17503,7 +17521,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17541,7 +17559,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17579,7 +17597,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17617,7 +17635,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17655,7 +17673,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17693,7 +17711,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17731,7 +17749,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17769,7 +17787,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17807,7 +17825,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17845,7 +17863,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17883,7 +17901,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17921,7 +17939,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17959,7 +17977,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17997,7 +18015,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18035,7 +18053,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18073,7 +18091,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18111,7 +18129,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18149,7 +18167,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18187,7 +18205,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18225,7 +18243,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18263,7 +18281,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18301,7 +18319,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18339,7 +18357,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18377,7 +18395,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18415,7 +18433,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18453,7 +18471,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18491,7 +18509,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18529,7 +18547,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18567,7 +18585,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18605,7 +18623,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18643,7 +18661,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18681,7 +18699,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18719,7 +18737,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18757,7 +18775,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18795,7 +18813,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18833,7 +18851,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18871,7 +18889,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18909,7 +18927,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18947,7 +18965,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18985,7 +19003,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19023,7 +19041,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19061,7 +19079,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19099,7 +19117,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19137,7 +19155,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19175,7 +19193,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19213,7 +19231,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19251,7 +19269,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19289,7 +19307,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19327,7 +19345,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19365,7 +19383,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19403,7 +19421,7 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19441,7 +19459,7 @@
         <v>13.25</v>
       </c>
       <c r="L463" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19479,7 +19497,7 @@
         <v>13.25</v>
       </c>
       <c r="L464" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19517,7 +19535,7 @@
         <v>13.25</v>
       </c>
       <c r="L465" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19555,7 +19573,7 @@
         <v>13.25</v>
       </c>
       <c r="L466" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19593,7 +19611,7 @@
         <v>13.25</v>
       </c>
       <c r="L467" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19631,7 +19649,7 @@
         <v>13.25</v>
       </c>
       <c r="L468" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19669,7 +19687,7 @@
         <v>13.25</v>
       </c>
       <c r="L469" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19707,7 +19725,7 @@
         <v>13.25</v>
       </c>
       <c r="L470" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19745,7 +19763,7 @@
         <v>13.25</v>
       </c>
       <c r="L471" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19783,7 +19801,7 @@
         <v>13.25</v>
       </c>
       <c r="L472" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19821,7 +19839,7 @@
         <v>13.25</v>
       </c>
       <c r="L473" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19859,7 +19877,7 @@
         <v>13.25</v>
       </c>
       <c r="L474" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19897,7 +19915,7 @@
         <v>13.25</v>
       </c>
       <c r="L475" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -19935,7 +19953,7 @@
         <v>13.25</v>
       </c>
       <c r="L476" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -19973,7 +19991,7 @@
         <v>13.25</v>
       </c>
       <c r="L477" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20011,7 +20029,7 @@
         <v>13.25</v>
       </c>
       <c r="L478" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20049,7 +20067,7 @@
         <v>13.25</v>
       </c>
       <c r="L479" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20087,7 +20105,7 @@
         <v>13.25</v>
       </c>
       <c r="L480" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20125,7 +20143,235 @@
         <v>13.25</v>
       </c>
       <c r="L481" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
         <v>491</v>
+      </c>
+      <c r="C482">
+        <v>13.66</v>
+      </c>
+      <c r="D482">
+        <v>0.42</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>20.23</v>
+      </c>
+      <c r="G482">
+        <v>98</v>
+      </c>
+      <c r="H482">
+        <v>-44.43</v>
+      </c>
+      <c r="I482">
+        <v>0.12</v>
+      </c>
+      <c r="J482">
+        <v>339.64</v>
+      </c>
+      <c r="K482">
+        <v>13.25</v>
+      </c>
+      <c r="L482" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>492</v>
+      </c>
+      <c r="C483">
+        <v>13.66</v>
+      </c>
+      <c r="D483">
+        <v>0.42</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>20.16</v>
+      </c>
+      <c r="G483">
+        <v>98</v>
+      </c>
+      <c r="H483">
+        <v>-44.42</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>243.49</v>
+      </c>
+      <c r="K483">
+        <v>13.25</v>
+      </c>
+      <c r="L483" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.66</v>
+      </c>
+      <c r="D484">
+        <v>0.42</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>20.05</v>
+      </c>
+      <c r="G484">
+        <v>98</v>
+      </c>
+      <c r="H484">
+        <v>-44.5</v>
+      </c>
+      <c r="I484">
+        <v>-0.08</v>
+      </c>
+      <c r="J484">
+        <v>229.77</v>
+      </c>
+      <c r="K484">
+        <v>13.25</v>
+      </c>
+      <c r="L484" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>494</v>
+      </c>
+      <c r="C485">
+        <v>13.66</v>
+      </c>
+      <c r="D485">
+        <v>0.41</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>19.99</v>
+      </c>
+      <c r="G485">
+        <v>98</v>
+      </c>
+      <c r="H485">
+        <v>-44.62</v>
+      </c>
+      <c r="I485">
+        <v>-0.06</v>
+      </c>
+      <c r="J485">
+        <v>277.75</v>
+      </c>
+      <c r="K485">
+        <v>13.25</v>
+      </c>
+      <c r="L485" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>495</v>
+      </c>
+      <c r="C486">
+        <v>13.67</v>
+      </c>
+      <c r="D486">
+        <v>0.43</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>20.96</v>
+      </c>
+      <c r="G486">
+        <v>98</v>
+      </c>
+      <c r="H486">
+        <v>-43.79</v>
+      </c>
+      <c r="I486">
+        <v>0.1</v>
+      </c>
+      <c r="J486">
+        <v>541.26</v>
+      </c>
+      <c r="K486">
+        <v>13.25</v>
+      </c>
+      <c r="L486" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>496</v>
+      </c>
+      <c r="C487">
+        <v>13.67</v>
+      </c>
+      <c r="D487">
+        <v>0.45</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>21.66</v>
+      </c>
+      <c r="G487">
+        <v>98</v>
+      </c>
+      <c r="H487">
+        <v>-43.04</v>
+      </c>
+      <c r="I487">
+        <v>-0.05</v>
+      </c>
+      <c r="J487">
+        <v>589.27</v>
+      </c>
+      <c r="K487">
+        <v>13.25</v>
+      </c>
+      <c r="L487" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="549">
   <si>
     <t>Fecha</t>
   </si>
@@ -1655,6 +1655,9 @@
   </si>
   <si>
     <t>11/13/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:20:00 PM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -2015,7 +2018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L537"/>
+  <dimension ref="A1:L538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2091,7 +2094,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2129,7 +2132,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2167,7 +2170,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2205,7 +2208,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2243,7 +2246,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2281,7 +2284,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2319,7 +2322,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2357,7 +2360,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2395,7 +2398,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2433,7 +2436,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2471,7 +2474,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2509,7 +2512,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2547,7 +2550,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2585,7 +2588,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2623,7 +2626,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2661,7 +2664,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2699,7 +2702,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2737,7 +2740,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2775,7 +2778,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2813,7 +2816,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2851,7 +2854,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2889,7 +2892,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2927,7 +2930,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2965,7 +2968,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3003,7 +3006,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3041,7 +3044,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3079,7 +3082,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3117,7 +3120,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3155,7 +3158,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3193,7 +3196,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3231,7 +3234,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3269,7 +3272,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3307,7 +3310,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3345,7 +3348,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3383,7 +3386,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3421,7 +3424,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3459,7 +3462,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3497,7 +3500,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3535,7 +3538,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3573,7 +3576,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3611,7 +3614,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3649,7 +3652,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3687,7 +3690,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3725,7 +3728,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3763,7 +3766,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3801,7 +3804,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3839,7 +3842,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3877,7 +3880,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3915,7 +3918,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3953,7 +3956,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3991,7 +3994,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4029,7 +4032,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4067,7 +4070,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4105,7 +4108,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4143,7 +4146,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4181,7 +4184,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4219,7 +4222,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4257,7 +4260,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4295,7 +4298,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4333,7 +4336,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4371,7 +4374,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4409,7 +4412,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4447,7 +4450,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4485,7 +4488,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4523,7 +4526,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4561,7 +4564,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4599,7 +4602,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4637,7 +4640,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4675,7 +4678,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4713,7 +4716,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4751,7 +4754,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4789,7 +4792,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4827,7 +4830,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4865,7 +4868,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4903,7 +4906,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4941,7 +4944,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4979,7 +4982,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5017,7 +5020,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5055,7 +5058,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5093,7 +5096,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5131,7 +5134,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5169,7 +5172,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5207,7 +5210,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5245,7 +5248,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5283,7 +5286,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5321,7 +5324,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5359,7 +5362,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5397,7 +5400,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5435,7 +5438,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5473,7 +5476,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5511,7 +5514,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5549,7 +5552,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5587,7 +5590,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5625,7 +5628,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5663,7 +5666,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5701,7 +5704,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5739,7 +5742,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5777,7 +5780,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5815,7 +5818,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5853,7 +5856,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5891,7 +5894,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5929,7 +5932,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5967,7 +5970,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6005,7 +6008,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6043,7 +6046,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6081,7 +6084,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6119,7 +6122,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6157,7 +6160,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6195,7 +6198,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6233,7 +6236,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6271,7 +6274,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6309,7 +6312,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6347,7 +6350,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6385,7 +6388,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6423,7 +6426,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6461,7 +6464,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6499,7 +6502,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6537,7 +6540,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6575,7 +6578,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6613,7 +6616,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6651,7 +6654,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6689,7 +6692,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6727,7 +6730,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6765,7 +6768,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6803,7 +6806,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6841,7 +6844,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6879,7 +6882,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6917,7 +6920,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6955,7 +6958,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6993,7 +6996,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7031,7 +7034,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7069,7 +7072,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7107,7 +7110,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7145,7 +7148,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7183,7 +7186,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7221,7 +7224,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7259,7 +7262,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7297,7 +7300,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7335,7 +7338,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7373,7 +7376,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7411,7 +7414,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7449,7 +7452,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7487,7 +7490,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7525,7 +7528,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7563,7 +7566,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7601,7 +7604,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7639,7 +7642,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7677,7 +7680,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7715,7 +7718,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7753,7 +7756,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7791,7 +7794,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7829,7 +7832,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7867,7 +7870,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7905,7 +7908,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7943,7 +7946,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7981,7 +7984,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8019,7 +8022,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8057,7 +8060,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8095,7 +8098,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8133,7 +8136,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8171,7 +8174,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8209,7 +8212,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8247,7 +8250,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8285,7 +8288,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8323,7 +8326,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8361,7 +8364,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8399,7 +8402,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8437,7 +8440,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8475,7 +8478,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8513,7 +8516,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8551,7 +8554,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8589,7 +8592,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8627,7 +8630,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8665,7 +8668,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8703,7 +8706,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8741,7 +8744,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8779,7 +8782,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8817,7 +8820,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8855,7 +8858,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8893,7 +8896,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8931,7 +8934,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8969,7 +8972,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -9007,7 +9010,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9045,7 +9048,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9083,7 +9086,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9121,7 +9124,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9159,7 +9162,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9197,7 +9200,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9235,7 +9238,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9273,7 +9276,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9311,7 +9314,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9349,7 +9352,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9387,7 +9390,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9425,7 +9428,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9463,7 +9466,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9501,7 +9504,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9539,7 +9542,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9577,7 +9580,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9615,7 +9618,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9653,7 +9656,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9691,7 +9694,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9729,7 +9732,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9767,7 +9770,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9805,7 +9808,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9843,7 +9846,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9881,7 +9884,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9919,7 +9922,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9957,7 +9960,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9995,7 +9998,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10033,7 +10036,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10071,7 +10074,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10109,7 +10112,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10147,7 +10150,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10185,7 +10188,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10223,7 +10226,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10261,7 +10264,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10299,7 +10302,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10337,7 +10340,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10375,7 +10378,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10413,7 +10416,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10451,7 +10454,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10489,7 +10492,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10527,7 +10530,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10565,7 +10568,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10603,7 +10606,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10641,7 +10644,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10679,7 +10682,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10717,7 +10720,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10755,7 +10758,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10793,7 +10796,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10831,7 +10834,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10869,7 +10872,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10907,7 +10910,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10945,7 +10948,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10983,7 +10986,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11021,7 +11024,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11059,7 +11062,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11097,7 +11100,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11135,7 +11138,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11173,7 +11176,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11211,7 +11214,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11249,7 +11252,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11287,7 +11290,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11325,7 +11328,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11363,7 +11366,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11401,7 +11404,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11439,7 +11442,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11477,7 +11480,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11515,7 +11518,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11553,7 +11556,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11591,7 +11594,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11629,7 +11632,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11667,7 +11670,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11705,7 +11708,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11743,7 +11746,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11781,7 +11784,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11819,7 +11822,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11857,7 +11860,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11895,7 +11898,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11933,7 +11936,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11971,7 +11974,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12009,7 +12012,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12047,7 +12050,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12085,7 +12088,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12123,7 +12126,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12161,7 +12164,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12199,7 +12202,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12237,7 +12240,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12275,7 +12278,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12313,7 +12316,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12351,7 +12354,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12389,7 +12392,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12427,7 +12430,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12465,7 +12468,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12503,7 +12506,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12541,7 +12544,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12579,7 +12582,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12617,7 +12620,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12655,7 +12658,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12693,7 +12696,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12731,7 +12734,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12769,7 +12772,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12807,7 +12810,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12845,7 +12848,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12883,7 +12886,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12921,7 +12924,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12959,7 +12962,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12997,7 +13000,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13035,7 +13038,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13073,7 +13076,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13111,7 +13114,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13149,7 +13152,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13187,7 +13190,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13225,7 +13228,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13263,7 +13266,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13301,7 +13304,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13339,7 +13342,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13377,7 +13380,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13415,7 +13418,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13453,7 +13456,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13491,7 +13494,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13529,7 +13532,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13567,7 +13570,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13605,7 +13608,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13643,7 +13646,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13681,7 +13684,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13719,7 +13722,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13757,7 +13760,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13795,7 +13798,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13833,7 +13836,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13871,7 +13874,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13909,7 +13912,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13947,7 +13950,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13985,7 +13988,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14023,7 +14026,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14061,7 +14064,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14099,7 +14102,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14137,7 +14140,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14175,7 +14178,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14213,7 +14216,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14251,7 +14254,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14289,7 +14292,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14327,7 +14330,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14365,7 +14368,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14403,7 +14406,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14441,7 +14444,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14479,7 +14482,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14517,7 +14520,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14555,7 +14558,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14593,7 +14596,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14631,7 +14634,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14669,7 +14672,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14707,7 +14710,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14745,7 +14748,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14783,7 +14786,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14821,7 +14824,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14859,7 +14862,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14897,7 +14900,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14935,7 +14938,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14973,7 +14976,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15011,7 +15014,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15049,7 +15052,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15087,7 +15090,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15125,7 +15128,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15163,7 +15166,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15201,7 +15204,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15239,7 +15242,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15277,7 +15280,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15315,7 +15318,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15353,7 +15356,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15391,7 +15394,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15429,7 +15432,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15467,7 +15470,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15505,7 +15508,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15543,7 +15546,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15581,7 +15584,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15619,7 +15622,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15657,7 +15660,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15695,7 +15698,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15733,7 +15736,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15771,7 +15774,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15809,7 +15812,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15847,7 +15850,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15885,7 +15888,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15923,7 +15926,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15961,7 +15964,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15999,7 +16002,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16037,7 +16040,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16075,7 +16078,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16113,7 +16116,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16151,7 +16154,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16189,7 +16192,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16227,7 +16230,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16265,7 +16268,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16303,7 +16306,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16341,7 +16344,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16379,7 +16382,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16417,7 +16420,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16455,7 +16458,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16493,7 +16496,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16531,7 +16534,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16569,7 +16572,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16607,7 +16610,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16645,7 +16648,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16683,7 +16686,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16721,7 +16724,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16759,7 +16762,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16797,7 +16800,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16835,7 +16838,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16873,7 +16876,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16911,7 +16914,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16949,7 +16952,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16987,7 +16990,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17025,7 +17028,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17063,7 +17066,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17101,7 +17104,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17139,7 +17142,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17177,7 +17180,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17215,7 +17218,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17253,7 +17256,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17291,7 +17294,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17329,7 +17332,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17367,7 +17370,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17405,7 +17408,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17443,7 +17446,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17481,7 +17484,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17519,7 +17522,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17557,7 +17560,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17595,7 +17598,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17633,7 +17636,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17671,7 +17674,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17709,7 +17712,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17747,7 +17750,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17785,7 +17788,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17823,7 +17826,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17861,7 +17864,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17899,7 +17902,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17937,7 +17940,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17975,7 +17978,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18013,7 +18016,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18051,7 +18054,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18089,7 +18092,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18127,7 +18130,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18165,7 +18168,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18203,7 +18206,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18241,7 +18244,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18279,7 +18282,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18317,7 +18320,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18355,7 +18358,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18393,7 +18396,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18431,7 +18434,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18469,7 +18472,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18507,7 +18510,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18545,7 +18548,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18583,7 +18586,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18621,7 +18624,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18659,7 +18662,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18697,7 +18700,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18735,7 +18738,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18773,7 +18776,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18811,7 +18814,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18849,7 +18852,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18887,7 +18890,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18925,7 +18928,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18963,7 +18966,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -19001,7 +19004,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19039,7 +19042,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19077,7 +19080,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19115,7 +19118,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19153,7 +19156,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19191,7 +19194,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19229,7 +19232,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19267,7 +19270,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19305,7 +19308,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19343,7 +19346,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19381,7 +19384,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19419,7 +19422,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19457,7 +19460,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19495,7 +19498,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19533,7 +19536,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19571,7 +19574,7 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19609,7 +19612,7 @@
         <v>13.25</v>
       </c>
       <c r="L463" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19647,7 +19650,7 @@
         <v>13.25</v>
       </c>
       <c r="L464" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19685,7 +19688,7 @@
         <v>13.25</v>
       </c>
       <c r="L465" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19723,7 +19726,7 @@
         <v>13.25</v>
       </c>
       <c r="L466" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19761,7 +19764,7 @@
         <v>13.25</v>
       </c>
       <c r="L467" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19799,7 +19802,7 @@
         <v>13.25</v>
       </c>
       <c r="L468" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19837,7 +19840,7 @@
         <v>13.25</v>
       </c>
       <c r="L469" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19875,7 +19878,7 @@
         <v>13.25</v>
       </c>
       <c r="L470" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19913,7 +19916,7 @@
         <v>13.25</v>
       </c>
       <c r="L471" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19951,7 +19954,7 @@
         <v>13.25</v>
       </c>
       <c r="L472" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19989,7 +19992,7 @@
         <v>13.25</v>
       </c>
       <c r="L473" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20027,7 +20030,7 @@
         <v>13.25</v>
       </c>
       <c r="L474" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20065,7 +20068,7 @@
         <v>13.25</v>
       </c>
       <c r="L475" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20103,7 +20106,7 @@
         <v>13.25</v>
       </c>
       <c r="L476" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20141,7 +20144,7 @@
         <v>13.25</v>
       </c>
       <c r="L477" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20179,7 +20182,7 @@
         <v>13.25</v>
       </c>
       <c r="L478" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20217,7 +20220,7 @@
         <v>13.25</v>
       </c>
       <c r="L479" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20255,7 +20258,7 @@
         <v>13.25</v>
       </c>
       <c r="L480" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20293,7 +20296,7 @@
         <v>13.25</v>
       </c>
       <c r="L481" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20331,7 +20334,7 @@
         <v>13.25</v>
       </c>
       <c r="L482" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20369,7 +20372,7 @@
         <v>13.25</v>
       </c>
       <c r="L483" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20407,7 +20410,7 @@
         <v>13.25</v>
       </c>
       <c r="L484" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20445,7 +20448,7 @@
         <v>13.25</v>
       </c>
       <c r="L485" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20483,7 +20486,7 @@
         <v>13.25</v>
       </c>
       <c r="L486" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20521,7 +20524,7 @@
         <v>13.25</v>
       </c>
       <c r="L487" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20559,7 +20562,7 @@
         <v>13.25</v>
       </c>
       <c r="L488" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20597,7 +20600,7 @@
         <v>13.25</v>
       </c>
       <c r="L489" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20635,7 +20638,7 @@
         <v>13.25</v>
       </c>
       <c r="L490" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20673,7 +20676,7 @@
         <v>13.25</v>
       </c>
       <c r="L491" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20711,7 +20714,7 @@
         <v>13.25</v>
       </c>
       <c r="L492" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20749,7 +20752,7 @@
         <v>13.25</v>
       </c>
       <c r="L493" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20787,7 +20790,7 @@
         <v>13.25</v>
       </c>
       <c r="L494" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20825,7 +20828,7 @@
         <v>13.25</v>
       </c>
       <c r="L495" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20863,7 +20866,7 @@
         <v>13.25</v>
       </c>
       <c r="L496" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20901,7 +20904,7 @@
         <v>13.25</v>
       </c>
       <c r="L497" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20939,7 +20942,7 @@
         <v>13.25</v>
       </c>
       <c r="L498" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20977,7 +20980,7 @@
         <v>13.25</v>
       </c>
       <c r="L499" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21015,7 +21018,7 @@
         <v>13.25</v>
       </c>
       <c r="L500" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21053,7 +21056,7 @@
         <v>13.25</v>
       </c>
       <c r="L501" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21091,7 +21094,7 @@
         <v>13.25</v>
       </c>
       <c r="L502" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21129,7 +21132,7 @@
         <v>13.25</v>
       </c>
       <c r="L503" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21167,7 +21170,7 @@
         <v>13.25</v>
       </c>
       <c r="L504" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21205,7 +21208,7 @@
         <v>13.25</v>
       </c>
       <c r="L505" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21243,7 +21246,7 @@
         <v>13.25</v>
       </c>
       <c r="L506" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21281,7 +21284,7 @@
         <v>13.25</v>
       </c>
       <c r="L507" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21319,7 +21322,7 @@
         <v>13.25</v>
       </c>
       <c r="L508" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21357,7 +21360,7 @@
         <v>13.25</v>
       </c>
       <c r="L509" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21395,7 +21398,7 @@
         <v>13.25</v>
       </c>
       <c r="L510" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21433,7 +21436,7 @@
         <v>13.25</v>
       </c>
       <c r="L511" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21471,7 +21474,7 @@
         <v>13.25</v>
       </c>
       <c r="L512" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21509,7 +21512,7 @@
         <v>13.25</v>
       </c>
       <c r="L513" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21547,7 +21550,7 @@
         <v>13.25</v>
       </c>
       <c r="L514" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21585,7 +21588,7 @@
         <v>13.25</v>
       </c>
       <c r="L515" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21623,7 +21626,7 @@
         <v>13.25</v>
       </c>
       <c r="L516" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21661,7 +21664,7 @@
         <v>13.25</v>
       </c>
       <c r="L517" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21699,7 +21702,7 @@
         <v>13.25</v>
       </c>
       <c r="L518" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21737,7 +21740,7 @@
         <v>13.25</v>
       </c>
       <c r="L519" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21775,7 +21778,7 @@
         <v>13.25</v>
       </c>
       <c r="L520" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21813,7 +21816,7 @@
         <v>13.25</v>
       </c>
       <c r="L521" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21851,7 +21854,7 @@
         <v>13.25</v>
       </c>
       <c r="L522" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21889,7 +21892,7 @@
         <v>13.25</v>
       </c>
       <c r="L523" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21927,7 +21930,7 @@
         <v>13.25</v>
       </c>
       <c r="L524" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21965,7 +21968,7 @@
         <v>13.25</v>
       </c>
       <c r="L525" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22003,7 +22006,7 @@
         <v>13.25</v>
       </c>
       <c r="L526" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22041,7 +22044,7 @@
         <v>13.25</v>
       </c>
       <c r="L527" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22079,7 +22082,7 @@
         <v>13.25</v>
       </c>
       <c r="L528" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22117,7 +22120,7 @@
         <v>13.25</v>
       </c>
       <c r="L529" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22155,7 +22158,7 @@
         <v>13.25</v>
       </c>
       <c r="L530" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22193,7 +22196,7 @@
         <v>13.25</v>
       </c>
       <c r="L531" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22231,7 +22234,7 @@
         <v>13.25</v>
       </c>
       <c r="L532" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22269,7 +22272,7 @@
         <v>13.25</v>
       </c>
       <c r="L533" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22307,7 +22310,7 @@
         <v>13.25</v>
       </c>
       <c r="L534" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22345,7 +22348,7 @@
         <v>13.25</v>
       </c>
       <c r="L535" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22383,7 +22386,7 @@
         <v>13.25</v>
       </c>
       <c r="L536" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -22421,7 +22424,45 @@
         <v>13.25</v>
       </c>
       <c r="L537" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
         <v>547</v>
+      </c>
+      <c r="C538">
+        <v>13.14</v>
+      </c>
+      <c r="D538">
+        <v>0.39</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>20.65</v>
+      </c>
+      <c r="G538">
+        <v>98</v>
+      </c>
+      <c r="H538">
+        <v>-44.78</v>
+      </c>
+      <c r="I538">
+        <v>0.08</v>
+      </c>
+      <c r="J538">
+        <v>8.26</v>
+      </c>
+      <c r="K538">
+        <v>13.25</v>
+      </c>
+      <c r="L538" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="555">
   <si>
     <t>Fecha</t>
   </si>
@@ -1658,6 +1658,24 @@
   </si>
   <si>
     <t>11/13/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:20:00 PM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -2018,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L538"/>
+  <dimension ref="A1:L544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2094,7 +2112,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2132,7 +2150,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2170,7 +2188,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2208,7 +2226,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2246,7 +2264,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2284,7 +2302,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2322,7 +2340,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2360,7 +2378,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2398,7 +2416,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2436,7 +2454,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2474,7 +2492,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2512,7 +2530,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2550,7 +2568,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2588,7 +2606,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2626,7 +2644,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2664,7 +2682,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2702,7 +2720,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2740,7 +2758,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2778,7 +2796,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2816,7 +2834,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2854,7 +2872,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2892,7 +2910,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2930,7 +2948,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2968,7 +2986,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3006,7 +3024,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3044,7 +3062,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3082,7 +3100,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3120,7 +3138,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3158,7 +3176,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3196,7 +3214,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3234,7 +3252,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3272,7 +3290,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3310,7 +3328,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3348,7 +3366,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3386,7 +3404,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3424,7 +3442,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3462,7 +3480,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3500,7 +3518,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3538,7 +3556,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3576,7 +3594,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3614,7 +3632,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3652,7 +3670,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3690,7 +3708,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3728,7 +3746,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3766,7 +3784,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3804,7 +3822,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3842,7 +3860,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3880,7 +3898,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3918,7 +3936,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3956,7 +3974,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3994,7 +4012,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4032,7 +4050,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4070,7 +4088,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4108,7 +4126,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4146,7 +4164,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4184,7 +4202,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4222,7 +4240,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4260,7 +4278,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4298,7 +4316,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4336,7 +4354,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4374,7 +4392,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4412,7 +4430,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4450,7 +4468,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4488,7 +4506,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4526,7 +4544,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4564,7 +4582,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4602,7 +4620,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4640,7 +4658,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4678,7 +4696,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4716,7 +4734,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4754,7 +4772,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4792,7 +4810,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4830,7 +4848,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4868,7 +4886,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4906,7 +4924,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4944,7 +4962,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4982,7 +5000,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5020,7 +5038,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5058,7 +5076,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5096,7 +5114,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5134,7 +5152,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5172,7 +5190,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5210,7 +5228,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5248,7 +5266,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5286,7 +5304,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5324,7 +5342,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5362,7 +5380,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5400,7 +5418,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5438,7 +5456,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5476,7 +5494,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5514,7 +5532,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5552,7 +5570,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5590,7 +5608,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5628,7 +5646,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5666,7 +5684,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5704,7 +5722,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5742,7 +5760,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5780,7 +5798,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5818,7 +5836,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5856,7 +5874,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5894,7 +5912,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5932,7 +5950,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5970,7 +5988,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6008,7 +6026,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6046,7 +6064,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6084,7 +6102,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6122,7 +6140,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6160,7 +6178,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6198,7 +6216,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6236,7 +6254,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6274,7 +6292,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6312,7 +6330,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6350,7 +6368,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6388,7 +6406,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6426,7 +6444,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6464,7 +6482,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6502,7 +6520,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6540,7 +6558,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6578,7 +6596,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6616,7 +6634,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6654,7 +6672,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6692,7 +6710,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6730,7 +6748,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6768,7 +6786,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6806,7 +6824,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6844,7 +6862,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6882,7 +6900,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6920,7 +6938,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6958,7 +6976,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6996,7 +7014,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7034,7 +7052,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7072,7 +7090,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7110,7 +7128,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7148,7 +7166,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7186,7 +7204,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7224,7 +7242,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7262,7 +7280,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7300,7 +7318,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7338,7 +7356,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7376,7 +7394,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7414,7 +7432,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7452,7 +7470,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7490,7 +7508,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7528,7 +7546,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7566,7 +7584,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7604,7 +7622,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7642,7 +7660,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7680,7 +7698,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7718,7 +7736,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7756,7 +7774,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7794,7 +7812,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7832,7 +7850,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7870,7 +7888,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7908,7 +7926,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7946,7 +7964,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7984,7 +8002,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8022,7 +8040,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8060,7 +8078,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8098,7 +8116,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8136,7 +8154,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8174,7 +8192,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8212,7 +8230,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8250,7 +8268,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8288,7 +8306,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8326,7 +8344,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8364,7 +8382,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8402,7 +8420,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8440,7 +8458,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8478,7 +8496,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8516,7 +8534,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8554,7 +8572,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8592,7 +8610,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8630,7 +8648,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8668,7 +8686,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8706,7 +8724,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8744,7 +8762,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8782,7 +8800,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8820,7 +8838,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8858,7 +8876,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8896,7 +8914,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8934,7 +8952,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8972,7 +8990,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -9010,7 +9028,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9048,7 +9066,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9086,7 +9104,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9124,7 +9142,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9162,7 +9180,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9200,7 +9218,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9238,7 +9256,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9276,7 +9294,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9314,7 +9332,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9352,7 +9370,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9390,7 +9408,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9428,7 +9446,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9466,7 +9484,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9504,7 +9522,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9542,7 +9560,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9580,7 +9598,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9618,7 +9636,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9656,7 +9674,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9694,7 +9712,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9732,7 +9750,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9770,7 +9788,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9808,7 +9826,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9846,7 +9864,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9884,7 +9902,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9922,7 +9940,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9960,7 +9978,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9998,7 +10016,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10036,7 +10054,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10074,7 +10092,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10112,7 +10130,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10150,7 +10168,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10188,7 +10206,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10226,7 +10244,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10264,7 +10282,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10302,7 +10320,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10340,7 +10358,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10378,7 +10396,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10416,7 +10434,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10454,7 +10472,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10492,7 +10510,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10530,7 +10548,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10568,7 +10586,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10606,7 +10624,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10644,7 +10662,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10682,7 +10700,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10720,7 +10738,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10758,7 +10776,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10796,7 +10814,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10834,7 +10852,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10872,7 +10890,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10910,7 +10928,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10948,7 +10966,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10986,7 +11004,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11024,7 +11042,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11062,7 +11080,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11100,7 +11118,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11138,7 +11156,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11176,7 +11194,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11214,7 +11232,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11252,7 +11270,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11290,7 +11308,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11328,7 +11346,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11366,7 +11384,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11404,7 +11422,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11442,7 +11460,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11480,7 +11498,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11518,7 +11536,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11556,7 +11574,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11594,7 +11612,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11632,7 +11650,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11670,7 +11688,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11708,7 +11726,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11746,7 +11764,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11784,7 +11802,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11822,7 +11840,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11860,7 +11878,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11898,7 +11916,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11936,7 +11954,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11974,7 +11992,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12012,7 +12030,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12050,7 +12068,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12088,7 +12106,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12126,7 +12144,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12164,7 +12182,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12202,7 +12220,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12240,7 +12258,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12278,7 +12296,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12316,7 +12334,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12354,7 +12372,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12392,7 +12410,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12430,7 +12448,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12468,7 +12486,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12506,7 +12524,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12544,7 +12562,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12582,7 +12600,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12620,7 +12638,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12658,7 +12676,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12696,7 +12714,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12734,7 +12752,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12772,7 +12790,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12810,7 +12828,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12848,7 +12866,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12886,7 +12904,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12924,7 +12942,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12962,7 +12980,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -13000,7 +13018,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13038,7 +13056,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13076,7 +13094,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13114,7 +13132,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13152,7 +13170,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13190,7 +13208,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13228,7 +13246,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13266,7 +13284,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13304,7 +13322,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13342,7 +13360,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13380,7 +13398,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13418,7 +13436,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13456,7 +13474,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13494,7 +13512,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13532,7 +13550,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13570,7 +13588,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13608,7 +13626,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13646,7 +13664,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13684,7 +13702,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13722,7 +13740,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13760,7 +13778,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13798,7 +13816,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13836,7 +13854,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13874,7 +13892,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13912,7 +13930,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13950,7 +13968,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13988,7 +14006,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14026,7 +14044,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14064,7 +14082,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14102,7 +14120,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14140,7 +14158,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14178,7 +14196,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14216,7 +14234,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14254,7 +14272,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14292,7 +14310,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14330,7 +14348,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14368,7 +14386,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14406,7 +14424,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14444,7 +14462,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14482,7 +14500,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14520,7 +14538,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14558,7 +14576,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14596,7 +14614,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14634,7 +14652,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14672,7 +14690,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14710,7 +14728,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14748,7 +14766,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14786,7 +14804,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14824,7 +14842,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14862,7 +14880,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14900,7 +14918,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14938,7 +14956,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14976,7 +14994,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15014,7 +15032,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15052,7 +15070,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15090,7 +15108,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15128,7 +15146,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15166,7 +15184,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15204,7 +15222,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15242,7 +15260,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15280,7 +15298,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15318,7 +15336,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15356,7 +15374,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15394,7 +15412,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15432,7 +15450,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15470,7 +15488,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15508,7 +15526,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15546,7 +15564,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15584,7 +15602,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15622,7 +15640,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15660,7 +15678,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15698,7 +15716,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15736,7 +15754,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15774,7 +15792,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15812,7 +15830,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15850,7 +15868,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15888,7 +15906,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15926,7 +15944,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15964,7 +15982,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -16002,7 +16020,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16040,7 +16058,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16078,7 +16096,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16116,7 +16134,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16154,7 +16172,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16192,7 +16210,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16230,7 +16248,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16268,7 +16286,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16306,7 +16324,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16344,7 +16362,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16382,7 +16400,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16420,7 +16438,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16458,7 +16476,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16496,7 +16514,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16534,7 +16552,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16572,7 +16590,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16610,7 +16628,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16648,7 +16666,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16686,7 +16704,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16724,7 +16742,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16762,7 +16780,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16800,7 +16818,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16838,7 +16856,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16876,7 +16894,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16914,7 +16932,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16952,7 +16970,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16990,7 +17008,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17028,7 +17046,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17066,7 +17084,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17104,7 +17122,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17142,7 +17160,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17180,7 +17198,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17218,7 +17236,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17256,7 +17274,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17294,7 +17312,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17332,7 +17350,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17370,7 +17388,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17408,7 +17426,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17446,7 +17464,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17484,7 +17502,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17522,7 +17540,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17560,7 +17578,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17598,7 +17616,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17636,7 +17654,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17674,7 +17692,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17712,7 +17730,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17750,7 +17768,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17788,7 +17806,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17826,7 +17844,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17864,7 +17882,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17902,7 +17920,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17940,7 +17958,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17978,7 +17996,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18016,7 +18034,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18054,7 +18072,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18092,7 +18110,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18130,7 +18148,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18168,7 +18186,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18206,7 +18224,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18244,7 +18262,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18282,7 +18300,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18320,7 +18338,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18358,7 +18376,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18396,7 +18414,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18434,7 +18452,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18472,7 +18490,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18510,7 +18528,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18548,7 +18566,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18586,7 +18604,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18624,7 +18642,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18662,7 +18680,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18700,7 +18718,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18738,7 +18756,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18776,7 +18794,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18814,7 +18832,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18852,7 +18870,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18890,7 +18908,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18928,7 +18946,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18966,7 +18984,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -19004,7 +19022,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19042,7 +19060,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19080,7 +19098,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19118,7 +19136,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19156,7 +19174,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19194,7 +19212,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19232,7 +19250,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19270,7 +19288,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19308,7 +19326,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19346,7 +19364,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19384,7 +19402,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19422,7 +19440,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19460,7 +19478,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19498,7 +19516,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19536,7 +19554,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19574,7 +19592,7 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19612,7 +19630,7 @@
         <v>13.25</v>
       </c>
       <c r="L463" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19650,7 +19668,7 @@
         <v>13.25</v>
       </c>
       <c r="L464" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19688,7 +19706,7 @@
         <v>13.25</v>
       </c>
       <c r="L465" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19726,7 +19744,7 @@
         <v>13.25</v>
       </c>
       <c r="L466" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19764,7 +19782,7 @@
         <v>13.25</v>
       </c>
       <c r="L467" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19802,7 +19820,7 @@
         <v>13.25</v>
       </c>
       <c r="L468" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19840,7 +19858,7 @@
         <v>13.25</v>
       </c>
       <c r="L469" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19878,7 +19896,7 @@
         <v>13.25</v>
       </c>
       <c r="L470" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19916,7 +19934,7 @@
         <v>13.25</v>
       </c>
       <c r="L471" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19954,7 +19972,7 @@
         <v>13.25</v>
       </c>
       <c r="L472" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19992,7 +20010,7 @@
         <v>13.25</v>
       </c>
       <c r="L473" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20030,7 +20048,7 @@
         <v>13.25</v>
       </c>
       <c r="L474" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20068,7 +20086,7 @@
         <v>13.25</v>
       </c>
       <c r="L475" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20106,7 +20124,7 @@
         <v>13.25</v>
       </c>
       <c r="L476" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20144,7 +20162,7 @@
         <v>13.25</v>
       </c>
       <c r="L477" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20182,7 +20200,7 @@
         <v>13.25</v>
       </c>
       <c r="L478" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20220,7 +20238,7 @@
         <v>13.25</v>
       </c>
       <c r="L479" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20258,7 +20276,7 @@
         <v>13.25</v>
       </c>
       <c r="L480" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20296,7 +20314,7 @@
         <v>13.25</v>
       </c>
       <c r="L481" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20334,7 +20352,7 @@
         <v>13.25</v>
       </c>
       <c r="L482" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20372,7 +20390,7 @@
         <v>13.25</v>
       </c>
       <c r="L483" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20410,7 +20428,7 @@
         <v>13.25</v>
       </c>
       <c r="L484" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20448,7 +20466,7 @@
         <v>13.25</v>
       </c>
       <c r="L485" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20486,7 +20504,7 @@
         <v>13.25</v>
       </c>
       <c r="L486" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20524,7 +20542,7 @@
         <v>13.25</v>
       </c>
       <c r="L487" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20562,7 +20580,7 @@
         <v>13.25</v>
       </c>
       <c r="L488" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20600,7 +20618,7 @@
         <v>13.25</v>
       </c>
       <c r="L489" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20638,7 +20656,7 @@
         <v>13.25</v>
       </c>
       <c r="L490" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20676,7 +20694,7 @@
         <v>13.25</v>
       </c>
       <c r="L491" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20714,7 +20732,7 @@
         <v>13.25</v>
       </c>
       <c r="L492" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20752,7 +20770,7 @@
         <v>13.25</v>
       </c>
       <c r="L493" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20790,7 +20808,7 @@
         <v>13.25</v>
       </c>
       <c r="L494" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20828,7 +20846,7 @@
         <v>13.25</v>
       </c>
       <c r="L495" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20866,7 +20884,7 @@
         <v>13.25</v>
       </c>
       <c r="L496" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20904,7 +20922,7 @@
         <v>13.25</v>
       </c>
       <c r="L497" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20942,7 +20960,7 @@
         <v>13.25</v>
       </c>
       <c r="L498" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20980,7 +20998,7 @@
         <v>13.25</v>
       </c>
       <c r="L499" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21018,7 +21036,7 @@
         <v>13.25</v>
       </c>
       <c r="L500" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21056,7 +21074,7 @@
         <v>13.25</v>
       </c>
       <c r="L501" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21094,7 +21112,7 @@
         <v>13.25</v>
       </c>
       <c r="L502" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21132,7 +21150,7 @@
         <v>13.25</v>
       </c>
       <c r="L503" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21170,7 +21188,7 @@
         <v>13.25</v>
       </c>
       <c r="L504" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21208,7 +21226,7 @@
         <v>13.25</v>
       </c>
       <c r="L505" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21246,7 +21264,7 @@
         <v>13.25</v>
       </c>
       <c r="L506" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21284,7 +21302,7 @@
         <v>13.25</v>
       </c>
       <c r="L507" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21322,7 +21340,7 @@
         <v>13.25</v>
       </c>
       <c r="L508" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21360,7 +21378,7 @@
         <v>13.25</v>
       </c>
       <c r="L509" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21398,7 +21416,7 @@
         <v>13.25</v>
       </c>
       <c r="L510" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21436,7 +21454,7 @@
         <v>13.25</v>
       </c>
       <c r="L511" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21474,7 +21492,7 @@
         <v>13.25</v>
       </c>
       <c r="L512" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21512,7 +21530,7 @@
         <v>13.25</v>
       </c>
       <c r="L513" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21550,7 +21568,7 @@
         <v>13.25</v>
       </c>
       <c r="L514" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21588,7 +21606,7 @@
         <v>13.25</v>
       </c>
       <c r="L515" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21626,7 +21644,7 @@
         <v>13.25</v>
       </c>
       <c r="L516" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21664,7 +21682,7 @@
         <v>13.25</v>
       </c>
       <c r="L517" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21702,7 +21720,7 @@
         <v>13.25</v>
       </c>
       <c r="L518" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21740,7 +21758,7 @@
         <v>13.25</v>
       </c>
       <c r="L519" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21778,7 +21796,7 @@
         <v>13.25</v>
       </c>
       <c r="L520" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21816,7 +21834,7 @@
         <v>13.25</v>
       </c>
       <c r="L521" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21854,7 +21872,7 @@
         <v>13.25</v>
       </c>
       <c r="L522" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21892,7 +21910,7 @@
         <v>13.25</v>
       </c>
       <c r="L523" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21930,7 +21948,7 @@
         <v>13.25</v>
       </c>
       <c r="L524" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21968,7 +21986,7 @@
         <v>13.25</v>
       </c>
       <c r="L525" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22006,7 +22024,7 @@
         <v>13.25</v>
       </c>
       <c r="L526" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22044,7 +22062,7 @@
         <v>13.25</v>
       </c>
       <c r="L527" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22082,7 +22100,7 @@
         <v>13.25</v>
       </c>
       <c r="L528" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22120,7 +22138,7 @@
         <v>13.25</v>
       </c>
       <c r="L529" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22158,7 +22176,7 @@
         <v>13.25</v>
       </c>
       <c r="L530" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22196,7 +22214,7 @@
         <v>13.25</v>
       </c>
       <c r="L531" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22234,7 +22252,7 @@
         <v>13.25</v>
       </c>
       <c r="L532" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22272,7 +22290,7 @@
         <v>13.25</v>
       </c>
       <c r="L533" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22310,7 +22328,7 @@
         <v>13.25</v>
       </c>
       <c r="L534" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22348,7 +22366,7 @@
         <v>13.25</v>
       </c>
       <c r="L535" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22386,7 +22404,7 @@
         <v>13.25</v>
       </c>
       <c r="L536" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -22424,7 +22442,7 @@
         <v>13.25</v>
       </c>
       <c r="L537" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -22462,7 +22480,235 @@
         <v>13.25</v>
       </c>
       <c r="L538" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
         <v>548</v>
+      </c>
+      <c r="C539">
+        <v>13.08</v>
+      </c>
+      <c r="D539">
+        <v>0.38</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>20.41</v>
+      </c>
+      <c r="G539">
+        <v>98</v>
+      </c>
+      <c r="H539">
+        <v>-45.02</v>
+      </c>
+      <c r="I539">
+        <v>0.1</v>
+      </c>
+      <c r="J539">
+        <v>2.88</v>
+      </c>
+      <c r="K539">
+        <v>13.25</v>
+      </c>
+      <c r="L539" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>549</v>
+      </c>
+      <c r="C540">
+        <v>13.07</v>
+      </c>
+      <c r="D540">
+        <v>0.38</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>20.37</v>
+      </c>
+      <c r="G540">
+        <v>98</v>
+      </c>
+      <c r="H540">
+        <v>-45.1</v>
+      </c>
+      <c r="I540">
+        <v>0.08</v>
+      </c>
+      <c r="J540">
+        <v>0.38</v>
+      </c>
+      <c r="K540">
+        <v>13.25</v>
+      </c>
+      <c r="L540" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>550</v>
+      </c>
+      <c r="C541">
+        <v>13</v>
+      </c>
+      <c r="D541">
+        <v>0.38</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>20.28</v>
+      </c>
+      <c r="G541">
+        <v>98</v>
+      </c>
+      <c r="H541">
+        <v>-45.18</v>
+      </c>
+      <c r="I541">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
+      <c r="K541">
+        <v>13.25</v>
+      </c>
+      <c r="L541" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>551</v>
+      </c>
+      <c r="C542">
+        <v>12.98</v>
+      </c>
+      <c r="D542">
+        <v>0.37</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>20.02</v>
+      </c>
+      <c r="G542">
+        <v>98</v>
+      </c>
+      <c r="H542">
+        <v>-45.4</v>
+      </c>
+      <c r="I542">
+        <v>-0.09</v>
+      </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <v>13.25</v>
+      </c>
+      <c r="L542" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>552</v>
+      </c>
+      <c r="C543">
+        <v>13</v>
+      </c>
+      <c r="D543">
+        <v>0.37</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>19.45</v>
+      </c>
+      <c r="G543">
+        <v>98</v>
+      </c>
+      <c r="H543">
+        <v>-45.83</v>
+      </c>
+      <c r="I543">
+        <v>-0.02</v>
+      </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
+      <c r="K543">
+        <v>13.25</v>
+      </c>
+      <c r="L543" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>553</v>
+      </c>
+      <c r="C544">
+        <v>13.05</v>
+      </c>
+      <c r="D544">
+        <v>0.36</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>18.43</v>
+      </c>
+      <c r="G544">
+        <v>98</v>
+      </c>
+      <c r="H544">
+        <v>-46.65</v>
+      </c>
+      <c r="I544">
+        <v>0.3</v>
+      </c>
+      <c r="J544">
+        <v>0</v>
+      </c>
+      <c r="K544">
+        <v>13.25</v>
+      </c>
+      <c r="L544" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="456">
   <si>
     <t>Fecha</t>
   </si>
@@ -1358,6 +1358,27 @@
   </si>
   <si>
     <t>11/17/2020 12:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:50:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1718,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L438"/>
+  <dimension ref="A1:L445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1794,7 +1815,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1832,7 +1853,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1870,7 +1891,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1908,7 +1929,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1946,7 +1967,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1984,7 +2005,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2022,7 +2043,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2060,7 +2081,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2098,7 +2119,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2136,7 +2157,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2174,7 +2195,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2212,7 +2233,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2250,7 +2271,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2288,7 +2309,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2326,7 +2347,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2364,7 +2385,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2402,7 +2423,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2440,7 +2461,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2478,7 +2499,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2516,7 +2537,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2554,7 +2575,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2592,7 +2613,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2630,7 +2651,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2668,7 +2689,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2706,7 +2727,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2744,7 +2765,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2782,7 +2803,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2820,7 +2841,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2858,7 +2879,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2896,7 +2917,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2934,7 +2955,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2972,7 +2993,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3010,7 +3031,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3048,7 +3069,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3086,7 +3107,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3124,7 +3145,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3162,7 +3183,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3200,7 +3221,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3238,7 +3259,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3276,7 +3297,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3314,7 +3335,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3352,7 +3373,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3390,7 +3411,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3428,7 +3449,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3466,7 +3487,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3504,7 +3525,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3542,7 +3563,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3580,7 +3601,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3618,7 +3639,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3656,7 +3677,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3694,7 +3715,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3732,7 +3753,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3770,7 +3791,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3808,7 +3829,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3846,7 +3867,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3884,7 +3905,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3922,7 +3943,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3960,7 +3981,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3998,7 +4019,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4036,7 +4057,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4074,7 +4095,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4112,7 +4133,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4150,7 +4171,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4188,7 +4209,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4226,7 +4247,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4264,7 +4285,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4302,7 +4323,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4340,7 +4361,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4378,7 +4399,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4416,7 +4437,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4454,7 +4475,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4492,7 +4513,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4530,7 +4551,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4568,7 +4589,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4606,7 +4627,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4644,7 +4665,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4682,7 +4703,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4720,7 +4741,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4758,7 +4779,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4796,7 +4817,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4834,7 +4855,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4872,7 +4893,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4910,7 +4931,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4948,7 +4969,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4986,7 +5007,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5024,7 +5045,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5062,7 +5083,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5100,7 +5121,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5138,7 +5159,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5176,7 +5197,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5214,7 +5235,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5252,7 +5273,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5290,7 +5311,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5328,7 +5349,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5366,7 +5387,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5404,7 +5425,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5442,7 +5463,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5480,7 +5501,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5518,7 +5539,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5556,7 +5577,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5594,7 +5615,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5632,7 +5653,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5670,7 +5691,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5708,7 +5729,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5746,7 +5767,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5784,7 +5805,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5822,7 +5843,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5860,7 +5881,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5898,7 +5919,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5936,7 +5957,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5974,7 +5995,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6012,7 +6033,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6050,7 +6071,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6088,7 +6109,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6126,7 +6147,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6164,7 +6185,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6202,7 +6223,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6240,7 +6261,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6278,7 +6299,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6316,7 +6337,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6354,7 +6375,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6392,7 +6413,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6430,7 +6451,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6468,7 +6489,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6506,7 +6527,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6544,7 +6565,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6582,7 +6603,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6620,7 +6641,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6658,7 +6679,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6696,7 +6717,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6734,7 +6755,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6772,7 +6793,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6810,7 +6831,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6848,7 +6869,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6886,7 +6907,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6924,7 +6945,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6962,7 +6983,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7000,7 +7021,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7038,7 +7059,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7076,7 +7097,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7114,7 +7135,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7152,7 +7173,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7190,7 +7211,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7228,7 +7249,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7266,7 +7287,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7304,7 +7325,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7342,7 +7363,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7380,7 +7401,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7418,7 +7439,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7456,7 +7477,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7494,7 +7515,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7532,7 +7553,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7570,7 +7591,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7608,7 +7629,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7646,7 +7667,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7684,7 +7705,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7722,7 +7743,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7760,7 +7781,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7798,7 +7819,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7836,7 +7857,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7874,7 +7895,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7912,7 +7933,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7950,7 +7971,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7988,7 +8009,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8026,7 +8047,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8064,7 +8085,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8102,7 +8123,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8140,7 +8161,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8178,7 +8199,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8216,7 +8237,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8254,7 +8275,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8292,7 +8313,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8330,7 +8351,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8368,7 +8389,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8406,7 +8427,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8444,7 +8465,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8482,7 +8503,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8520,7 +8541,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8558,7 +8579,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8596,7 +8617,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8634,7 +8655,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8672,7 +8693,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8710,7 +8731,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8748,7 +8769,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8786,7 +8807,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8824,7 +8845,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8862,7 +8883,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8900,7 +8921,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8938,7 +8959,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8976,7 +8997,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9014,7 +9035,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9052,7 +9073,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9090,7 +9111,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9128,7 +9149,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9166,7 +9187,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9204,7 +9225,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9242,7 +9263,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9280,7 +9301,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9318,7 +9339,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9356,7 +9377,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9394,7 +9415,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9432,7 +9453,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9470,7 +9491,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9508,7 +9529,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9546,7 +9567,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9584,7 +9605,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9622,7 +9643,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9660,7 +9681,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9698,7 +9719,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9736,7 +9757,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9774,7 +9795,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9812,7 +9833,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9850,7 +9871,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9888,7 +9909,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9926,7 +9947,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9964,7 +9985,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10002,7 +10023,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10040,7 +10061,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10078,7 +10099,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10116,7 +10137,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10154,7 +10175,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10192,7 +10213,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10230,7 +10251,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10268,7 +10289,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10306,7 +10327,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10344,7 +10365,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10382,7 +10403,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10420,7 +10441,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10458,7 +10479,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10496,7 +10517,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10534,7 +10555,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10572,7 +10593,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10610,7 +10631,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10648,7 +10669,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10686,7 +10707,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10724,7 +10745,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10762,7 +10783,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10800,7 +10821,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10838,7 +10859,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10876,7 +10897,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10914,7 +10935,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10952,7 +10973,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10990,7 +11011,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11028,7 +11049,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11066,7 +11087,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11104,7 +11125,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11142,7 +11163,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11180,7 +11201,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11218,7 +11239,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11256,7 +11277,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11294,7 +11315,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11332,7 +11353,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11370,7 +11391,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11408,7 +11429,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11446,7 +11467,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11484,7 +11505,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11522,7 +11543,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11560,7 +11581,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11598,7 +11619,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11636,7 +11657,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11674,7 +11695,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11712,7 +11733,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11750,7 +11771,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11788,7 +11809,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11826,7 +11847,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11864,7 +11885,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11902,7 +11923,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11940,7 +11961,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11978,7 +11999,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12016,7 +12037,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12054,7 +12075,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12092,7 +12113,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12130,7 +12151,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12168,7 +12189,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12206,7 +12227,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12244,7 +12265,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12282,7 +12303,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12320,7 +12341,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12358,7 +12379,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12396,7 +12417,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12434,7 +12455,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12472,7 +12493,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12510,7 +12531,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12548,7 +12569,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12586,7 +12607,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12624,7 +12645,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12662,7 +12683,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12700,7 +12721,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12738,7 +12759,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12776,7 +12797,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12814,7 +12835,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12852,7 +12873,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12890,7 +12911,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12928,7 +12949,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12966,7 +12987,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13004,7 +13025,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13042,7 +13063,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13080,7 +13101,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13118,7 +13139,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13156,7 +13177,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13194,7 +13215,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13232,7 +13253,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13270,7 +13291,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13308,7 +13329,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13346,7 +13367,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13384,7 +13405,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13422,7 +13443,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13460,7 +13481,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13498,7 +13519,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13536,7 +13557,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13574,7 +13595,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13612,7 +13633,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13650,7 +13671,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13688,7 +13709,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13726,7 +13747,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13764,7 +13785,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13802,7 +13823,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13840,7 +13861,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13878,7 +13899,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13916,7 +13937,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13954,7 +13975,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13992,7 +14013,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14030,7 +14051,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14068,7 +14089,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14106,7 +14127,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14144,7 +14165,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14182,7 +14203,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14220,7 +14241,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14258,7 +14279,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14296,7 +14317,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14334,7 +14355,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14372,7 +14393,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14410,7 +14431,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14448,7 +14469,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14486,7 +14507,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14524,7 +14545,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14562,7 +14583,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14600,7 +14621,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14638,7 +14659,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14676,7 +14697,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14714,7 +14735,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14752,7 +14773,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14790,7 +14811,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14828,7 +14849,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14866,7 +14887,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14904,7 +14925,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14942,7 +14963,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14980,7 +15001,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15018,7 +15039,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15056,7 +15077,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15094,7 +15115,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15132,7 +15153,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15170,7 +15191,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15208,7 +15229,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15246,7 +15267,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15284,7 +15305,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15322,7 +15343,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15360,7 +15381,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15398,7 +15419,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15436,7 +15457,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15474,7 +15495,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15512,7 +15533,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15550,7 +15571,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15588,7 +15609,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15626,7 +15647,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15664,7 +15685,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15702,7 +15723,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15740,7 +15761,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15778,7 +15799,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15816,7 +15837,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15854,7 +15875,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15892,7 +15913,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15930,7 +15951,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15968,7 +15989,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16006,7 +16027,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16044,7 +16065,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16082,7 +16103,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16120,7 +16141,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16158,7 +16179,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16196,7 +16217,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16234,7 +16255,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16272,7 +16293,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16310,7 +16331,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16348,7 +16369,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16386,7 +16407,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16424,7 +16445,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16462,7 +16483,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16500,7 +16521,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16538,7 +16559,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16576,7 +16597,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16614,7 +16635,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16652,7 +16673,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16690,7 +16711,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16728,7 +16749,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16766,7 +16787,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16804,7 +16825,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16842,7 +16863,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16880,7 +16901,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16918,7 +16939,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16956,7 +16977,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16994,7 +17015,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17032,7 +17053,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17070,7 +17091,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17108,7 +17129,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17146,7 +17167,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17184,7 +17205,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17222,7 +17243,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17260,7 +17281,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17298,7 +17319,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17336,7 +17357,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17374,7 +17395,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17412,7 +17433,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17450,7 +17471,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17488,7 +17509,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17526,7 +17547,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17564,7 +17585,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17602,7 +17623,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17640,7 +17661,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17678,7 +17699,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17716,7 +17737,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17754,7 +17775,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17792,7 +17813,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17830,7 +17851,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17868,7 +17889,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17906,7 +17927,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17944,7 +17965,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17982,7 +18003,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18020,7 +18041,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18058,7 +18079,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18096,7 +18117,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18134,7 +18155,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18172,7 +18193,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18210,7 +18231,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18248,7 +18269,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18286,7 +18307,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18324,7 +18345,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18362,7 +18383,273 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
         <v>448</v>
+      </c>
+      <c r="C439">
+        <v>12.97</v>
+      </c>
+      <c r="D439">
+        <v>0.32</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>16.09</v>
+      </c>
+      <c r="G439">
+        <v>98</v>
+      </c>
+      <c r="H439">
+        <v>-48.84</v>
+      </c>
+      <c r="I439">
+        <v>0.03</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>13.25</v>
+      </c>
+      <c r="L439" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>449</v>
+      </c>
+      <c r="C440">
+        <v>12.96</v>
+      </c>
+      <c r="D440">
+        <v>0.32</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>16.04</v>
+      </c>
+      <c r="G440">
+        <v>98</v>
+      </c>
+      <c r="H440">
+        <v>-48.89</v>
+      </c>
+      <c r="I440">
+        <v>0.25</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>13.25</v>
+      </c>
+      <c r="L440" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>450</v>
+      </c>
+      <c r="C441">
+        <v>12.96</v>
+      </c>
+      <c r="D441">
+        <v>0.32</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>15.96</v>
+      </c>
+      <c r="G441">
+        <v>98</v>
+      </c>
+      <c r="H441">
+        <v>-48.94</v>
+      </c>
+      <c r="I441">
+        <v>-0.03</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>13.25</v>
+      </c>
+      <c r="L441" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>451</v>
+      </c>
+      <c r="C442">
+        <v>12.96</v>
+      </c>
+      <c r="D442">
+        <v>0.31</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>15.86</v>
+      </c>
+      <c r="G442">
+        <v>98</v>
+      </c>
+      <c r="H442">
+        <v>-49.03</v>
+      </c>
+      <c r="I442">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>13.25</v>
+      </c>
+      <c r="L442" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>452</v>
+      </c>
+      <c r="C443">
+        <v>12.95</v>
+      </c>
+      <c r="D443">
+        <v>0.31</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>15.93</v>
+      </c>
+      <c r="G443">
+        <v>98</v>
+      </c>
+      <c r="H443">
+        <v>-48.98</v>
+      </c>
+      <c r="I443">
+        <v>-0.01</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>13.25</v>
+      </c>
+      <c r="L443" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>453</v>
+      </c>
+      <c r="C444">
+        <v>12.95</v>
+      </c>
+      <c r="D444">
+        <v>0.31</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>15.85</v>
+      </c>
+      <c r="G444">
+        <v>98</v>
+      </c>
+      <c r="H444">
+        <v>-49.05</v>
+      </c>
+      <c r="I444">
+        <v>-0.04</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>13.25</v>
+      </c>
+      <c r="L444" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>454</v>
+      </c>
+      <c r="C445">
+        <v>12.95</v>
+      </c>
+      <c r="D445">
+        <v>0.31</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>15.71</v>
+      </c>
+      <c r="G445">
+        <v>98</v>
+      </c>
+      <c r="H445">
+        <v>-49.16</v>
+      </c>
+      <c r="I445">
+        <v>-0.04</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>13.25</v>
+      </c>
+      <c r="L445" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="468">
   <si>
     <t>Fecha</t>
   </si>
@@ -1379,6 +1379,42 @@
   </si>
   <si>
     <t>11/17/2020 1:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:50:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1739,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L445"/>
+  <dimension ref="A1:L457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1815,7 +1851,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1853,7 +1889,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1891,7 +1927,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1929,7 +1965,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1967,7 +2003,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2005,7 +2041,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2043,7 +2079,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2081,7 +2117,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2119,7 +2155,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2157,7 +2193,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2195,7 +2231,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2233,7 +2269,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2271,7 +2307,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2309,7 +2345,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2347,7 +2383,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2385,7 +2421,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2423,7 +2459,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2461,7 +2497,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2499,7 +2535,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2537,7 +2573,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2575,7 +2611,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2613,7 +2649,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2651,7 +2687,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2689,7 +2725,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2727,7 +2763,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2765,7 +2801,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2803,7 +2839,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2841,7 +2877,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2879,7 +2915,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2917,7 +2953,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2955,7 +2991,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2993,7 +3029,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3031,7 +3067,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3069,7 +3105,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3107,7 +3143,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3145,7 +3181,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3183,7 +3219,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3221,7 +3257,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3259,7 +3295,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3297,7 +3333,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3335,7 +3371,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3373,7 +3409,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3411,7 +3447,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3449,7 +3485,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3487,7 +3523,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3525,7 +3561,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3563,7 +3599,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3601,7 +3637,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3639,7 +3675,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3677,7 +3713,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3715,7 +3751,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3753,7 +3789,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3791,7 +3827,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3829,7 +3865,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3867,7 +3903,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3905,7 +3941,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3943,7 +3979,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3981,7 +4017,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4019,7 +4055,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4057,7 +4093,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4095,7 +4131,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4133,7 +4169,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4171,7 +4207,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4209,7 +4245,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4247,7 +4283,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4285,7 +4321,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4323,7 +4359,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4361,7 +4397,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4399,7 +4435,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4437,7 +4473,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4475,7 +4511,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4513,7 +4549,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4551,7 +4587,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4589,7 +4625,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4627,7 +4663,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4665,7 +4701,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4703,7 +4739,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4741,7 +4777,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4779,7 +4815,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4817,7 +4853,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4855,7 +4891,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4893,7 +4929,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4931,7 +4967,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4969,7 +5005,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5007,7 +5043,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5045,7 +5081,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5083,7 +5119,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5121,7 +5157,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5159,7 +5195,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5197,7 +5233,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5235,7 +5271,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5273,7 +5309,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5311,7 +5347,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5349,7 +5385,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5387,7 +5423,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5425,7 +5461,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5463,7 +5499,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5501,7 +5537,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5539,7 +5575,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5577,7 +5613,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5615,7 +5651,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5653,7 +5689,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5691,7 +5727,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5729,7 +5765,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5767,7 +5803,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5805,7 +5841,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5843,7 +5879,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5881,7 +5917,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5919,7 +5955,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5957,7 +5993,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5995,7 +6031,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6033,7 +6069,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6071,7 +6107,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6109,7 +6145,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6147,7 +6183,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6185,7 +6221,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6223,7 +6259,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6261,7 +6297,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6299,7 +6335,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6337,7 +6373,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6375,7 +6411,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6413,7 +6449,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6451,7 +6487,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6489,7 +6525,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6527,7 +6563,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6565,7 +6601,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6603,7 +6639,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6641,7 +6677,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6679,7 +6715,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6717,7 +6753,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6755,7 +6791,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6793,7 +6829,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6831,7 +6867,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6869,7 +6905,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6907,7 +6943,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6945,7 +6981,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6983,7 +7019,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7021,7 +7057,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7059,7 +7095,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7097,7 +7133,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7135,7 +7171,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7173,7 +7209,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7211,7 +7247,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7249,7 +7285,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7287,7 +7323,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7325,7 +7361,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7363,7 +7399,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7401,7 +7437,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7439,7 +7475,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7477,7 +7513,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7515,7 +7551,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7553,7 +7589,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7591,7 +7627,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7629,7 +7665,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7667,7 +7703,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7705,7 +7741,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7743,7 +7779,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7781,7 +7817,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7819,7 +7855,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7857,7 +7893,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7895,7 +7931,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7933,7 +7969,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7971,7 +8007,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8009,7 +8045,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8047,7 +8083,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8085,7 +8121,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8123,7 +8159,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8161,7 +8197,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8199,7 +8235,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8237,7 +8273,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8275,7 +8311,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8313,7 +8349,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8351,7 +8387,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8389,7 +8425,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8427,7 +8463,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8465,7 +8501,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8503,7 +8539,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8541,7 +8577,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8579,7 +8615,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8617,7 +8653,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8655,7 +8691,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8693,7 +8729,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8731,7 +8767,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8769,7 +8805,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8807,7 +8843,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8845,7 +8881,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8883,7 +8919,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8921,7 +8957,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8959,7 +8995,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8997,7 +9033,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9035,7 +9071,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9073,7 +9109,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9111,7 +9147,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9149,7 +9185,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9187,7 +9223,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9225,7 +9261,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9263,7 +9299,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9301,7 +9337,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9339,7 +9375,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9377,7 +9413,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9415,7 +9451,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9453,7 +9489,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9491,7 +9527,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9529,7 +9565,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9567,7 +9603,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9605,7 +9641,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9643,7 +9679,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9681,7 +9717,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9719,7 +9755,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9757,7 +9793,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9795,7 +9831,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9833,7 +9869,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9871,7 +9907,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9909,7 +9945,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9947,7 +9983,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9985,7 +10021,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10023,7 +10059,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10061,7 +10097,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10099,7 +10135,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10137,7 +10173,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10175,7 +10211,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10213,7 +10249,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10251,7 +10287,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10289,7 +10325,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10327,7 +10363,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10365,7 +10401,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10403,7 +10439,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10441,7 +10477,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10479,7 +10515,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10517,7 +10553,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10555,7 +10591,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10593,7 +10629,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10631,7 +10667,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10669,7 +10705,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10707,7 +10743,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10745,7 +10781,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10783,7 +10819,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10821,7 +10857,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10859,7 +10895,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10897,7 +10933,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10935,7 +10971,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10973,7 +11009,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11011,7 +11047,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11049,7 +11085,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11087,7 +11123,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11125,7 +11161,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11163,7 +11199,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11201,7 +11237,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11239,7 +11275,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11277,7 +11313,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11315,7 +11351,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11353,7 +11389,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11391,7 +11427,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11429,7 +11465,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11467,7 +11503,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11505,7 +11541,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11543,7 +11579,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11581,7 +11617,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11619,7 +11655,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11657,7 +11693,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11695,7 +11731,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11733,7 +11769,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11771,7 +11807,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11809,7 +11845,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11847,7 +11883,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11885,7 +11921,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11923,7 +11959,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11961,7 +11997,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11999,7 +12035,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12037,7 +12073,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12075,7 +12111,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12113,7 +12149,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12151,7 +12187,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12189,7 +12225,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12227,7 +12263,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12265,7 +12301,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12303,7 +12339,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12341,7 +12377,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12379,7 +12415,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12417,7 +12453,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12455,7 +12491,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12493,7 +12529,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12531,7 +12567,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12569,7 +12605,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12607,7 +12643,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12645,7 +12681,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12683,7 +12719,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12721,7 +12757,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12759,7 +12795,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12797,7 +12833,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12835,7 +12871,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12873,7 +12909,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12911,7 +12947,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12949,7 +12985,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12987,7 +13023,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13025,7 +13061,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13063,7 +13099,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13101,7 +13137,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13139,7 +13175,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13177,7 +13213,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13215,7 +13251,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13253,7 +13289,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13291,7 +13327,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13329,7 +13365,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13367,7 +13403,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13405,7 +13441,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13443,7 +13479,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13481,7 +13517,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13519,7 +13555,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13557,7 +13593,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13595,7 +13631,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13633,7 +13669,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13671,7 +13707,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13709,7 +13745,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13747,7 +13783,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13785,7 +13821,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13823,7 +13859,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13861,7 +13897,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13899,7 +13935,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13937,7 +13973,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13975,7 +14011,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14013,7 +14049,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14051,7 +14087,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14089,7 +14125,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14127,7 +14163,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14165,7 +14201,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14203,7 +14239,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14241,7 +14277,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14279,7 +14315,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14317,7 +14353,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14355,7 +14391,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14393,7 +14429,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14431,7 +14467,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14469,7 +14505,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14507,7 +14543,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14545,7 +14581,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14583,7 +14619,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14621,7 +14657,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14659,7 +14695,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14697,7 +14733,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14735,7 +14771,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14773,7 +14809,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14811,7 +14847,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14849,7 +14885,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14887,7 +14923,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14925,7 +14961,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14963,7 +14999,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15001,7 +15037,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15039,7 +15075,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15077,7 +15113,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15115,7 +15151,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15153,7 +15189,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15191,7 +15227,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15229,7 +15265,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15267,7 +15303,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15305,7 +15341,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15343,7 +15379,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15381,7 +15417,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15419,7 +15455,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15457,7 +15493,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15495,7 +15531,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15533,7 +15569,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15571,7 +15607,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15609,7 +15645,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15647,7 +15683,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15685,7 +15721,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15723,7 +15759,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15761,7 +15797,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15799,7 +15835,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15837,7 +15873,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15875,7 +15911,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15913,7 +15949,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15951,7 +15987,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15989,7 +16025,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16027,7 +16063,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16065,7 +16101,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16103,7 +16139,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16141,7 +16177,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16179,7 +16215,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16217,7 +16253,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16255,7 +16291,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16293,7 +16329,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16331,7 +16367,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16369,7 +16405,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16407,7 +16443,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16445,7 +16481,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16483,7 +16519,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16521,7 +16557,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16559,7 +16595,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16597,7 +16633,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16635,7 +16671,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16673,7 +16709,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16711,7 +16747,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16749,7 +16785,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16787,7 +16823,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16825,7 +16861,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16863,7 +16899,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16901,7 +16937,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16939,7 +16975,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16977,7 +17013,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17015,7 +17051,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17053,7 +17089,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17091,7 +17127,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17129,7 +17165,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17167,7 +17203,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17205,7 +17241,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17243,7 +17279,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17281,7 +17317,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17319,7 +17355,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17357,7 +17393,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17395,7 +17431,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17433,7 +17469,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17471,7 +17507,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17509,7 +17545,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17547,7 +17583,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17585,7 +17621,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17623,7 +17659,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17661,7 +17697,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17699,7 +17735,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17737,7 +17773,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17775,7 +17811,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17813,7 +17849,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17851,7 +17887,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17889,7 +17925,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17927,7 +17963,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17965,7 +18001,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18003,7 +18039,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18041,7 +18077,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18079,7 +18115,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18117,7 +18153,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18155,7 +18191,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18193,7 +18229,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18231,7 +18267,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18269,7 +18305,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18307,7 +18343,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18345,7 +18381,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18383,7 +18419,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18421,7 +18457,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18459,7 +18495,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18497,7 +18533,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18535,7 +18571,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18573,7 +18609,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18611,7 +18647,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18649,7 +18685,463 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
         <v>455</v>
+      </c>
+      <c r="C446">
+        <v>12.94</v>
+      </c>
+      <c r="D446">
+        <v>0.31</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>15.66</v>
+      </c>
+      <c r="G446">
+        <v>98</v>
+      </c>
+      <c r="H446">
+        <v>-49.21</v>
+      </c>
+      <c r="I446">
+        <v>0.01</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>13.25</v>
+      </c>
+      <c r="L446" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>456</v>
+      </c>
+      <c r="C447">
+        <v>12.94</v>
+      </c>
+      <c r="D447">
+        <v>0.31</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>15.81</v>
+      </c>
+      <c r="G447">
+        <v>98</v>
+      </c>
+      <c r="H447">
+        <v>-49.1</v>
+      </c>
+      <c r="I447">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>13.25</v>
+      </c>
+      <c r="L447" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>457</v>
+      </c>
+      <c r="C448">
+        <v>12.88</v>
+      </c>
+      <c r="D448">
+        <v>0.31</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>15.86</v>
+      </c>
+      <c r="G448">
+        <v>98</v>
+      </c>
+      <c r="H448">
+        <v>-49.04</v>
+      </c>
+      <c r="I448">
+        <v>0.15</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>13.25</v>
+      </c>
+      <c r="L448" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>458</v>
+      </c>
+      <c r="C449">
+        <v>12.88</v>
+      </c>
+      <c r="D449">
+        <v>0.31</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>15.85</v>
+      </c>
+      <c r="G449">
+        <v>98</v>
+      </c>
+      <c r="H449">
+        <v>-49.04</v>
+      </c>
+      <c r="I449">
+        <v>0.14</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>13.25</v>
+      </c>
+      <c r="L449" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+      <c r="C450">
+        <v>12.88</v>
+      </c>
+      <c r="D450">
+        <v>0.32</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>16.04</v>
+      </c>
+      <c r="G450">
+        <v>98</v>
+      </c>
+      <c r="H450">
+        <v>-48.88</v>
+      </c>
+      <c r="I450">
+        <v>0.1</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>13.25</v>
+      </c>
+      <c r="L450" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>460</v>
+      </c>
+      <c r="C451">
+        <v>12.92</v>
+      </c>
+      <c r="D451">
+        <v>0.32</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>16.16</v>
+      </c>
+      <c r="G451">
+        <v>98</v>
+      </c>
+      <c r="H451">
+        <v>-48.81</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>13.25</v>
+      </c>
+      <c r="L451" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>461</v>
+      </c>
+      <c r="C452">
+        <v>12.92</v>
+      </c>
+      <c r="D452">
+        <v>0.32</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>16.1</v>
+      </c>
+      <c r="G452">
+        <v>98</v>
+      </c>
+      <c r="H452">
+        <v>-48.85</v>
+      </c>
+      <c r="I452">
+        <v>0.23</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>13.25</v>
+      </c>
+      <c r="L452" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>462</v>
+      </c>
+      <c r="C453">
+        <v>12.92</v>
+      </c>
+      <c r="D453">
+        <v>0.32</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>16.12</v>
+      </c>
+      <c r="G453">
+        <v>98</v>
+      </c>
+      <c r="H453">
+        <v>-48.83</v>
+      </c>
+      <c r="I453">
+        <v>0.09</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>13.25</v>
+      </c>
+      <c r="L453" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>463</v>
+      </c>
+      <c r="C454">
+        <v>12.92</v>
+      </c>
+      <c r="D454">
+        <v>0.32</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>16.1</v>
+      </c>
+      <c r="G454">
+        <v>98</v>
+      </c>
+      <c r="H454">
+        <v>-48.84</v>
+      </c>
+      <c r="I454">
+        <v>-0.12</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>13.25</v>
+      </c>
+      <c r="L454" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>464</v>
+      </c>
+      <c r="C455">
+        <v>12.91</v>
+      </c>
+      <c r="D455">
+        <v>0.32</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>16.13</v>
+      </c>
+      <c r="G455">
+        <v>98</v>
+      </c>
+      <c r="H455">
+        <v>-48.83</v>
+      </c>
+      <c r="I455">
+        <v>-0.22</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>13.25</v>
+      </c>
+      <c r="L455" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>465</v>
+      </c>
+      <c r="C456">
+        <v>12.91</v>
+      </c>
+      <c r="D456">
+        <v>0.32</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>16.12</v>
+      </c>
+      <c r="G456">
+        <v>98</v>
+      </c>
+      <c r="H456">
+        <v>-48.82</v>
+      </c>
+      <c r="I456">
+        <v>0.17</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>13.25</v>
+      </c>
+      <c r="L456" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>466</v>
+      </c>
+      <c r="C457">
+        <v>12.88</v>
+      </c>
+      <c r="D457">
+        <v>0.32</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>15.94</v>
+      </c>
+      <c r="G457">
+        <v>98</v>
+      </c>
+      <c r="H457">
+        <v>-48.94</v>
+      </c>
+      <c r="I457">
+        <v>0.16</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>13.25</v>
+      </c>
+      <c r="L457" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="477">
   <si>
     <t>Fecha</t>
   </si>
@@ -1415,6 +1415,33 @@
   </si>
   <si>
     <t>11/17/2020 3:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:20:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1775,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L457"/>
+  <dimension ref="A1:L466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,7 +1878,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1889,7 +1916,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1927,7 +1954,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1965,7 +1992,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2003,7 +2030,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2041,7 +2068,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2079,7 +2106,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2117,7 +2144,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2155,7 +2182,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2193,7 +2220,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2231,7 +2258,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2269,7 +2296,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2307,7 +2334,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2345,7 +2372,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2383,7 +2410,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2421,7 +2448,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2459,7 +2486,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2497,7 +2524,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2535,7 +2562,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2573,7 +2600,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2611,7 +2638,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2649,7 +2676,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2687,7 +2714,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2725,7 +2752,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2763,7 +2790,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2801,7 +2828,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2839,7 +2866,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2877,7 +2904,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2915,7 +2942,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2953,7 +2980,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2991,7 +3018,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3029,7 +3056,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3067,7 +3094,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3105,7 +3132,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3143,7 +3170,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3181,7 +3208,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3219,7 +3246,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3257,7 +3284,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3295,7 +3322,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3333,7 +3360,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3371,7 +3398,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3409,7 +3436,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3447,7 +3474,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3485,7 +3512,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3523,7 +3550,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3561,7 +3588,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3599,7 +3626,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3637,7 +3664,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3675,7 +3702,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3713,7 +3740,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3751,7 +3778,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3789,7 +3816,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3827,7 +3854,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3865,7 +3892,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3903,7 +3930,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3941,7 +3968,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3979,7 +4006,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4017,7 +4044,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4055,7 +4082,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4093,7 +4120,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4131,7 +4158,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4169,7 +4196,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4207,7 +4234,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4245,7 +4272,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4283,7 +4310,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4321,7 +4348,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4359,7 +4386,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4397,7 +4424,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4435,7 +4462,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4473,7 +4500,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4511,7 +4538,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4549,7 +4576,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4587,7 +4614,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4625,7 +4652,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4663,7 +4690,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4701,7 +4728,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4739,7 +4766,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4777,7 +4804,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4815,7 +4842,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4853,7 +4880,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4891,7 +4918,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4929,7 +4956,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4967,7 +4994,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5005,7 +5032,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5043,7 +5070,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5081,7 +5108,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5119,7 +5146,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5157,7 +5184,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5195,7 +5222,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5233,7 +5260,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5271,7 +5298,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5309,7 +5336,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5347,7 +5374,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5385,7 +5412,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5423,7 +5450,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5461,7 +5488,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5499,7 +5526,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5537,7 +5564,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5575,7 +5602,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5613,7 +5640,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5651,7 +5678,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5689,7 +5716,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5727,7 +5754,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5765,7 +5792,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5803,7 +5830,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5841,7 +5868,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5879,7 +5906,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5917,7 +5944,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5955,7 +5982,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5993,7 +6020,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6031,7 +6058,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6069,7 +6096,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6107,7 +6134,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6145,7 +6172,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6183,7 +6210,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6221,7 +6248,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6259,7 +6286,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6297,7 +6324,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6335,7 +6362,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6373,7 +6400,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6411,7 +6438,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6449,7 +6476,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6487,7 +6514,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6525,7 +6552,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6563,7 +6590,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6601,7 +6628,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6639,7 +6666,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6677,7 +6704,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6715,7 +6742,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6753,7 +6780,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6791,7 +6818,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6829,7 +6856,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6867,7 +6894,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6905,7 +6932,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6943,7 +6970,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6981,7 +7008,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7019,7 +7046,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7057,7 +7084,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7095,7 +7122,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7133,7 +7160,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7171,7 +7198,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7209,7 +7236,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7247,7 +7274,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7285,7 +7312,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7323,7 +7350,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7361,7 +7388,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7399,7 +7426,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7437,7 +7464,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7475,7 +7502,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7513,7 +7540,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7551,7 +7578,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7589,7 +7616,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7627,7 +7654,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7665,7 +7692,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7703,7 +7730,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7741,7 +7768,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7779,7 +7806,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7817,7 +7844,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7855,7 +7882,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7893,7 +7920,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7931,7 +7958,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7969,7 +7996,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8007,7 +8034,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8045,7 +8072,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8083,7 +8110,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8121,7 +8148,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8159,7 +8186,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8197,7 +8224,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8235,7 +8262,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8273,7 +8300,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8311,7 +8338,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8349,7 +8376,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8387,7 +8414,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8425,7 +8452,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8463,7 +8490,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8501,7 +8528,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8539,7 +8566,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8577,7 +8604,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8615,7 +8642,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8653,7 +8680,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8691,7 +8718,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8729,7 +8756,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8767,7 +8794,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8805,7 +8832,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8843,7 +8870,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8881,7 +8908,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8919,7 +8946,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8957,7 +8984,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8995,7 +9022,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9033,7 +9060,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9071,7 +9098,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9109,7 +9136,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9147,7 +9174,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9185,7 +9212,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9223,7 +9250,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9261,7 +9288,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9299,7 +9326,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9337,7 +9364,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9375,7 +9402,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9413,7 +9440,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9451,7 +9478,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9489,7 +9516,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9527,7 +9554,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9565,7 +9592,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9603,7 +9630,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9641,7 +9668,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9679,7 +9706,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9717,7 +9744,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9755,7 +9782,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9793,7 +9820,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9831,7 +9858,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9869,7 +9896,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9907,7 +9934,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9945,7 +9972,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9983,7 +10010,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10021,7 +10048,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10059,7 +10086,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10097,7 +10124,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10135,7 +10162,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10173,7 +10200,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10211,7 +10238,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10249,7 +10276,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10287,7 +10314,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10325,7 +10352,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10363,7 +10390,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10401,7 +10428,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10439,7 +10466,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10477,7 +10504,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10515,7 +10542,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10553,7 +10580,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10591,7 +10618,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10629,7 +10656,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10667,7 +10694,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10705,7 +10732,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10743,7 +10770,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10781,7 +10808,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10819,7 +10846,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10857,7 +10884,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10895,7 +10922,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10933,7 +10960,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10971,7 +10998,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11009,7 +11036,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11047,7 +11074,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11085,7 +11112,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11123,7 +11150,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11161,7 +11188,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11199,7 +11226,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11237,7 +11264,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11275,7 +11302,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11313,7 +11340,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11351,7 +11378,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11389,7 +11416,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11427,7 +11454,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11465,7 +11492,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11503,7 +11530,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11541,7 +11568,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11579,7 +11606,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11617,7 +11644,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11655,7 +11682,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11693,7 +11720,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11731,7 +11758,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11769,7 +11796,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11807,7 +11834,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11845,7 +11872,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11883,7 +11910,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11921,7 +11948,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11959,7 +11986,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11997,7 +12024,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12035,7 +12062,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12073,7 +12100,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12111,7 +12138,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12149,7 +12176,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12187,7 +12214,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12225,7 +12252,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12263,7 +12290,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12301,7 +12328,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12339,7 +12366,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12377,7 +12404,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12415,7 +12442,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12453,7 +12480,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12491,7 +12518,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12529,7 +12556,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12567,7 +12594,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12605,7 +12632,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12643,7 +12670,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12681,7 +12708,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12719,7 +12746,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12757,7 +12784,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12795,7 +12822,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12833,7 +12860,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12871,7 +12898,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12909,7 +12936,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12947,7 +12974,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12985,7 +13012,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13023,7 +13050,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13061,7 +13088,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13099,7 +13126,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13137,7 +13164,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13175,7 +13202,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13213,7 +13240,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13251,7 +13278,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13289,7 +13316,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13327,7 +13354,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13365,7 +13392,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13403,7 +13430,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13441,7 +13468,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13479,7 +13506,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13517,7 +13544,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13555,7 +13582,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13593,7 +13620,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13631,7 +13658,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13669,7 +13696,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13707,7 +13734,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13745,7 +13772,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13783,7 +13810,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13821,7 +13848,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13859,7 +13886,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13897,7 +13924,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13935,7 +13962,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13973,7 +14000,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14011,7 +14038,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14049,7 +14076,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14087,7 +14114,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14125,7 +14152,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14163,7 +14190,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14201,7 +14228,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14239,7 +14266,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14277,7 +14304,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14315,7 +14342,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14353,7 +14380,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14391,7 +14418,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14429,7 +14456,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14467,7 +14494,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14505,7 +14532,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14543,7 +14570,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14581,7 +14608,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14619,7 +14646,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14657,7 +14684,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14695,7 +14722,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14733,7 +14760,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14771,7 +14798,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14809,7 +14836,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14847,7 +14874,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14885,7 +14912,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14923,7 +14950,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14961,7 +14988,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14999,7 +15026,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15037,7 +15064,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15075,7 +15102,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15113,7 +15140,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15151,7 +15178,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15189,7 +15216,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15227,7 +15254,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15265,7 +15292,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15303,7 +15330,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15341,7 +15368,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15379,7 +15406,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15417,7 +15444,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15455,7 +15482,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15493,7 +15520,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15531,7 +15558,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15569,7 +15596,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15607,7 +15634,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15645,7 +15672,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15683,7 +15710,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15721,7 +15748,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15759,7 +15786,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15797,7 +15824,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15835,7 +15862,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15873,7 +15900,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15911,7 +15938,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15949,7 +15976,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15987,7 +16014,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16025,7 +16052,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16063,7 +16090,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16101,7 +16128,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16139,7 +16166,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16177,7 +16204,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16215,7 +16242,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16253,7 +16280,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16291,7 +16318,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16329,7 +16356,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16367,7 +16394,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16405,7 +16432,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16443,7 +16470,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16481,7 +16508,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16519,7 +16546,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16557,7 +16584,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16595,7 +16622,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16633,7 +16660,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16671,7 +16698,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16709,7 +16736,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16747,7 +16774,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16785,7 +16812,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16823,7 +16850,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16861,7 +16888,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16899,7 +16926,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16937,7 +16964,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16975,7 +17002,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17013,7 +17040,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17051,7 +17078,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17089,7 +17116,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17127,7 +17154,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17165,7 +17192,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17203,7 +17230,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17241,7 +17268,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17279,7 +17306,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17317,7 +17344,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17355,7 +17382,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17393,7 +17420,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17431,7 +17458,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17469,7 +17496,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17507,7 +17534,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17545,7 +17572,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17583,7 +17610,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17621,7 +17648,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17659,7 +17686,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17697,7 +17724,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17735,7 +17762,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17773,7 +17800,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17811,7 +17838,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17849,7 +17876,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17887,7 +17914,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17925,7 +17952,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17963,7 +17990,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18001,7 +18028,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18039,7 +18066,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18077,7 +18104,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18115,7 +18142,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18153,7 +18180,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18191,7 +18218,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18229,7 +18256,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18267,7 +18294,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18305,7 +18332,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18343,7 +18370,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18381,7 +18408,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18419,7 +18446,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18457,7 +18484,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18495,7 +18522,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18533,7 +18560,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18571,7 +18598,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18609,7 +18636,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18647,7 +18674,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18685,7 +18712,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18723,7 +18750,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18761,7 +18788,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18799,7 +18826,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18837,7 +18864,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18875,7 +18902,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18913,7 +18940,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18951,7 +18978,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -18989,7 +19016,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19027,7 +19054,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19065,7 +19092,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19103,7 +19130,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19141,7 +19168,349 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
         <v>467</v>
+      </c>
+      <c r="C458">
+        <v>12.9</v>
+      </c>
+      <c r="D458">
+        <v>0.31</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>15.97</v>
+      </c>
+      <c r="G458">
+        <v>98</v>
+      </c>
+      <c r="H458">
+        <v>-48.96</v>
+      </c>
+      <c r="I458">
+        <v>0.03</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>13.25</v>
+      </c>
+      <c r="L458" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>468</v>
+      </c>
+      <c r="C459">
+        <v>12.9</v>
+      </c>
+      <c r="D459">
+        <v>0.31</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>15.96</v>
+      </c>
+      <c r="G459">
+        <v>98</v>
+      </c>
+      <c r="H459">
+        <v>-48.96</v>
+      </c>
+      <c r="I459">
+        <v>0.13</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>13.25</v>
+      </c>
+      <c r="L459" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460">
+        <v>12.84</v>
+      </c>
+      <c r="D460">
+        <v>0.32</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>15.92</v>
+      </c>
+      <c r="G460">
+        <v>98</v>
+      </c>
+      <c r="H460">
+        <v>-48.96</v>
+      </c>
+      <c r="I460">
+        <v>-0.16</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>13.25</v>
+      </c>
+      <c r="L460" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>470</v>
+      </c>
+      <c r="C461">
+        <v>12.88</v>
+      </c>
+      <c r="D461">
+        <v>0.31</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>15.94</v>
+      </c>
+      <c r="G461">
+        <v>98</v>
+      </c>
+      <c r="H461">
+        <v>-48.98</v>
+      </c>
+      <c r="I461">
+        <v>-0.4</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>13.25</v>
+      </c>
+      <c r="L461" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>471</v>
+      </c>
+      <c r="C462">
+        <v>12.88</v>
+      </c>
+      <c r="D462">
+        <v>0.31</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>15.93</v>
+      </c>
+      <c r="G462">
+        <v>98</v>
+      </c>
+      <c r="H462">
+        <v>-49</v>
+      </c>
+      <c r="I462">
+        <v>0.05</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>13.25</v>
+      </c>
+      <c r="L462" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>472</v>
+      </c>
+      <c r="C463">
+        <v>12.82</v>
+      </c>
+      <c r="D463">
+        <v>0.32</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>15.85</v>
+      </c>
+      <c r="G463">
+        <v>98</v>
+      </c>
+      <c r="H463">
+        <v>-49.01</v>
+      </c>
+      <c r="I463">
+        <v>0.18</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>13.25</v>
+      </c>
+      <c r="L463" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>473</v>
+      </c>
+      <c r="C464">
+        <v>12.86</v>
+      </c>
+      <c r="D464">
+        <v>0.31</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>15.79</v>
+      </c>
+      <c r="G464">
+        <v>98</v>
+      </c>
+      <c r="H464">
+        <v>-49.1</v>
+      </c>
+      <c r="I464">
+        <v>0.12</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>13.25</v>
+      </c>
+      <c r="L464" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>474</v>
+      </c>
+      <c r="C465">
+        <v>12.87</v>
+      </c>
+      <c r="D465">
+        <v>0.31</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>15.89</v>
+      </c>
+      <c r="G465">
+        <v>98</v>
+      </c>
+      <c r="H465">
+        <v>-49.03</v>
+      </c>
+      <c r="I465">
+        <v>0.04</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>13.25</v>
+      </c>
+      <c r="L465" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>475</v>
+      </c>
+      <c r="C466">
+        <v>12.83</v>
+      </c>
+      <c r="D466">
+        <v>0.31</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>15.83</v>
+      </c>
+      <c r="G466">
+        <v>98</v>
+      </c>
+      <c r="H466">
+        <v>-49.05</v>
+      </c>
+      <c r="I466">
+        <v>-0.05</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>13.25</v>
+      </c>
+      <c r="L466" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="486">
   <si>
     <t>Fecha</t>
   </si>
@@ -1442,6 +1442,33 @@
   </si>
   <si>
     <t>11/17/2020 5:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:50:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1802,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L466"/>
+  <dimension ref="A1:L475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1878,7 +1905,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1916,7 +1943,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1954,7 +1981,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1992,7 +2019,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2030,7 +2057,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2068,7 +2095,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2106,7 +2133,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2144,7 +2171,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2182,7 +2209,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2220,7 +2247,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2258,7 +2285,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2296,7 +2323,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2334,7 +2361,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2372,7 +2399,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2410,7 +2437,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2448,7 +2475,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2486,7 +2513,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2524,7 +2551,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2562,7 +2589,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2600,7 +2627,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2638,7 +2665,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2676,7 +2703,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2714,7 +2741,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2752,7 +2779,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2790,7 +2817,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2828,7 +2855,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2866,7 +2893,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2904,7 +2931,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2942,7 +2969,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2980,7 +3007,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3018,7 +3045,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3056,7 +3083,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3094,7 +3121,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3132,7 +3159,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3170,7 +3197,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3208,7 +3235,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3246,7 +3273,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3284,7 +3311,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3322,7 +3349,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3360,7 +3387,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3398,7 +3425,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3436,7 +3463,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3474,7 +3501,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3512,7 +3539,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3550,7 +3577,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3588,7 +3615,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3626,7 +3653,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3664,7 +3691,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3702,7 +3729,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3740,7 +3767,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3778,7 +3805,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3816,7 +3843,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3854,7 +3881,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3892,7 +3919,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3930,7 +3957,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3968,7 +3995,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4006,7 +4033,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4044,7 +4071,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4082,7 +4109,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4120,7 +4147,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4158,7 +4185,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4196,7 +4223,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4234,7 +4261,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4272,7 +4299,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4310,7 +4337,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4348,7 +4375,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4386,7 +4413,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4424,7 +4451,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4462,7 +4489,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4500,7 +4527,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4538,7 +4565,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4576,7 +4603,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4614,7 +4641,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4652,7 +4679,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4690,7 +4717,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4728,7 +4755,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4766,7 +4793,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4804,7 +4831,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4842,7 +4869,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4880,7 +4907,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4918,7 +4945,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4956,7 +4983,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4994,7 +5021,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5032,7 +5059,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5070,7 +5097,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5108,7 +5135,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5146,7 +5173,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5184,7 +5211,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5222,7 +5249,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5260,7 +5287,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5298,7 +5325,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5336,7 +5363,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5374,7 +5401,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5412,7 +5439,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5450,7 +5477,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5488,7 +5515,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5526,7 +5553,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5564,7 +5591,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5602,7 +5629,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5640,7 +5667,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5678,7 +5705,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5716,7 +5743,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5754,7 +5781,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5792,7 +5819,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5830,7 +5857,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5868,7 +5895,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5906,7 +5933,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5944,7 +5971,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5982,7 +6009,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6020,7 +6047,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6058,7 +6085,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6096,7 +6123,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6134,7 +6161,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6172,7 +6199,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6210,7 +6237,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6248,7 +6275,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6286,7 +6313,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6324,7 +6351,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6362,7 +6389,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6400,7 +6427,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6438,7 +6465,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6476,7 +6503,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6514,7 +6541,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6552,7 +6579,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6590,7 +6617,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6628,7 +6655,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6666,7 +6693,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6704,7 +6731,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6742,7 +6769,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6780,7 +6807,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6818,7 +6845,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6856,7 +6883,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6894,7 +6921,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6932,7 +6959,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6970,7 +6997,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7008,7 +7035,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7046,7 +7073,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7084,7 +7111,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7122,7 +7149,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7160,7 +7187,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7198,7 +7225,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7236,7 +7263,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7274,7 +7301,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7312,7 +7339,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7350,7 +7377,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7388,7 +7415,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7426,7 +7453,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7464,7 +7491,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7502,7 +7529,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7540,7 +7567,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7578,7 +7605,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7616,7 +7643,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7654,7 +7681,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7692,7 +7719,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7730,7 +7757,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7768,7 +7795,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7806,7 +7833,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7844,7 +7871,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7882,7 +7909,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7920,7 +7947,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7958,7 +7985,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7996,7 +8023,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8034,7 +8061,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8072,7 +8099,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8110,7 +8137,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8148,7 +8175,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8186,7 +8213,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8224,7 +8251,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8262,7 +8289,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8300,7 +8327,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8338,7 +8365,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8376,7 +8403,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8414,7 +8441,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8452,7 +8479,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8490,7 +8517,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8528,7 +8555,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8566,7 +8593,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8604,7 +8631,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8642,7 +8669,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8680,7 +8707,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8718,7 +8745,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8756,7 +8783,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8794,7 +8821,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8832,7 +8859,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8870,7 +8897,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8908,7 +8935,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8946,7 +8973,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8984,7 +9011,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9022,7 +9049,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9060,7 +9087,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9098,7 +9125,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9136,7 +9163,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9174,7 +9201,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9212,7 +9239,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9250,7 +9277,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9288,7 +9315,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9326,7 +9353,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9364,7 +9391,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9402,7 +9429,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9440,7 +9467,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9478,7 +9505,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9516,7 +9543,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9554,7 +9581,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9592,7 +9619,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9630,7 +9657,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9668,7 +9695,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9706,7 +9733,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9744,7 +9771,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9782,7 +9809,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9820,7 +9847,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9858,7 +9885,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9896,7 +9923,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9934,7 +9961,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9972,7 +9999,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10010,7 +10037,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10048,7 +10075,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10086,7 +10113,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10124,7 +10151,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10162,7 +10189,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10200,7 +10227,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10238,7 +10265,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10276,7 +10303,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10314,7 +10341,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10352,7 +10379,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10390,7 +10417,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10428,7 +10455,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10466,7 +10493,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10504,7 +10531,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10542,7 +10569,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10580,7 +10607,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10618,7 +10645,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10656,7 +10683,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10694,7 +10721,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10732,7 +10759,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10770,7 +10797,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10808,7 +10835,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10846,7 +10873,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10884,7 +10911,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10922,7 +10949,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10960,7 +10987,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10998,7 +11025,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11036,7 +11063,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11074,7 +11101,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11112,7 +11139,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11150,7 +11177,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11188,7 +11215,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11226,7 +11253,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11264,7 +11291,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11302,7 +11329,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11340,7 +11367,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11378,7 +11405,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11416,7 +11443,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11454,7 +11481,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11492,7 +11519,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11530,7 +11557,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11568,7 +11595,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11606,7 +11633,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11644,7 +11671,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11682,7 +11709,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11720,7 +11747,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11758,7 +11785,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11796,7 +11823,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11834,7 +11861,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11872,7 +11899,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11910,7 +11937,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11948,7 +11975,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11986,7 +12013,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12024,7 +12051,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12062,7 +12089,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12100,7 +12127,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12138,7 +12165,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12176,7 +12203,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12214,7 +12241,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12252,7 +12279,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12290,7 +12317,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12328,7 +12355,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12366,7 +12393,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12404,7 +12431,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12442,7 +12469,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12480,7 +12507,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12518,7 +12545,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12556,7 +12583,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12594,7 +12621,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12632,7 +12659,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12670,7 +12697,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12708,7 +12735,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12746,7 +12773,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12784,7 +12811,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12822,7 +12849,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12860,7 +12887,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12898,7 +12925,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12936,7 +12963,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12974,7 +13001,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13012,7 +13039,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13050,7 +13077,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13088,7 +13115,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13126,7 +13153,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13164,7 +13191,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13202,7 +13229,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13240,7 +13267,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13278,7 +13305,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13316,7 +13343,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13354,7 +13381,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13392,7 +13419,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13430,7 +13457,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13468,7 +13495,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13506,7 +13533,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13544,7 +13571,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13582,7 +13609,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13620,7 +13647,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13658,7 +13685,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13696,7 +13723,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13734,7 +13761,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13772,7 +13799,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13810,7 +13837,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13848,7 +13875,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13886,7 +13913,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13924,7 +13951,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13962,7 +13989,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14000,7 +14027,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14038,7 +14065,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14076,7 +14103,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14114,7 +14141,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14152,7 +14179,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14190,7 +14217,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14228,7 +14255,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14266,7 +14293,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14304,7 +14331,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14342,7 +14369,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14380,7 +14407,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14418,7 +14445,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14456,7 +14483,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14494,7 +14521,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14532,7 +14559,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14570,7 +14597,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14608,7 +14635,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14646,7 +14673,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14684,7 +14711,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14722,7 +14749,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14760,7 +14787,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14798,7 +14825,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14836,7 +14863,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14874,7 +14901,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14912,7 +14939,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14950,7 +14977,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14988,7 +15015,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15026,7 +15053,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15064,7 +15091,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15102,7 +15129,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15140,7 +15167,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15178,7 +15205,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15216,7 +15243,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15254,7 +15281,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15292,7 +15319,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15330,7 +15357,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15368,7 +15395,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15406,7 +15433,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15444,7 +15471,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15482,7 +15509,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15520,7 +15547,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15558,7 +15585,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15596,7 +15623,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15634,7 +15661,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15672,7 +15699,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15710,7 +15737,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15748,7 +15775,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15786,7 +15813,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15824,7 +15851,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15862,7 +15889,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15900,7 +15927,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15938,7 +15965,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15976,7 +16003,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16014,7 +16041,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16052,7 +16079,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16090,7 +16117,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16128,7 +16155,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16166,7 +16193,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16204,7 +16231,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16242,7 +16269,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16280,7 +16307,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16318,7 +16345,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16356,7 +16383,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16394,7 +16421,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16432,7 +16459,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16470,7 +16497,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16508,7 +16535,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16546,7 +16573,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16584,7 +16611,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16622,7 +16649,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16660,7 +16687,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16698,7 +16725,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16736,7 +16763,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16774,7 +16801,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16812,7 +16839,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16850,7 +16877,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16888,7 +16915,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16926,7 +16953,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16964,7 +16991,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17002,7 +17029,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17040,7 +17067,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17078,7 +17105,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17116,7 +17143,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17154,7 +17181,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17192,7 +17219,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17230,7 +17257,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17268,7 +17295,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17306,7 +17333,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17344,7 +17371,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17382,7 +17409,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17420,7 +17447,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17458,7 +17485,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17496,7 +17523,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17534,7 +17561,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17572,7 +17599,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17610,7 +17637,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17648,7 +17675,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17686,7 +17713,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17724,7 +17751,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17762,7 +17789,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17800,7 +17827,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17838,7 +17865,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17876,7 +17903,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17914,7 +17941,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17952,7 +17979,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17990,7 +18017,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18028,7 +18055,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18066,7 +18093,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18104,7 +18131,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18142,7 +18169,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18180,7 +18207,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18218,7 +18245,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18256,7 +18283,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18294,7 +18321,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18332,7 +18359,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18370,7 +18397,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18408,7 +18435,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18446,7 +18473,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18484,7 +18511,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18522,7 +18549,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18560,7 +18587,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18598,7 +18625,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18636,7 +18663,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18674,7 +18701,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18712,7 +18739,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18750,7 +18777,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18788,7 +18815,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18826,7 +18853,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18864,7 +18891,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18902,7 +18929,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18940,7 +18967,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18978,7 +19005,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19016,7 +19043,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19054,7 +19081,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19092,7 +19119,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19130,7 +19157,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19168,7 +19195,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19206,7 +19233,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19244,7 +19271,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19282,7 +19309,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19320,7 +19347,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19358,7 +19385,7 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19396,7 +19423,7 @@
         <v>13.25</v>
       </c>
       <c r="L463" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19434,7 +19461,7 @@
         <v>13.25</v>
       </c>
       <c r="L464" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19472,7 +19499,7 @@
         <v>13.25</v>
       </c>
       <c r="L465" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19510,7 +19537,349 @@
         <v>13.25</v>
       </c>
       <c r="L466" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
         <v>476</v>
+      </c>
+      <c r="C467">
+        <v>12.85</v>
+      </c>
+      <c r="D467">
+        <v>0.32</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>16.02</v>
+      </c>
+      <c r="G467">
+        <v>98</v>
+      </c>
+      <c r="H467">
+        <v>-48.92</v>
+      </c>
+      <c r="I467">
+        <v>-0.11</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>13.25</v>
+      </c>
+      <c r="L467" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>477</v>
+      </c>
+      <c r="C468">
+        <v>12.86</v>
+      </c>
+      <c r="D468">
+        <v>0.31</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>16</v>
+      </c>
+      <c r="G468">
+        <v>98</v>
+      </c>
+      <c r="H468">
+        <v>-48.93</v>
+      </c>
+      <c r="I468">
+        <v>0.48</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>13.25</v>
+      </c>
+      <c r="L468" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469">
+        <v>12.79</v>
+      </c>
+      <c r="D469">
+        <v>0.32</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>16.08</v>
+      </c>
+      <c r="G469">
+        <v>98</v>
+      </c>
+      <c r="H469">
+        <v>-48.84</v>
+      </c>
+      <c r="I469">
+        <v>0.1</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>13.25</v>
+      </c>
+      <c r="L469" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470">
+        <v>12.79</v>
+      </c>
+      <c r="D470">
+        <v>0.32</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>16.13</v>
+      </c>
+      <c r="G470">
+        <v>98</v>
+      </c>
+      <c r="H470">
+        <v>-48.81</v>
+      </c>
+      <c r="I470">
+        <v>-0.1</v>
+      </c>
+      <c r="J470">
+        <v>0.36</v>
+      </c>
+      <c r="K470">
+        <v>13.25</v>
+      </c>
+      <c r="L470" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>480</v>
+      </c>
+      <c r="C471">
+        <v>12.79</v>
+      </c>
+      <c r="D471">
+        <v>0.32</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>16.16</v>
+      </c>
+      <c r="G471">
+        <v>98</v>
+      </c>
+      <c r="H471">
+        <v>-48.77</v>
+      </c>
+      <c r="I471">
+        <v>-0.01</v>
+      </c>
+      <c r="J471">
+        <v>5.52</v>
+      </c>
+      <c r="K471">
+        <v>13.25</v>
+      </c>
+      <c r="L471" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>481</v>
+      </c>
+      <c r="C472">
+        <v>12.88</v>
+      </c>
+      <c r="D472">
+        <v>0.32</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>16.26</v>
+      </c>
+      <c r="G472">
+        <v>98</v>
+      </c>
+      <c r="H472">
+        <v>-48.71</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>13.41</v>
+      </c>
+      <c r="K472">
+        <v>13.25</v>
+      </c>
+      <c r="L472" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>482</v>
+      </c>
+      <c r="C473">
+        <v>12.96</v>
+      </c>
+      <c r="D473">
+        <v>0.32</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>16.35</v>
+      </c>
+      <c r="G473">
+        <v>98</v>
+      </c>
+      <c r="H473">
+        <v>-48.64</v>
+      </c>
+      <c r="I473">
+        <v>0.06</v>
+      </c>
+      <c r="J473">
+        <v>23.86</v>
+      </c>
+      <c r="K473">
+        <v>13.25</v>
+      </c>
+      <c r="L473" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>483</v>
+      </c>
+      <c r="C474">
+        <v>13.13</v>
+      </c>
+      <c r="D474">
+        <v>0.32</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>16.43</v>
+      </c>
+      <c r="G474">
+        <v>98</v>
+      </c>
+      <c r="H474">
+        <v>-48.56</v>
+      </c>
+      <c r="I474">
+        <v>-0.04</v>
+      </c>
+      <c r="J474">
+        <v>42.04</v>
+      </c>
+      <c r="K474">
+        <v>13.25</v>
+      </c>
+      <c r="L474" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>484</v>
+      </c>
+      <c r="C475">
+        <v>13.23</v>
+      </c>
+      <c r="D475">
+        <v>0.32</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>16.47</v>
+      </c>
+      <c r="G475">
+        <v>98</v>
+      </c>
+      <c r="H475">
+        <v>-48.48</v>
+      </c>
+      <c r="I475">
+        <v>-0.01</v>
+      </c>
+      <c r="J475">
+        <v>39.27</v>
+      </c>
+      <c r="K475">
+        <v>13.25</v>
+      </c>
+      <c r="L475" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="495">
   <si>
     <t>Fecha</t>
   </si>
@@ -1469,6 +1469,33 @@
   </si>
   <si>
     <t>11/17/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:20:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1829,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L475"/>
+  <dimension ref="A1:L484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1905,7 +1932,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1943,7 +1970,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1981,7 +2008,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2019,7 +2046,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2057,7 +2084,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2095,7 +2122,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2133,7 +2160,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2171,7 +2198,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2209,7 +2236,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2247,7 +2274,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2285,7 +2312,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2323,7 +2350,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2361,7 +2388,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2399,7 +2426,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2437,7 +2464,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2475,7 +2502,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2513,7 +2540,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2551,7 +2578,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2589,7 +2616,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2627,7 +2654,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2665,7 +2692,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2703,7 +2730,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2741,7 +2768,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2779,7 +2806,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2817,7 +2844,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2855,7 +2882,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2893,7 +2920,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2931,7 +2958,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2969,7 +2996,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3007,7 +3034,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3045,7 +3072,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3083,7 +3110,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3121,7 +3148,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3159,7 +3186,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3197,7 +3224,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3235,7 +3262,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3273,7 +3300,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3311,7 +3338,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3349,7 +3376,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3387,7 +3414,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3425,7 +3452,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3463,7 +3490,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3501,7 +3528,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3539,7 +3566,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3577,7 +3604,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3615,7 +3642,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3653,7 +3680,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3691,7 +3718,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3729,7 +3756,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3767,7 +3794,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3805,7 +3832,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3843,7 +3870,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3881,7 +3908,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3919,7 +3946,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3957,7 +3984,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3995,7 +4022,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4033,7 +4060,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4071,7 +4098,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4109,7 +4136,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4147,7 +4174,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4185,7 +4212,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4223,7 +4250,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4261,7 +4288,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4299,7 +4326,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4337,7 +4364,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4375,7 +4402,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4413,7 +4440,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4451,7 +4478,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4489,7 +4516,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4527,7 +4554,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4565,7 +4592,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4603,7 +4630,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4641,7 +4668,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4679,7 +4706,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4717,7 +4744,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4755,7 +4782,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4793,7 +4820,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4831,7 +4858,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4869,7 +4896,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4907,7 +4934,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4945,7 +4972,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4983,7 +5010,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5021,7 +5048,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5059,7 +5086,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5097,7 +5124,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5135,7 +5162,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5173,7 +5200,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5211,7 +5238,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5249,7 +5276,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5287,7 +5314,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5325,7 +5352,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5363,7 +5390,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5401,7 +5428,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5439,7 +5466,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5477,7 +5504,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5515,7 +5542,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5553,7 +5580,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5591,7 +5618,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5629,7 +5656,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5667,7 +5694,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5705,7 +5732,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5743,7 +5770,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5781,7 +5808,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5819,7 +5846,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5857,7 +5884,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5895,7 +5922,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5933,7 +5960,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5971,7 +5998,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6009,7 +6036,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6047,7 +6074,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6085,7 +6112,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6123,7 +6150,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6161,7 +6188,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6199,7 +6226,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6237,7 +6264,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6275,7 +6302,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6313,7 +6340,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6351,7 +6378,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6389,7 +6416,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6427,7 +6454,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6465,7 +6492,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6503,7 +6530,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6541,7 +6568,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6579,7 +6606,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6617,7 +6644,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6655,7 +6682,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6693,7 +6720,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6731,7 +6758,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6769,7 +6796,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6807,7 +6834,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6845,7 +6872,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6883,7 +6910,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6921,7 +6948,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6959,7 +6986,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6997,7 +7024,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7035,7 +7062,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7073,7 +7100,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7111,7 +7138,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7149,7 +7176,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7187,7 +7214,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7225,7 +7252,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7263,7 +7290,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7301,7 +7328,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7339,7 +7366,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7377,7 +7404,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7415,7 +7442,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7453,7 +7480,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7491,7 +7518,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7529,7 +7556,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7567,7 +7594,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7605,7 +7632,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7643,7 +7670,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7681,7 +7708,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7719,7 +7746,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7757,7 +7784,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7795,7 +7822,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7833,7 +7860,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7871,7 +7898,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7909,7 +7936,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7947,7 +7974,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7985,7 +8012,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8023,7 +8050,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8061,7 +8088,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8099,7 +8126,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8137,7 +8164,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8175,7 +8202,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8213,7 +8240,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8251,7 +8278,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8289,7 +8316,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8327,7 +8354,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8365,7 +8392,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8403,7 +8430,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8441,7 +8468,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8479,7 +8506,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8517,7 +8544,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8555,7 +8582,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8593,7 +8620,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8631,7 +8658,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8669,7 +8696,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8707,7 +8734,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8745,7 +8772,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8783,7 +8810,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8821,7 +8848,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8859,7 +8886,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8897,7 +8924,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8935,7 +8962,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8973,7 +9000,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9011,7 +9038,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9049,7 +9076,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9087,7 +9114,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9125,7 +9152,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9163,7 +9190,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9201,7 +9228,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9239,7 +9266,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9277,7 +9304,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9315,7 +9342,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9353,7 +9380,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9391,7 +9418,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9429,7 +9456,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9467,7 +9494,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9505,7 +9532,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9543,7 +9570,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9581,7 +9608,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9619,7 +9646,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9657,7 +9684,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9695,7 +9722,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9733,7 +9760,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9771,7 +9798,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9809,7 +9836,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9847,7 +9874,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9885,7 +9912,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9923,7 +9950,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9961,7 +9988,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9999,7 +10026,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10037,7 +10064,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10075,7 +10102,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10113,7 +10140,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10151,7 +10178,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10189,7 +10216,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10227,7 +10254,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10265,7 +10292,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10303,7 +10330,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10341,7 +10368,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10379,7 +10406,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10417,7 +10444,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10455,7 +10482,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10493,7 +10520,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10531,7 +10558,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10569,7 +10596,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10607,7 +10634,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10645,7 +10672,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10683,7 +10710,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10721,7 +10748,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10759,7 +10786,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10797,7 +10824,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10835,7 +10862,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10873,7 +10900,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10911,7 +10938,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10949,7 +10976,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10987,7 +11014,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11025,7 +11052,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11063,7 +11090,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11101,7 +11128,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11139,7 +11166,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11177,7 +11204,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11215,7 +11242,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11253,7 +11280,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11291,7 +11318,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11329,7 +11356,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11367,7 +11394,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11405,7 +11432,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11443,7 +11470,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11481,7 +11508,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11519,7 +11546,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11557,7 +11584,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11595,7 +11622,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11633,7 +11660,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11671,7 +11698,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11709,7 +11736,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11747,7 +11774,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11785,7 +11812,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11823,7 +11850,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11861,7 +11888,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11899,7 +11926,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11937,7 +11964,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11975,7 +12002,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12013,7 +12040,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12051,7 +12078,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12089,7 +12116,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12127,7 +12154,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12165,7 +12192,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12203,7 +12230,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12241,7 +12268,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12279,7 +12306,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12317,7 +12344,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12355,7 +12382,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12393,7 +12420,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12431,7 +12458,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12469,7 +12496,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12507,7 +12534,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12545,7 +12572,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12583,7 +12610,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12621,7 +12648,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12659,7 +12686,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12697,7 +12724,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12735,7 +12762,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12773,7 +12800,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12811,7 +12838,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12849,7 +12876,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12887,7 +12914,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12925,7 +12952,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12963,7 +12990,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13001,7 +13028,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13039,7 +13066,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13077,7 +13104,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13115,7 +13142,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13153,7 +13180,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13191,7 +13218,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13229,7 +13256,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13267,7 +13294,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13305,7 +13332,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13343,7 +13370,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13381,7 +13408,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13419,7 +13446,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13457,7 +13484,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13495,7 +13522,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13533,7 +13560,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13571,7 +13598,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13609,7 +13636,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13647,7 +13674,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13685,7 +13712,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13723,7 +13750,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13761,7 +13788,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13799,7 +13826,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13837,7 +13864,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13875,7 +13902,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13913,7 +13940,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13951,7 +13978,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13989,7 +14016,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14027,7 +14054,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14065,7 +14092,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14103,7 +14130,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14141,7 +14168,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14179,7 +14206,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14217,7 +14244,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14255,7 +14282,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14293,7 +14320,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14331,7 +14358,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14369,7 +14396,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14407,7 +14434,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14445,7 +14472,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14483,7 +14510,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14521,7 +14548,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14559,7 +14586,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14597,7 +14624,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14635,7 +14662,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14673,7 +14700,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14711,7 +14738,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14749,7 +14776,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14787,7 +14814,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14825,7 +14852,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14863,7 +14890,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14901,7 +14928,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14939,7 +14966,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14977,7 +15004,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15015,7 +15042,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15053,7 +15080,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15091,7 +15118,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15129,7 +15156,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15167,7 +15194,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15205,7 +15232,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15243,7 +15270,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15281,7 +15308,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15319,7 +15346,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15357,7 +15384,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15395,7 +15422,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15433,7 +15460,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15471,7 +15498,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15509,7 +15536,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15547,7 +15574,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15585,7 +15612,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15623,7 +15650,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15661,7 +15688,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15699,7 +15726,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15737,7 +15764,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15775,7 +15802,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15813,7 +15840,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15851,7 +15878,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15889,7 +15916,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15927,7 +15954,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15965,7 +15992,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16003,7 +16030,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16041,7 +16068,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16079,7 +16106,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16117,7 +16144,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16155,7 +16182,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16193,7 +16220,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16231,7 +16258,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16269,7 +16296,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16307,7 +16334,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16345,7 +16372,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16383,7 +16410,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16421,7 +16448,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16459,7 +16486,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16497,7 +16524,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16535,7 +16562,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16573,7 +16600,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16611,7 +16638,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16649,7 +16676,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16687,7 +16714,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16725,7 +16752,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16763,7 +16790,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16801,7 +16828,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16839,7 +16866,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16877,7 +16904,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16915,7 +16942,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16953,7 +16980,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16991,7 +17018,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17029,7 +17056,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17067,7 +17094,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17105,7 +17132,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17143,7 +17170,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17181,7 +17208,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17219,7 +17246,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17257,7 +17284,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17295,7 +17322,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17333,7 +17360,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17371,7 +17398,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17409,7 +17436,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17447,7 +17474,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17485,7 +17512,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17523,7 +17550,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17561,7 +17588,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17599,7 +17626,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17637,7 +17664,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17675,7 +17702,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17713,7 +17740,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17751,7 +17778,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17789,7 +17816,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17827,7 +17854,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17865,7 +17892,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17903,7 +17930,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17941,7 +17968,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17979,7 +18006,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18017,7 +18044,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18055,7 +18082,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18093,7 +18120,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18131,7 +18158,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18169,7 +18196,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18207,7 +18234,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18245,7 +18272,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18283,7 +18310,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18321,7 +18348,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18359,7 +18386,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18397,7 +18424,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18435,7 +18462,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18473,7 +18500,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18511,7 +18538,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18549,7 +18576,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18587,7 +18614,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18625,7 +18652,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18663,7 +18690,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18701,7 +18728,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18739,7 +18766,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18777,7 +18804,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18815,7 +18842,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18853,7 +18880,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18891,7 +18918,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18929,7 +18956,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18967,7 +18994,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19005,7 +19032,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19043,7 +19070,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19081,7 +19108,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19119,7 +19146,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19157,7 +19184,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19195,7 +19222,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19233,7 +19260,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19271,7 +19298,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19309,7 +19336,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19347,7 +19374,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19385,7 +19412,7 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19423,7 +19450,7 @@
         <v>13.25</v>
       </c>
       <c r="L463" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19461,7 +19488,7 @@
         <v>13.25</v>
       </c>
       <c r="L464" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19499,7 +19526,7 @@
         <v>13.25</v>
       </c>
       <c r="L465" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19537,7 +19564,7 @@
         <v>13.25</v>
       </c>
       <c r="L466" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19575,7 +19602,7 @@
         <v>13.25</v>
       </c>
       <c r="L467" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19613,7 +19640,7 @@
         <v>13.25</v>
       </c>
       <c r="L468" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19651,7 +19678,7 @@
         <v>13.25</v>
       </c>
       <c r="L469" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19689,7 +19716,7 @@
         <v>13.25</v>
       </c>
       <c r="L470" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19727,7 +19754,7 @@
         <v>13.25</v>
       </c>
       <c r="L471" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19765,7 +19792,7 @@
         <v>13.25</v>
       </c>
       <c r="L472" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19803,7 +19830,7 @@
         <v>13.25</v>
       </c>
       <c r="L473" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19841,7 +19868,7 @@
         <v>13.25</v>
       </c>
       <c r="L474" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19879,7 +19906,349 @@
         <v>13.25</v>
       </c>
       <c r="L475" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
         <v>485</v>
+      </c>
+      <c r="C476">
+        <v>13.44</v>
+      </c>
+      <c r="D476">
+        <v>0.32</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>16.73</v>
+      </c>
+      <c r="G476">
+        <v>98</v>
+      </c>
+      <c r="H476">
+        <v>-48.31</v>
+      </c>
+      <c r="I476">
+        <v>-0.02</v>
+      </c>
+      <c r="J476">
+        <v>120.33</v>
+      </c>
+      <c r="K476">
+        <v>13.25</v>
+      </c>
+      <c r="L476" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>486</v>
+      </c>
+      <c r="C477">
+        <v>13.64</v>
+      </c>
+      <c r="D477">
+        <v>0.33</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>17.28</v>
+      </c>
+      <c r="G477">
+        <v>98</v>
+      </c>
+      <c r="H477">
+        <v>-47.8</v>
+      </c>
+      <c r="I477">
+        <v>-0.2</v>
+      </c>
+      <c r="J477">
+        <v>210.72</v>
+      </c>
+      <c r="K477">
+        <v>13.25</v>
+      </c>
+      <c r="L477" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>487</v>
+      </c>
+      <c r="C478">
+        <v>13.64</v>
+      </c>
+      <c r="D478">
+        <v>0.34</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>17.66</v>
+      </c>
+      <c r="G478">
+        <v>98</v>
+      </c>
+      <c r="H478">
+        <v>-47.41</v>
+      </c>
+      <c r="I478">
+        <v>0.28</v>
+      </c>
+      <c r="J478">
+        <v>241.42</v>
+      </c>
+      <c r="K478">
+        <v>13.25</v>
+      </c>
+      <c r="L478" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>488</v>
+      </c>
+      <c r="C479">
+        <v>13.64</v>
+      </c>
+      <c r="D479">
+        <v>0.34</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>17.78</v>
+      </c>
+      <c r="G479">
+        <v>98</v>
+      </c>
+      <c r="H479">
+        <v>-47.29</v>
+      </c>
+      <c r="I479">
+        <v>0.01</v>
+      </c>
+      <c r="J479">
+        <v>203.1</v>
+      </c>
+      <c r="K479">
+        <v>13.25</v>
+      </c>
+      <c r="L479" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480">
+        <v>13.64</v>
+      </c>
+      <c r="D480">
+        <v>0.34</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>17.63</v>
+      </c>
+      <c r="G480">
+        <v>98</v>
+      </c>
+      <c r="H480">
+        <v>-47.42</v>
+      </c>
+      <c r="I480">
+        <v>-0.09</v>
+      </c>
+      <c r="J480">
+        <v>202.1</v>
+      </c>
+      <c r="K480">
+        <v>13.25</v>
+      </c>
+      <c r="L480" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>490</v>
+      </c>
+      <c r="C481">
+        <v>13.61</v>
+      </c>
+      <c r="D481">
+        <v>0.34</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>17.85</v>
+      </c>
+      <c r="G481">
+        <v>98</v>
+      </c>
+      <c r="H481">
+        <v>-47.26</v>
+      </c>
+      <c r="I481">
+        <v>0.01</v>
+      </c>
+      <c r="J481">
+        <v>129.55</v>
+      </c>
+      <c r="K481">
+        <v>13.25</v>
+      </c>
+      <c r="L481" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>491</v>
+      </c>
+      <c r="C482">
+        <v>13.61</v>
+      </c>
+      <c r="D482">
+        <v>0.35</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>18.1</v>
+      </c>
+      <c r="G482">
+        <v>98</v>
+      </c>
+      <c r="H482">
+        <v>-47.07</v>
+      </c>
+      <c r="I482">
+        <v>0.09</v>
+      </c>
+      <c r="J482">
+        <v>334.42</v>
+      </c>
+      <c r="K482">
+        <v>13.25</v>
+      </c>
+      <c r="L482" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>492</v>
+      </c>
+      <c r="C483">
+        <v>13.64</v>
+      </c>
+      <c r="D483">
+        <v>0.36</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>19.06</v>
+      </c>
+      <c r="G483">
+        <v>98</v>
+      </c>
+      <c r="H483">
+        <v>-46.24</v>
+      </c>
+      <c r="I483">
+        <v>-0.01</v>
+      </c>
+      <c r="J483">
+        <v>538.09</v>
+      </c>
+      <c r="K483">
+        <v>13.25</v>
+      </c>
+      <c r="L483" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.65</v>
+      </c>
+      <c r="D484">
+        <v>0.37</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>19.49</v>
+      </c>
+      <c r="G484">
+        <v>98</v>
+      </c>
+      <c r="H484">
+        <v>-45.78</v>
+      </c>
+      <c r="I484">
+        <v>-0.03</v>
+      </c>
+      <c r="J484">
+        <v>624.09</v>
+      </c>
+      <c r="K484">
+        <v>13.25</v>
+      </c>
+      <c r="L484" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/JALAPA.xlsx
+++ b/tablas_insivumeh/JALAPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="506">
   <si>
     <t>Fecha</t>
   </si>
@@ -1496,6 +1496,39 @@
   </si>
   <si>
     <t>11/17/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:10:00 AM</t>
   </si>
   <si>
     <t>JALAPA</t>
@@ -1856,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L484"/>
+  <dimension ref="A1:L495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1932,7 +1965,7 @@
         <v>13.25</v>
       </c>
       <c r="L2" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1970,7 +2003,7 @@
         <v>13.25</v>
       </c>
       <c r="L3" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2008,7 +2041,7 @@
         <v>13.25</v>
       </c>
       <c r="L4" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2046,7 +2079,7 @@
         <v>13.25</v>
       </c>
       <c r="L5" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2084,7 +2117,7 @@
         <v>13.25</v>
       </c>
       <c r="L6" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2122,7 +2155,7 @@
         <v>13.25</v>
       </c>
       <c r="L7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2160,7 +2193,7 @@
         <v>13.25</v>
       </c>
       <c r="L8" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2198,7 +2231,7 @@
         <v>13.25</v>
       </c>
       <c r="L9" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2236,7 +2269,7 @@
         <v>13.25</v>
       </c>
       <c r="L10" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2274,7 +2307,7 @@
         <v>13.25</v>
       </c>
       <c r="L11" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2312,7 +2345,7 @@
         <v>13.25</v>
       </c>
       <c r="L12" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2350,7 +2383,7 @@
         <v>13.25</v>
       </c>
       <c r="L13" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2388,7 +2421,7 @@
         <v>13.25</v>
       </c>
       <c r="L14" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2426,7 +2459,7 @@
         <v>13.25</v>
       </c>
       <c r="L15" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2464,7 +2497,7 @@
         <v>13.25</v>
       </c>
       <c r="L16" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2502,7 +2535,7 @@
         <v>13.25</v>
       </c>
       <c r="L17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2540,7 +2573,7 @@
         <v>13.25</v>
       </c>
       <c r="L18" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2578,7 +2611,7 @@
         <v>13.25</v>
       </c>
       <c r="L19" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2616,7 +2649,7 @@
         <v>13.25</v>
       </c>
       <c r="L20" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2654,7 +2687,7 @@
         <v>13.25</v>
       </c>
       <c r="L21" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2692,7 +2725,7 @@
         <v>13.25</v>
       </c>
       <c r="L22" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2730,7 +2763,7 @@
         <v>13.25</v>
       </c>
       <c r="L23" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2768,7 +2801,7 @@
         <v>13.25</v>
       </c>
       <c r="L24" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2806,7 +2839,7 @@
         <v>13.25</v>
       </c>
       <c r="L25" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2844,7 +2877,7 @@
         <v>13.25</v>
       </c>
       <c r="L26" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2882,7 +2915,7 @@
         <v>13.25</v>
       </c>
       <c r="L27" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2920,7 +2953,7 @@
         <v>13.25</v>
       </c>
       <c r="L28" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2958,7 +2991,7 @@
         <v>13.25</v>
       </c>
       <c r="L29" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2996,7 +3029,7 @@
         <v>13.25</v>
       </c>
       <c r="L30" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3034,7 +3067,7 @@
         <v>13.25</v>
       </c>
       <c r="L31" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3072,7 +3105,7 @@
         <v>13.25</v>
       </c>
       <c r="L32" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3110,7 +3143,7 @@
         <v>13.25</v>
       </c>
       <c r="L33" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3148,7 +3181,7 @@
         <v>13.25</v>
       </c>
       <c r="L34" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3186,7 +3219,7 @@
         <v>13.25</v>
       </c>
       <c r="L35" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3224,7 +3257,7 @@
         <v>13.25</v>
       </c>
       <c r="L36" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3262,7 +3295,7 @@
         <v>13.25</v>
       </c>
       <c r="L37" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3300,7 +3333,7 @@
         <v>13.25</v>
       </c>
       <c r="L38" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3338,7 +3371,7 @@
         <v>13.25</v>
       </c>
       <c r="L39" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3376,7 +3409,7 @@
         <v>13.25</v>
       </c>
       <c r="L40" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3414,7 +3447,7 @@
         <v>13.25</v>
       </c>
       <c r="L41" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3452,7 +3485,7 @@
         <v>13.25</v>
       </c>
       <c r="L42" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3490,7 +3523,7 @@
         <v>13.25</v>
       </c>
       <c r="L43" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3528,7 +3561,7 @@
         <v>13.25</v>
       </c>
       <c r="L44" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3566,7 +3599,7 @@
         <v>13.25</v>
       </c>
       <c r="L45" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3604,7 +3637,7 @@
         <v>13.25</v>
       </c>
       <c r="L46" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3642,7 +3675,7 @@
         <v>13.25</v>
       </c>
       <c r="L47" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3680,7 +3713,7 @@
         <v>13.25</v>
       </c>
       <c r="L48" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3718,7 +3751,7 @@
         <v>13.25</v>
       </c>
       <c r="L49" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3756,7 +3789,7 @@
         <v>13.25</v>
       </c>
       <c r="L50" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3794,7 +3827,7 @@
         <v>13.25</v>
       </c>
       <c r="L51" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3832,7 +3865,7 @@
         <v>13.25</v>
       </c>
       <c r="L52" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3870,7 +3903,7 @@
         <v>13.25</v>
       </c>
       <c r="L53" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3908,7 +3941,7 @@
         <v>13.25</v>
       </c>
       <c r="L54" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3946,7 +3979,7 @@
         <v>13.25</v>
       </c>
       <c r="L55" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3984,7 +4017,7 @@
         <v>13.25</v>
       </c>
       <c r="L56" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4022,7 +4055,7 @@
         <v>13.25</v>
       </c>
       <c r="L57" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4060,7 +4093,7 @@
         <v>13.25</v>
       </c>
       <c r="L58" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4098,7 +4131,7 @@
         <v>13.25</v>
       </c>
       <c r="L59" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4136,7 +4169,7 @@
         <v>13.25</v>
       </c>
       <c r="L60" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4174,7 +4207,7 @@
         <v>13.25</v>
       </c>
       <c r="L61" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4212,7 +4245,7 @@
         <v>13.25</v>
       </c>
       <c r="L62" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4250,7 +4283,7 @@
         <v>13.25</v>
       </c>
       <c r="L63" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4288,7 +4321,7 @@
         <v>13.25</v>
       </c>
       <c r="L64" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4326,7 +4359,7 @@
         <v>13.25</v>
       </c>
       <c r="L65" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4364,7 +4397,7 @@
         <v>13.25</v>
       </c>
       <c r="L66" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4402,7 +4435,7 @@
         <v>13.25</v>
       </c>
       <c r="L67" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4440,7 +4473,7 @@
         <v>13.25</v>
       </c>
       <c r="L68" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4478,7 +4511,7 @@
         <v>13.25</v>
       </c>
       <c r="L69" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4516,7 +4549,7 @@
         <v>13.25</v>
       </c>
       <c r="L70" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4554,7 +4587,7 @@
         <v>13.25</v>
       </c>
       <c r="L71" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4592,7 +4625,7 @@
         <v>13.25</v>
       </c>
       <c r="L72" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4630,7 +4663,7 @@
         <v>13.25</v>
       </c>
       <c r="L73" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4668,7 +4701,7 @@
         <v>13.25</v>
       </c>
       <c r="L74" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4706,7 +4739,7 @@
         <v>13.25</v>
       </c>
       <c r="L75" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4744,7 +4777,7 @@
         <v>13.25</v>
       </c>
       <c r="L76" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4782,7 +4815,7 @@
         <v>13.25</v>
       </c>
       <c r="L77" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4820,7 +4853,7 @@
         <v>13.25</v>
       </c>
       <c r="L78" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4858,7 +4891,7 @@
         <v>13.25</v>
       </c>
       <c r="L79" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4896,7 +4929,7 @@
         <v>13.25</v>
       </c>
       <c r="L80" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4934,7 +4967,7 @@
         <v>13.25</v>
       </c>
       <c r="L81" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4972,7 +5005,7 @@
         <v>13.25</v>
       </c>
       <c r="L82" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5010,7 +5043,7 @@
         <v>13.25</v>
       </c>
       <c r="L83" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5048,7 +5081,7 @@
         <v>13.25</v>
       </c>
       <c r="L84" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5086,7 +5119,7 @@
         <v>13.25</v>
       </c>
       <c r="L85" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5124,7 +5157,7 @@
         <v>13.25</v>
       </c>
       <c r="L86" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5162,7 +5195,7 @@
         <v>13.25</v>
       </c>
       <c r="L87" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5200,7 +5233,7 @@
         <v>13.25</v>
       </c>
       <c r="L88" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5238,7 +5271,7 @@
         <v>13.25</v>
       </c>
       <c r="L89" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5276,7 +5309,7 @@
         <v>13.25</v>
       </c>
       <c r="L90" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5314,7 +5347,7 @@
         <v>13.25</v>
       </c>
       <c r="L91" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5352,7 +5385,7 @@
         <v>13.25</v>
       </c>
       <c r="L92" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5390,7 +5423,7 @@
         <v>13.25</v>
       </c>
       <c r="L93" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5428,7 +5461,7 @@
         <v>13.25</v>
       </c>
       <c r="L94" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5466,7 +5499,7 @@
         <v>13.25</v>
       </c>
       <c r="L95" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5504,7 +5537,7 @@
         <v>13.25</v>
       </c>
       <c r="L96" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5542,7 +5575,7 @@
         <v>13.25</v>
       </c>
       <c r="L97" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5580,7 +5613,7 @@
         <v>13.25</v>
       </c>
       <c r="L98" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5618,7 +5651,7 @@
         <v>13.25</v>
       </c>
       <c r="L99" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5656,7 +5689,7 @@
         <v>13.25</v>
       </c>
       <c r="L100" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5694,7 +5727,7 @@
         <v>13.25</v>
       </c>
       <c r="L101" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5732,7 +5765,7 @@
         <v>13.25</v>
       </c>
       <c r="L102" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5770,7 +5803,7 @@
         <v>13.25</v>
       </c>
       <c r="L103" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5808,7 +5841,7 @@
         <v>13.25</v>
       </c>
       <c r="L104" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5846,7 +5879,7 @@
         <v>13.25</v>
       </c>
       <c r="L105" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5884,7 +5917,7 @@
         <v>13.25</v>
       </c>
       <c r="L106" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5922,7 +5955,7 @@
         <v>13.25</v>
       </c>
       <c r="L107" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5960,7 +5993,7 @@
         <v>13.25</v>
       </c>
       <c r="L108" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5998,7 +6031,7 @@
         <v>13.25</v>
       </c>
       <c r="L109" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6036,7 +6069,7 @@
         <v>13.25</v>
       </c>
       <c r="L110" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6074,7 +6107,7 @@
         <v>13.25</v>
       </c>
       <c r="L111" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6112,7 +6145,7 @@
         <v>13.25</v>
       </c>
       <c r="L112" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6150,7 +6183,7 @@
         <v>13.25</v>
       </c>
       <c r="L113" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6188,7 +6221,7 @@
         <v>13.25</v>
       </c>
       <c r="L114" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6226,7 +6259,7 @@
         <v>13.25</v>
       </c>
       <c r="L115" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6264,7 +6297,7 @@
         <v>13.25</v>
       </c>
       <c r="L116" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6302,7 +6335,7 @@
         <v>13.25</v>
       </c>
       <c r="L117" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6340,7 +6373,7 @@
         <v>13.25</v>
       </c>
       <c r="L118" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6378,7 +6411,7 @@
         <v>13.25</v>
       </c>
       <c r="L119" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6416,7 +6449,7 @@
         <v>13.25</v>
       </c>
       <c r="L120" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6454,7 +6487,7 @@
         <v>13.25</v>
       </c>
       <c r="L121" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6492,7 +6525,7 @@
         <v>13.25</v>
       </c>
       <c r="L122" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6530,7 +6563,7 @@
         <v>13.25</v>
       </c>
       <c r="L123" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6568,7 +6601,7 @@
         <v>13.25</v>
       </c>
       <c r="L124" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6606,7 +6639,7 @@
         <v>13.25</v>
       </c>
       <c r="L125" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6644,7 +6677,7 @@
         <v>13.25</v>
       </c>
       <c r="L126" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6682,7 +6715,7 @@
         <v>13.25</v>
       </c>
       <c r="L127" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6720,7 +6753,7 @@
         <v>13.25</v>
       </c>
       <c r="L128" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6758,7 +6791,7 @@
         <v>13.25</v>
       </c>
       <c r="L129" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6796,7 +6829,7 @@
         <v>13.25</v>
       </c>
       <c r="L130" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6834,7 +6867,7 @@
         <v>13.25</v>
       </c>
       <c r="L131" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6872,7 +6905,7 @@
         <v>13.25</v>
       </c>
       <c r="L132" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6910,7 +6943,7 @@
         <v>13.25</v>
       </c>
       <c r="L133" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6948,7 +6981,7 @@
         <v>13.25</v>
       </c>
       <c r="L134" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6986,7 +7019,7 @@
         <v>13.25</v>
       </c>
       <c r="L135" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7024,7 +7057,7 @@
         <v>13.25</v>
       </c>
       <c r="L136" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7062,7 +7095,7 @@
         <v>13.25</v>
       </c>
       <c r="L137" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7100,7 +7133,7 @@
         <v>13.25</v>
       </c>
       <c r="L138" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7138,7 +7171,7 @@
         <v>13.25</v>
       </c>
       <c r="L139" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7176,7 +7209,7 @@
         <v>13.25</v>
       </c>
       <c r="L140" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7214,7 +7247,7 @@
         <v>13.25</v>
       </c>
       <c r="L141" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7252,7 +7285,7 @@
         <v>13.25</v>
       </c>
       <c r="L142" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7290,7 +7323,7 @@
         <v>13.25</v>
       </c>
       <c r="L143" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7328,7 +7361,7 @@
         <v>13.25</v>
       </c>
       <c r="L144" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7366,7 +7399,7 @@
         <v>13.25</v>
       </c>
       <c r="L145" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7404,7 +7437,7 @@
         <v>13.25</v>
       </c>
       <c r="L146" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7442,7 +7475,7 @@
         <v>13.25</v>
       </c>
       <c r="L147" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7480,7 +7513,7 @@
         <v>13.25</v>
       </c>
       <c r="L148" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7518,7 +7551,7 @@
         <v>13.25</v>
       </c>
       <c r="L149" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7556,7 +7589,7 @@
         <v>13.25</v>
       </c>
       <c r="L150" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7594,7 +7627,7 @@
         <v>13.25</v>
       </c>
       <c r="L151" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7632,7 +7665,7 @@
         <v>13.25</v>
       </c>
       <c r="L152" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7670,7 +7703,7 @@
         <v>13.25</v>
       </c>
       <c r="L153" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7708,7 +7741,7 @@
         <v>13.25</v>
       </c>
       <c r="L154" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7746,7 +7779,7 @@
         <v>13.25</v>
       </c>
       <c r="L155" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7784,7 +7817,7 @@
         <v>13.25</v>
       </c>
       <c r="L156" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7822,7 +7855,7 @@
         <v>13.25</v>
       </c>
       <c r="L157" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7860,7 +7893,7 @@
         <v>13.25</v>
       </c>
       <c r="L158" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7898,7 +7931,7 @@
         <v>13.25</v>
       </c>
       <c r="L159" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7936,7 +7969,7 @@
         <v>13.25</v>
       </c>
       <c r="L160" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7974,7 +8007,7 @@
         <v>13.25</v>
       </c>
       <c r="L161" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8012,7 +8045,7 @@
         <v>13.25</v>
       </c>
       <c r="L162" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8050,7 +8083,7 @@
         <v>13.25</v>
       </c>
       <c r="L163" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8088,7 +8121,7 @@
         <v>13.25</v>
       </c>
       <c r="L164" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8126,7 +8159,7 @@
         <v>13.25</v>
       </c>
       <c r="L165" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8164,7 +8197,7 @@
         <v>13.25</v>
       </c>
       <c r="L166" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8202,7 +8235,7 @@
         <v>13.25</v>
       </c>
       <c r="L167" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8240,7 +8273,7 @@
         <v>13.25</v>
       </c>
       <c r="L168" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8278,7 +8311,7 @@
         <v>13.25</v>
       </c>
       <c r="L169" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8316,7 +8349,7 @@
         <v>13.25</v>
       </c>
       <c r="L170" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8354,7 +8387,7 @@
         <v>13.25</v>
       </c>
       <c r="L171" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8392,7 +8425,7 @@
         <v>13.25</v>
       </c>
       <c r="L172" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8430,7 +8463,7 @@
         <v>13.25</v>
       </c>
       <c r="L173" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8468,7 +8501,7 @@
         <v>13.25</v>
       </c>
       <c r="L174" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8506,7 +8539,7 @@
         <v>13.25</v>
       </c>
       <c r="L175" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8544,7 +8577,7 @@
         <v>13.25</v>
       </c>
       <c r="L176" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8582,7 +8615,7 @@
         <v>13.25</v>
       </c>
       <c r="L177" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8620,7 +8653,7 @@
         <v>13.25</v>
       </c>
       <c r="L178" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8658,7 +8691,7 @@
         <v>13.25</v>
       </c>
       <c r="L179" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8696,7 +8729,7 @@
         <v>13.25</v>
       </c>
       <c r="L180" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8734,7 +8767,7 @@
         <v>13.25</v>
       </c>
       <c r="L181" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8772,7 +8805,7 @@
         <v>13.25</v>
       </c>
       <c r="L182" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8810,7 +8843,7 @@
         <v>13.25</v>
       </c>
       <c r="L183" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8848,7 +8881,7 @@
         <v>13.25</v>
       </c>
       <c r="L184" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8886,7 +8919,7 @@
         <v>13.25</v>
       </c>
       <c r="L185" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8924,7 +8957,7 @@
         <v>13.25</v>
       </c>
       <c r="L186" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8962,7 +8995,7 @@
         <v>13.25</v>
       </c>
       <c r="L187" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9000,7 +9033,7 @@
         <v>13.25</v>
       </c>
       <c r="L188" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9038,7 +9071,7 @@
         <v>13.25</v>
       </c>
       <c r="L189" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9076,7 +9109,7 @@
         <v>13.25</v>
       </c>
       <c r="L190" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9114,7 +9147,7 @@
         <v>13.25</v>
       </c>
       <c r="L191" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9152,7 +9185,7 @@
         <v>13.25</v>
       </c>
       <c r="L192" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9190,7 +9223,7 @@
         <v>13.25</v>
       </c>
       <c r="L193" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9228,7 +9261,7 @@
         <v>13.25</v>
       </c>
       <c r="L194" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9266,7 +9299,7 @@
         <v>13.25</v>
       </c>
       <c r="L195" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9304,7 +9337,7 @@
         <v>13.25</v>
       </c>
       <c r="L196" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9342,7 +9375,7 @@
         <v>13.25</v>
       </c>
       <c r="L197" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9380,7 +9413,7 @@
         <v>13.25</v>
       </c>
       <c r="L198" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9418,7 +9451,7 @@
         <v>13.25</v>
       </c>
       <c r="L199" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9456,7 +9489,7 @@
         <v>13.25</v>
       </c>
       <c r="L200" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9494,7 +9527,7 @@
         <v>13.25</v>
       </c>
       <c r="L201" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9532,7 +9565,7 @@
         <v>13.25</v>
       </c>
       <c r="L202" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9570,7 +9603,7 @@
         <v>13.25</v>
       </c>
       <c r="L203" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9608,7 +9641,7 @@
         <v>13.25</v>
       </c>
       <c r="L204" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9646,7 +9679,7 @@
         <v>13.25</v>
       </c>
       <c r="L205" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9684,7 +9717,7 @@
         <v>13.25</v>
       </c>
       <c r="L206" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9722,7 +9755,7 @@
         <v>13.25</v>
       </c>
       <c r="L207" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9760,7 +9793,7 @@
         <v>13.25</v>
       </c>
       <c r="L208" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9798,7 +9831,7 @@
         <v>13.25</v>
       </c>
       <c r="L209" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9836,7 +9869,7 @@
         <v>13.25</v>
       </c>
       <c r="L210" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9874,7 +9907,7 @@
         <v>13.25</v>
       </c>
       <c r="L211" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9912,7 +9945,7 @@
         <v>13.25</v>
       </c>
       <c r="L212" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9950,7 +9983,7 @@
         <v>13.25</v>
       </c>
       <c r="L213" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9988,7 +10021,7 @@
         <v>13.25</v>
       </c>
       <c r="L214" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10026,7 +10059,7 @@
         <v>13.25</v>
       </c>
       <c r="L215" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10064,7 +10097,7 @@
         <v>13.25</v>
       </c>
       <c r="L216" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10102,7 +10135,7 @@
         <v>13.25</v>
       </c>
       <c r="L217" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10140,7 +10173,7 @@
         <v>13.25</v>
       </c>
       <c r="L218" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10178,7 +10211,7 @@
         <v>13.25</v>
       </c>
       <c r="L219" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10216,7 +10249,7 @@
         <v>13.25</v>
       </c>
       <c r="L220" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10254,7 +10287,7 @@
         <v>13.25</v>
       </c>
       <c r="L221" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10292,7 +10325,7 @@
         <v>13.25</v>
       </c>
       <c r="L222" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10330,7 +10363,7 @@
         <v>13.25</v>
       </c>
       <c r="L223" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10368,7 +10401,7 @@
         <v>13.25</v>
       </c>
       <c r="L224" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10406,7 +10439,7 @@
         <v>13.25</v>
       </c>
       <c r="L225" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10444,7 +10477,7 @@
         <v>13.25</v>
       </c>
       <c r="L226" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10482,7 +10515,7 @@
         <v>13.25</v>
       </c>
       <c r="L227" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10520,7 +10553,7 @@
         <v>13.25</v>
       </c>
       <c r="L228" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10558,7 +10591,7 @@
         <v>13.25</v>
       </c>
       <c r="L229" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10596,7 +10629,7 @@
         <v>13.25</v>
       </c>
       <c r="L230" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10634,7 +10667,7 @@
         <v>13.25</v>
       </c>
       <c r="L231" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10672,7 +10705,7 @@
         <v>13.25</v>
       </c>
       <c r="L232" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10710,7 +10743,7 @@
         <v>13.25</v>
       </c>
       <c r="L233" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10748,7 +10781,7 @@
         <v>13.25</v>
       </c>
       <c r="L234" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10786,7 +10819,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10824,7 +10857,7 @@
         <v>13.25</v>
       </c>
       <c r="L236" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10862,7 +10895,7 @@
         <v>13.25</v>
       </c>
       <c r="L237" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10900,7 +10933,7 @@
         <v>13.25</v>
       </c>
       <c r="L238" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10938,7 +10971,7 @@
         <v>13.25</v>
       </c>
       <c r="L239" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10976,7 +11009,7 @@
         <v>13.25</v>
       </c>
       <c r="L240" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11014,7 +11047,7 @@
         <v>13.25</v>
       </c>
       <c r="L241" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11052,7 +11085,7 @@
         <v>13.25</v>
       </c>
       <c r="L242" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11090,7 +11123,7 @@
         <v>13.25</v>
       </c>
       <c r="L243" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11128,7 +11161,7 @@
         <v>13.25</v>
       </c>
       <c r="L244" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11166,7 +11199,7 @@
         <v>13.25</v>
       </c>
       <c r="L245" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11204,7 +11237,7 @@
         <v>13.25</v>
       </c>
       <c r="L246" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11242,7 +11275,7 @@
         <v>13.25</v>
       </c>
       <c r="L247" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11280,7 +11313,7 @@
         <v>13.25</v>
       </c>
       <c r="L248" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11318,7 +11351,7 @@
         <v>13.25</v>
       </c>
       <c r="L249" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11356,7 +11389,7 @@
         <v>13.25</v>
       </c>
       <c r="L250" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11394,7 +11427,7 @@
         <v>13.25</v>
       </c>
       <c r="L251" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11432,7 +11465,7 @@
         <v>13.25</v>
       </c>
       <c r="L252" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11470,7 +11503,7 @@
         <v>13.25</v>
       </c>
       <c r="L253" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11508,7 +11541,7 @@
         <v>13.25</v>
       </c>
       <c r="L254" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11546,7 +11579,7 @@
         <v>13.25</v>
       </c>
       <c r="L255" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11584,7 +11617,7 @@
         <v>13.25</v>
       </c>
       <c r="L256" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11622,7 +11655,7 @@
         <v>13.25</v>
       </c>
       <c r="L257" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11660,7 +11693,7 @@
         <v>13.25</v>
       </c>
       <c r="L258" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11698,7 +11731,7 @@
         <v>13.25</v>
       </c>
       <c r="L259" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11736,7 +11769,7 @@
         <v>13.25</v>
       </c>
       <c r="L260" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11774,7 +11807,7 @@
         <v>13.25</v>
       </c>
       <c r="L261" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11812,7 +11845,7 @@
         <v>13.25</v>
       </c>
       <c r="L262" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11850,7 +11883,7 @@
         <v>13.25</v>
       </c>
       <c r="L263" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11888,7 +11921,7 @@
         <v>13.25</v>
       </c>
       <c r="L264" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11926,7 +11959,7 @@
         <v>13.25</v>
       </c>
       <c r="L265" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11964,7 +11997,7 @@
         <v>13.25</v>
       </c>
       <c r="L266" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12002,7 +12035,7 @@
         <v>13.25</v>
       </c>
       <c r="L267" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12040,7 +12073,7 @@
         <v>13.25</v>
       </c>
       <c r="L268" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12078,7 +12111,7 @@
         <v>13.25</v>
       </c>
       <c r="L269" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12116,7 +12149,7 @@
         <v>13.25</v>
       </c>
       <c r="L270" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12154,7 +12187,7 @@
         <v>13.25</v>
       </c>
       <c r="L271" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12192,7 +12225,7 @@
         <v>13.25</v>
       </c>
       <c r="L272" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12230,7 +12263,7 @@
         <v>13.25</v>
       </c>
       <c r="L273" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12268,7 +12301,7 @@
         <v>13.25</v>
       </c>
       <c r="L274" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12306,7 +12339,7 @@
         <v>13.25</v>
       </c>
       <c r="L275" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12344,7 +12377,7 @@
         <v>13.25</v>
       </c>
       <c r="L276" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12382,7 +12415,7 @@
         <v>13.25</v>
       </c>
       <c r="L277" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12420,7 +12453,7 @@
         <v>13.25</v>
       </c>
       <c r="L278" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12458,7 +12491,7 @@
         <v>13.25</v>
       </c>
       <c r="L279" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12496,7 +12529,7 @@
         <v>13.25</v>
       </c>
       <c r="L280" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12534,7 +12567,7 @@
         <v>13.25</v>
       </c>
       <c r="L281" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12572,7 +12605,7 @@
         <v>13.25</v>
       </c>
       <c r="L282" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12610,7 +12643,7 @@
         <v>13.25</v>
       </c>
       <c r="L283" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12648,7 +12681,7 @@
         <v>13.25</v>
       </c>
       <c r="L284" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12686,7 +12719,7 @@
         <v>13.25</v>
       </c>
       <c r="L285" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12724,7 +12757,7 @@
         <v>13.25</v>
       </c>
       <c r="L286" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12762,7 +12795,7 @@
         <v>13.25</v>
       </c>
       <c r="L287" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12800,7 +12833,7 @@
         <v>13.25</v>
       </c>
       <c r="L288" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12838,7 +12871,7 @@
         <v>13.25</v>
       </c>
       <c r="L289" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12876,7 +12909,7 @@
         <v>13.25</v>
       </c>
       <c r="L290" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12914,7 +12947,7 @@
         <v>13.25</v>
       </c>
       <c r="L291" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12952,7 +12985,7 @@
         <v>13.25</v>
       </c>
       <c r="L292" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12990,7 +13023,7 @@
         <v>13.25</v>
       </c>
       <c r="L293" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13028,7 +13061,7 @@
         <v>13.25</v>
       </c>
       <c r="L294" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13066,7 +13099,7 @@
         <v>13.25</v>
       </c>
       <c r="L295" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13104,7 +13137,7 @@
         <v>13.25</v>
       </c>
       <c r="L296" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13142,7 +13175,7 @@
         <v>13.25</v>
       </c>
       <c r="L297" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13180,7 +13213,7 @@
         <v>13.25</v>
       </c>
       <c r="L298" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13218,7 +13251,7 @@
         <v>13.25</v>
       </c>
       <c r="L299" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13256,7 +13289,7 @@
         <v>13.25</v>
       </c>
       <c r="L300" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13294,7 +13327,7 @@
         <v>13.25</v>
       </c>
       <c r="L301" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13332,7 +13365,7 @@
         <v>13.25</v>
       </c>
       <c r="L302" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13370,7 +13403,7 @@
         <v>13.25</v>
       </c>
       <c r="L303" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13408,7 +13441,7 @@
         <v>13.25</v>
       </c>
       <c r="L304" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13446,7 +13479,7 @@
         <v>13.25</v>
       </c>
       <c r="L305" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13484,7 +13517,7 @@
         <v>13.25</v>
       </c>
       <c r="L306" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13522,7 +13555,7 @@
         <v>13.25</v>
       </c>
       <c r="L307" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13560,7 +13593,7 @@
         <v>13.25</v>
       </c>
       <c r="L308" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13598,7 +13631,7 @@
         <v>13.25</v>
       </c>
       <c r="L309" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13636,7 +13669,7 @@
         <v>13.25</v>
       </c>
       <c r="L310" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13674,7 +13707,7 @@
         <v>13.25</v>
       </c>
       <c r="L311" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13712,7 +13745,7 @@
         <v>13.25</v>
       </c>
       <c r="L312" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13750,7 +13783,7 @@
         <v>13.25</v>
       </c>
       <c r="L313" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13788,7 +13821,7 @@
         <v>13.25</v>
       </c>
       <c r="L314" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13826,7 +13859,7 @@
         <v>13.25</v>
       </c>
       <c r="L315" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13864,7 +13897,7 @@
         <v>13.25</v>
       </c>
       <c r="L316" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13902,7 +13935,7 @@
         <v>13.25</v>
       </c>
       <c r="L317" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13940,7 +13973,7 @@
         <v>13.25</v>
       </c>
       <c r="L318" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13978,7 +14011,7 @@
         <v>13.25</v>
       </c>
       <c r="L319" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14016,7 +14049,7 @@
         <v>13.25</v>
       </c>
       <c r="L320" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14054,7 +14087,7 @@
         <v>13.25</v>
       </c>
       <c r="L321" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14092,7 +14125,7 @@
         <v>13.25</v>
       </c>
       <c r="L322" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14130,7 +14163,7 @@
         <v>13.25</v>
       </c>
       <c r="L323" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14168,7 +14201,7 @@
         <v>13.25</v>
       </c>
       <c r="L324" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14206,7 +14239,7 @@
         <v>13.25</v>
       </c>
       <c r="L325" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14244,7 +14277,7 @@
         <v>13.25</v>
       </c>
       <c r="L326" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14282,7 +14315,7 @@
         <v>13.25</v>
       </c>
       <c r="L327" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14320,7 +14353,7 @@
         <v>13.25</v>
       </c>
       <c r="L328" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14358,7 +14391,7 @@
         <v>13.25</v>
       </c>
       <c r="L329" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14396,7 +14429,7 @@
         <v>13.25</v>
       </c>
       <c r="L330" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14434,7 +14467,7 @@
         <v>13.25</v>
       </c>
       <c r="L331" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14472,7 +14505,7 @@
         <v>13.25</v>
       </c>
       <c r="L332" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14510,7 +14543,7 @@
         <v>13.25</v>
       </c>
       <c r="L333" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14548,7 +14581,7 @@
         <v>13.25</v>
       </c>
       <c r="L334" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14586,7 +14619,7 @@
         <v>13.25</v>
       </c>
       <c r="L335" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14624,7 +14657,7 @@
         <v>13.25</v>
       </c>
       <c r="L336" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14662,7 +14695,7 @@
         <v>13.25</v>
       </c>
       <c r="L337" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14700,7 +14733,7 @@
         <v>13.25</v>
       </c>
       <c r="L338" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14738,7 +14771,7 @@
         <v>13.25</v>
       </c>
       <c r="L339" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14776,7 +14809,7 @@
         <v>13.25</v>
       </c>
       <c r="L340" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14814,7 +14847,7 @@
         <v>13.25</v>
       </c>
       <c r="L341" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14852,7 +14885,7 @@
         <v>13.25</v>
       </c>
       <c r="L342" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14890,7 +14923,7 @@
         <v>13.25</v>
       </c>
       <c r="L343" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14928,7 +14961,7 @@
         <v>13.25</v>
       </c>
       <c r="L344" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14966,7 +14999,7 @@
         <v>13.25</v>
       </c>
       <c r="L345" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15004,7 +15037,7 @@
         <v>13.25</v>
       </c>
       <c r="L346" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15042,7 +15075,7 @@
         <v>13.25</v>
       </c>
       <c r="L347" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15080,7 +15113,7 @@
         <v>13.25</v>
       </c>
       <c r="L348" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15118,7 +15151,7 @@
         <v>13.25</v>
       </c>
       <c r="L349" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15156,7 +15189,7 @@
         <v>13.25</v>
       </c>
       <c r="L350" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15194,7 +15227,7 @@
         <v>13.25</v>
       </c>
       <c r="L351" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15232,7 +15265,7 @@
         <v>13.25</v>
       </c>
       <c r="L352" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15270,7 +15303,7 @@
         <v>13.25</v>
       </c>
       <c r="L353" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15308,7 +15341,7 @@
         <v>13.25</v>
       </c>
       <c r="L354" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15346,7 +15379,7 @@
         <v>13.25</v>
       </c>
       <c r="L355" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15384,7 +15417,7 @@
         <v>13.25</v>
       </c>
       <c r="L356" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15422,7 +15455,7 @@
         <v>13.25</v>
       </c>
       <c r="L357" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15460,7 +15493,7 @@
         <v>13.25</v>
       </c>
       <c r="L358" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15498,7 +15531,7 @@
         <v>13.25</v>
       </c>
       <c r="L359" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15536,7 +15569,7 @@
         <v>13.25</v>
       </c>
       <c r="L360" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15574,7 +15607,7 @@
         <v>13.25</v>
       </c>
       <c r="L361" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15612,7 +15645,7 @@
         <v>13.25</v>
       </c>
       <c r="L362" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15650,7 +15683,7 @@
         <v>13.25</v>
       </c>
       <c r="L363" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15688,7 +15721,7 @@
         <v>13.25</v>
       </c>
       <c r="L364" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15726,7 +15759,7 @@
         <v>13.25</v>
       </c>
       <c r="L365" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15764,7 +15797,7 @@
         <v>13.25</v>
       </c>
       <c r="L366" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15802,7 +15835,7 @@
         <v>13.25</v>
       </c>
       <c r="L367" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15840,7 +15873,7 @@
         <v>13.25</v>
       </c>
       <c r="L368" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15878,7 +15911,7 @@
         <v>13.25</v>
       </c>
       <c r="L369" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15916,7 +15949,7 @@
         <v>13.25</v>
       </c>
       <c r="L370" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15954,7 +15987,7 @@
         <v>13.25</v>
       </c>
       <c r="L371" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15992,7 +16025,7 @@
         <v>13.25</v>
       </c>
       <c r="L372" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16030,7 +16063,7 @@
         <v>13.25</v>
       </c>
       <c r="L373" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16068,7 +16101,7 @@
         <v>13.25</v>
       </c>
       <c r="L374" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16106,7 +16139,7 @@
         <v>13.25</v>
       </c>
       <c r="L375" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16144,7 +16177,7 @@
         <v>13.25</v>
       </c>
       <c r="L376" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16182,7 +16215,7 @@
         <v>13.25</v>
       </c>
       <c r="L377" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16220,7 +16253,7 @@
         <v>13.25</v>
       </c>
       <c r="L378" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16258,7 +16291,7 @@
         <v>13.25</v>
       </c>
       <c r="L379" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16296,7 +16329,7 @@
         <v>13.25</v>
       </c>
       <c r="L380" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16334,7 +16367,7 @@
         <v>13.25</v>
       </c>
       <c r="L381" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16372,7 +16405,7 @@
         <v>13.25</v>
       </c>
       <c r="L382" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16410,7 +16443,7 @@
         <v>13.25</v>
       </c>
       <c r="L383" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16448,7 +16481,7 @@
         <v>13.25</v>
       </c>
       <c r="L384" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16486,7 +16519,7 @@
         <v>13.25</v>
       </c>
       <c r="L385" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16524,7 +16557,7 @@
         <v>13.25</v>
       </c>
       <c r="L386" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16562,7 +16595,7 @@
         <v>13.25</v>
       </c>
       <c r="L387" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16600,7 +16633,7 @@
         <v>13.25</v>
       </c>
       <c r="L388" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16638,7 +16671,7 @@
         <v>13.25</v>
       </c>
       <c r="L389" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16676,7 +16709,7 @@
         <v>13.25</v>
       </c>
       <c r="L390" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16714,7 +16747,7 @@
         <v>13.25</v>
       </c>
       <c r="L391" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16752,7 +16785,7 @@
         <v>13.25</v>
       </c>
       <c r="L392" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16790,7 +16823,7 @@
         <v>13.25</v>
       </c>
       <c r="L393" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16828,7 +16861,7 @@
         <v>13.25</v>
       </c>
       <c r="L394" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16866,7 +16899,7 @@
         <v>13.25</v>
       </c>
       <c r="L395" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16904,7 +16937,7 @@
         <v>13.25</v>
       </c>
       <c r="L396" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16942,7 +16975,7 @@
         <v>13.25</v>
       </c>
       <c r="L397" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16980,7 +17013,7 @@
         <v>13.25</v>
       </c>
       <c r="L398" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17018,7 +17051,7 @@
         <v>13.25</v>
       </c>
       <c r="L399" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17056,7 +17089,7 @@
         <v>13.25</v>
       </c>
       <c r="L400" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17094,7 +17127,7 @@
         <v>13.25</v>
       </c>
       <c r="L401" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17132,7 +17165,7 @@
         <v>13.25</v>
       </c>
       <c r="L402" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17170,7 +17203,7 @@
         <v>13.25</v>
       </c>
       <c r="L403" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17208,7 +17241,7 @@
         <v>13.25</v>
       </c>
       <c r="L404" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17246,7 +17279,7 @@
         <v>13.25</v>
       </c>
       <c r="L405" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17284,7 +17317,7 @@
         <v>13.25</v>
       </c>
       <c r="L406" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17322,7 +17355,7 @@
         <v>13.25</v>
       </c>
       <c r="L407" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17360,7 +17393,7 @@
         <v>13.25</v>
       </c>
       <c r="L408" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17398,7 +17431,7 @@
         <v>13.25</v>
       </c>
       <c r="L409" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17436,7 +17469,7 @@
         <v>13.25</v>
       </c>
       <c r="L410" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17474,7 +17507,7 @@
         <v>13.25</v>
       </c>
       <c r="L411" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17512,7 +17545,7 @@
         <v>13.25</v>
       </c>
       <c r="L412" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17550,7 +17583,7 @@
         <v>13.25</v>
       </c>
       <c r="L413" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17588,7 +17621,7 @@
         <v>13.25</v>
       </c>
       <c r="L414" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17626,7 +17659,7 @@
         <v>13.25</v>
       </c>
       <c r="L415" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17664,7 +17697,7 @@
         <v>13.25</v>
       </c>
       <c r="L416" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17702,7 +17735,7 @@
         <v>13.25</v>
       </c>
       <c r="L417" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17740,7 +17773,7 @@
         <v>13.25</v>
       </c>
       <c r="L418" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17778,7 +17811,7 @@
         <v>13.25</v>
       </c>
       <c r="L419" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17816,7 +17849,7 @@
         <v>13.25</v>
       </c>
       <c r="L420" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17854,7 +17887,7 @@
         <v>13.25</v>
       </c>
       <c r="L421" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17892,7 +17925,7 @@
         <v>13.25</v>
       </c>
       <c r="L422" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17930,7 +17963,7 @@
         <v>13.25</v>
       </c>
       <c r="L423" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17968,7 +18001,7 @@
         <v>13.25</v>
       </c>
       <c r="L424" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18006,7 +18039,7 @@
         <v>13.25</v>
       </c>
       <c r="L425" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18044,7 +18077,7 @@
         <v>13.25</v>
       </c>
       <c r="L426" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18082,7 +18115,7 @@
         <v>13.25</v>
       </c>
       <c r="L427" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18120,7 +18153,7 @@
         <v>13.25</v>
       </c>
       <c r="L428" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18158,7 +18191,7 @@
         <v>13.25</v>
       </c>
       <c r="L429" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18196,7 +18229,7 @@
         <v>13.25</v>
       </c>
       <c r="L430" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18234,7 +18267,7 @@
         <v>13.25</v>
       </c>
       <c r="L431" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18272,7 +18305,7 @@
         <v>13.25</v>
       </c>
       <c r="L432" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18310,7 +18343,7 @@
         <v>13.25</v>
       </c>
       <c r="L433" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18348,7 +18381,7 @@
         <v>13.25</v>
       </c>
       <c r="L434" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18386,7 +18419,7 @@
         <v>13.25</v>
       </c>
       <c r="L435" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18424,7 +18457,7 @@
         <v>13.25</v>
       </c>
       <c r="L436" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18462,7 +18495,7 @@
         <v>13.25</v>
       </c>
       <c r="L437" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18500,7 +18533,7 @@
         <v>13.25</v>
       </c>
       <c r="L438" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18538,7 +18571,7 @@
         <v>13.25</v>
       </c>
       <c r="L439" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18576,7 +18609,7 @@
         <v>13.25</v>
       </c>
       <c r="L440" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18614,7 +18647,7 @@
         <v>13.25</v>
       </c>
       <c r="L441" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18652,7 +18685,7 @@
         <v>13.25</v>
       </c>
       <c r="L442" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18690,7 +18723,7 @@
         <v>13.25</v>
       </c>
       <c r="L443" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18728,7 +18761,7 @@
         <v>13.25</v>
       </c>
       <c r="L444" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18766,7 +18799,7 @@
         <v>13.25</v>
       </c>
       <c r="L445" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18804,7 +18837,7 @@
         <v>13.25</v>
       </c>
       <c r="L446" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18842,7 +18875,7 @@
         <v>13.25</v>
       </c>
       <c r="L447" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18880,7 +18913,7 @@
         <v>13.25</v>
       </c>
       <c r="L448" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18918,7 +18951,7 @@
         <v>13.25</v>
       </c>
       <c r="L449" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18956,7 +18989,7 @@
         <v>13.25</v>
       </c>
       <c r="L450" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18994,7 +19027,7 @@
         <v>13.25</v>
       </c>
       <c r="L451" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19032,7 +19065,7 @@
         <v>13.25</v>
       </c>
       <c r="L452" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19070,7 +19103,7 @@
         <v>13.25</v>
       </c>
       <c r="L453" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19108,7 +19141,7 @@
         <v>13.25</v>
       </c>
       <c r="L454" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19146,7 +19179,7 @@
         <v>13.25</v>
       </c>
       <c r="L455" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19184,7 +19217,7 @@
         <v>13.25</v>
       </c>
       <c r="L456" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19222,7 +19255,7 @@
         <v>13.25</v>
       </c>
       <c r="L457" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19260,7 +19293,7 @@
         <v>13.25</v>
       </c>
       <c r="L458" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19298,7 +19331,7 @@
         <v>13.25</v>
       </c>
       <c r="L459" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19336,7 +19369,7 @@
         <v>13.25</v>
       </c>
       <c r="L460" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19374,7 +19407,7 @@
         <v>13.25</v>
       </c>
       <c r="L461" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19412,7 +19445,7 @@
         <v>13.25</v>
       </c>
       <c r="L462" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19450,7 +19483,7 @@
         <v>13.25</v>
       </c>
       <c r="L463" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19488,7 +19521,7 @@
         <v>13.25</v>
       </c>
       <c r="L464" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19526,7 +19559,7 @@
         <v>13.25</v>
       </c>
       <c r="L465" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19564,7 +19597,7 @@
         <v>13.25</v>
       </c>
       <c r="L466" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19602,7 +19635,7 @@
         <v>13.25</v>
       </c>
       <c r="L467" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19640,7 +19673,7 @@
         <v>13.25</v>
       </c>
       <c r="L468" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19678,7 +19711,7 @@
         <v>13.25</v>
       </c>
       <c r="L469" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19716,7 +19749,7 @@
         <v>13.25</v>
       </c>
       <c r="L470" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19754,7 +19787,7 @@
         <v>13.25</v>
       </c>
       <c r="L471" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19792,7 +19825,7 @@
         <v>13.25</v>
       </c>
       <c r="L472" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19830,7 +19863,7 @@
         <v>13.25</v>
       </c>
       <c r="L473" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19868,7 +19901,7 @@
         <v>13.25</v>
       </c>
       <c r="L474" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19906,7 +19939,7 @@
         <v>13.25</v>
       </c>
       <c r="L475" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -19944,7 +19977,7 @@
         <v>13.25</v>
       </c>
       <c r="L476" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -19982,7 +20015,7 @@
         <v>13.25</v>
       </c>
       <c r="L477" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20020,7 +20053,7 @@
         <v>13.25</v>
       </c>
       <c r="L478" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20058,7 +20091,7 @@
         <v>13.25</v>
       </c>
       <c r="L479" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20096,7 +20129,7 @@
         <v>13.25</v>
       </c>
       <c r="L480" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20134,7 +20167,7 @@
         <v>13.25</v>
       </c>
       <c r="L481" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20172,7 +20205,7 @@
         <v>13.25</v>
       </c>
       <c r="L482" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20210,7 +20243,7 @@
         <v>13.25</v>
       </c>
       <c r="L483" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20248,7 +20281,425 @@
         <v>13.25</v>
       </c>
       <c r="L484" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
         <v>494</v>
+      </c>
+      <c r="C485">
+        <v>13.66</v>
+      </c>
+      <c r="D485">
+        <v>0.37</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>19.59</v>
+      </c>
+      <c r="G485">
+        <v>98</v>
+      </c>
+      <c r="H485">
+        <v>-45.63</v>
+      </c>
+      <c r="I485">
+        <v>0.02</v>
+      </c>
+      <c r="J485">
+        <v>545.8099999999999</v>
+      </c>
+      <c r="K485">
+        <v>13.25</v>
+      </c>
+      <c r="L485" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>495</v>
+      </c>
+      <c r="C486">
+        <v>13.66</v>
+      </c>
+      <c r="D486">
+        <v>0.38</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>19.74</v>
+      </c>
+      <c r="G486">
+        <v>98</v>
+      </c>
+      <c r="H486">
+        <v>-45.49</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>476.63</v>
+      </c>
+      <c r="K486">
+        <v>13.25</v>
+      </c>
+      <c r="L486" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>496</v>
+      </c>
+      <c r="C487">
+        <v>13.63</v>
+      </c>
+      <c r="D487">
+        <v>0.37</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>19.44</v>
+      </c>
+      <c r="G487">
+        <v>98</v>
+      </c>
+      <c r="H487">
+        <v>-45.72</v>
+      </c>
+      <c r="I487">
+        <v>-0.09</v>
+      </c>
+      <c r="J487">
+        <v>394.58</v>
+      </c>
+      <c r="K487">
+        <v>13.25</v>
+      </c>
+      <c r="L487" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>497</v>
+      </c>
+      <c r="C488">
+        <v>13.63</v>
+      </c>
+      <c r="D488">
+        <v>0.37</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>19.52</v>
+      </c>
+      <c r="G488">
+        <v>98</v>
+      </c>
+      <c r="H488">
+        <v>-45.69</v>
+      </c>
+      <c r="I488">
+        <v>-0.03</v>
+      </c>
+      <c r="J488">
+        <v>478.67</v>
+      </c>
+      <c r="K488">
+        <v>13.25</v>
+      </c>
+      <c r="L488" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>498</v>
+      </c>
+      <c r="C489">
+        <v>13.63</v>
+      </c>
+      <c r="D489">
+        <v>0.37</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>19.64</v>
+      </c>
+      <c r="G489">
+        <v>98</v>
+      </c>
+      <c r="H489">
+        <v>-45.61</v>
+      </c>
+      <c r="I489">
+        <v>0.06</v>
+      </c>
+      <c r="J489">
+        <v>506.21</v>
+      </c>
+      <c r="K489">
+        <v>13.25</v>
+      </c>
+      <c r="L489" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>499</v>
+      </c>
+      <c r="C490">
+        <v>13.66</v>
+      </c>
+      <c r="D490">
+        <v>0.38</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>20.3</v>
+      </c>
+      <c r="G490">
+        <v>98</v>
+      </c>
+      <c r="H490">
+        <v>-45.08</v>
+      </c>
+      <c r="I490">
+        <v>0.06</v>
+      </c>
+      <c r="J490">
+        <v>677.13</v>
+      </c>
+      <c r="K490">
+        <v>13.25</v>
+      </c>
+      <c r="L490" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>500</v>
+      </c>
+      <c r="C491">
+        <v>13.67</v>
+      </c>
+      <c r="D491">
+        <v>0.39</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>20.42</v>
+      </c>
+      <c r="G491">
+        <v>98</v>
+      </c>
+      <c r="H491">
+        <v>-44.9</v>
+      </c>
+      <c r="I491">
+        <v>-0.1</v>
+      </c>
+      <c r="J491">
+        <v>750.65</v>
+      </c>
+      <c r="K491">
+        <v>13.25</v>
+      </c>
+      <c r="L491" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>501</v>
+      </c>
+      <c r="C492">
+        <v>13.67</v>
+      </c>
+      <c r="D492">
+        <v>0.39</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>20.62</v>
+      </c>
+      <c r="G492">
+        <v>98</v>
+      </c>
+      <c r="H492">
+        <v>-44.71</v>
+      </c>
+      <c r="I492">
+        <v>-0.15</v>
+      </c>
+      <c r="J492">
+        <v>840.98</v>
+      </c>
+      <c r="K492">
+        <v>13.25</v>
+      </c>
+      <c r="L492" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>502</v>
+      </c>
+      <c r="C493">
+        <v>13.67</v>
+      </c>
+      <c r="D493">
+        <v>0.39</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>20.18</v>
+      </c>
+      <c r="G493">
+        <v>98</v>
+      </c>
+      <c r="H493">
+        <v>-45.05</v>
+      </c>
+      <c r="I493">
+        <v>-0.03</v>
+      </c>
+      <c r="J493">
+        <v>516.04</v>
+      </c>
+      <c r="K493">
+        <v>13.25</v>
+      </c>
+      <c r="L493" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>503</v>
+      </c>
+      <c r="C494">
+        <v>13.67</v>
+      </c>
+      <c r="D494">
+        <v>0.37</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>19.56</v>
+      </c>
+      <c r="G494">
+        <v>98</v>
+      </c>
+      <c r="H494">
+        <v>-45.64</v>
+      </c>
+      <c r="I494">
+        <v>-0.02</v>
+      </c>
+      <c r="J494">
+        <v>317.79</v>
+      </c>
+      <c r="K494">
+        <v>13.25</v>
+      </c>
+      <c r="L494" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>504</v>
+      </c>
+      <c r="C495">
+        <v>13.67</v>
+      </c>
+      <c r="D495">
+        <v>0.37</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>19.52</v>
+      </c>
+      <c r="G495">
+        <v>98</v>
+      </c>
+      <c r="H495">
+        <v>-45.76</v>
+      </c>
+      <c r="I495">
+        <v>-0.24</v>
+      </c>
+      <c r="J495">
+        <v>379.19</v>
+      </c>
+      <c r="K495">
+        <v>13.25</v>
+      </c>
+      <c r="L495" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
